--- a/data/hotels_by_city/Houston/Houston_shard_360.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_360.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="566">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1866401-Reviews-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Houston-Westchase.h3910858.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1642 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r591945541-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1866401</t>
+  </si>
+  <si>
+    <t>591945541</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Horrible Customer Service</t>
+  </si>
+  <si>
+    <t>The customer service at this hotel is horrible and atrocious. I had a very embarrassing and humiliating experience. Unbeknownst to me, a few days into my stay, my credit card was suspended by my bank due to suspicious activity.  The hotel has received an initial authorization, but I was ordering breakfast daily, so additional funds were needed. Since my card was suspended it was declining. Instead of the hotel staff doing what any other hotel would do in this situation for example; slip a note under my door to please see the front desk or leave a voice message on my hotel room phone, they take it took it to the extreme. A member of hotel staff began to pound on my door and when I opened it he threatened me to please see the desk and give them a new card, that if I didn’t they were going to call law-enforcement. At the moment I wasn't thinking about customer service I was thinking about I need to fix this problem because apparently their intention is to call the police over a few hundred dollars mind you I wasn't due to check out for another few days. I rectified the situation with my bank and had the front desk re-run the card and everything was fine. However when I went back up to my room I found I was locked out. I had to go back down to the front...The customer service at this hotel is horrible and atrocious. I had a very embarrassing and humiliating experience. Unbeknownst to me, a few days into my stay, my credit card was suspended by my bank due to suspicious activity.  The hotel has received an initial authorization, but I was ordering breakfast daily, so additional funds were needed. Since my card was suspended it was declining. Instead of the hotel staff doing what any other hotel would do in this situation for example; slip a note under my door to please see the front desk or leave a voice message on my hotel room phone, they take it took it to the extreme. A member of hotel staff began to pound on my door and when I opened it he threatened me to please see the desk and give them a new card, that if I didn’t they were going to call law-enforcement. At the moment I wasn't thinking about customer service I was thinking about I need to fix this problem because apparently their intention is to call the police over a few hundred dollars mind you I wasn't due to check out for another few days. I rectified the situation with my bank and had the front desk re-run the card and everything was fine. However when I went back up to my room I found I was locked out. I had to go back down to the front desk and have them re-issue keys. In hindsight I realized that was a ridiculous and horrific over the top reaction to the situation. I find it hard to believe that being a so-called “gold elite” member of the IHG® loyalty program that I would have been given a little bit more respect and not treated like some kind of criminal. It had only been a few hours that the card had declined. On another note the rooms here are quite dated and dirty. The carpets are sticky and during my stay I had to kill three baby sized roaches which leads me to believe they have a roach infestation problem. Also during my stay housekeeping missed my room twice. I would avoid this hotel at all costs as they have no concept of what customer service is. I have never felt so belittled and degraded in my life. I have been traveling for over 15 years and this is the first time a hotel has ever threatened to call law-enforcement over a card that that was declining for a few hours. In my opinion the staff needs training on this issue surely a simple note underneath the door to please swing by is sufficient, not sending some goon to pound on my door and make underlying threats. Horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The customer service at this hotel is horrible and atrocious. I had a very embarrassing and humiliating experience. Unbeknownst to me, a few days into my stay, my credit card was suspended by my bank due to suspicious activity.  The hotel has received an initial authorization, but I was ordering breakfast daily, so additional funds were needed. Since my card was suspended it was declining. Instead of the hotel staff doing what any other hotel would do in this situation for example; slip a note under my door to please see the front desk or leave a voice message on my hotel room phone, they take it took it to the extreme. A member of hotel staff began to pound on my door and when I opened it he threatened me to please see the desk and give them a new card, that if I didn’t they were going to call law-enforcement. At the moment I wasn't thinking about customer service I was thinking about I need to fix this problem because apparently their intention is to call the police over a few hundred dollars mind you I wasn't due to check out for another few days. I rectified the situation with my bank and had the front desk re-run the card and everything was fine. However when I went back up to my room I found I was locked out. I had to go back down to the front...The customer service at this hotel is horrible and atrocious. I had a very embarrassing and humiliating experience. Unbeknownst to me, a few days into my stay, my credit card was suspended by my bank due to suspicious activity.  The hotel has received an initial authorization, but I was ordering breakfast daily, so additional funds were needed. Since my card was suspended it was declining. Instead of the hotel staff doing what any other hotel would do in this situation for example; slip a note under my door to please see the front desk or leave a voice message on my hotel room phone, they take it took it to the extreme. A member of hotel staff began to pound on my door and when I opened it he threatened me to please see the desk and give them a new card, that if I didn’t they were going to call law-enforcement. At the moment I wasn't thinking about customer service I was thinking about I need to fix this problem because apparently their intention is to call the police over a few hundred dollars mind you I wasn't due to check out for another few days. I rectified the situation with my bank and had the front desk re-run the card and everything was fine. However when I went back up to my room I found I was locked out. I had to go back down to the front desk and have them re-issue keys. In hindsight I realized that was a ridiculous and horrific over the top reaction to the situation. I find it hard to believe that being a so-called “gold elite” member of the IHG® loyalty program that I would have been given a little bit more respect and not treated like some kind of criminal. It had only been a few hours that the card had declined. On another note the rooms here are quite dated and dirty. The carpets are sticky and during my stay I had to kill three baby sized roaches which leads me to believe they have a roach infestation problem. Also during my stay housekeeping missed my room twice. I would avoid this hotel at all costs as they have no concept of what customer service is. I have never felt so belittled and degraded in my life. I have been traveling for over 15 years and this is the first time a hotel has ever threatened to call law-enforcement over a card that that was declining for a few hours. In my opinion the staff needs training on this issue surely a simple note underneath the door to please swing by is sufficient, not sending some goon to pound on my door and make underlying threats. Horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r584483440-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584483440</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Showergate</t>
+  </si>
+  <si>
+    <t>Check-in:  May 25, 2018
+Check-out:  May 28, 2018
+Floor:  4th
+Room type:  King Leisure Nonsmoking 
+I often stay at this Holiday Inn location when visiting Houston due to the following reasons:  
+-Well lit parking lot/safe secure 
+-Friendly front desk staff
+-Clean lobby
+-Clean rooms
+-Comfortable bed
+-Good wi-fi connection and plenty of electrical ports
+Please reference one of my previous reviews for a detailed account of this property.  I also have plenty of photos for you to view as well.  
+As usual, the parking area provide a safe/secure feeling, the front desk staff was very friendly and the bedding was very comfortable.  Unfortunately, I had the following issues during my stay:
+1) Welcome points were not added
+2) Slow draining bathroom sink
+3)Shower door did not fully shut which resulted in water leakage
+I addressed issue #1 upon checking out and the Assistant Manager (Elisa) was very friendly while assisting me.  
+The first night of my stay was when items #2 and #3 surfaced.  I promptly notified the front desk and gained agreement that I would contact them on May 26th so that maintenance can tend to these issues and housekeeping can bring me some fresh towels.  I was okay with this resolution because housekeeping was no longer available for the evening.  As an FYI, I had to use three towels to soak up all the water that leaked out of the shower.  
+On May 26th I received a phone...Check-in:  May 25, 2018Check-out:  May 28, 2018Floor:  4thRoom type:  King Leisure Nonsmoking I often stay at this Holiday Inn location when visiting Houston due to the following reasons:  -Well lit parking lot/safe secure -Friendly front desk staff-Clean lobby-Clean rooms-Comfortable bed-Good wi-fi connection and plenty of electrical portsPlease reference one of my previous reviews for a detailed account of this property.  I also have plenty of photos for you to view as well.  As usual, the parking area provide a safe/secure feeling, the front desk staff was very friendly and the bedding was very comfortable.  Unfortunately, I had the following issues during my stay:1) Welcome points were not added2) Slow draining bathroom sink3)Shower door did not fully shut which resulted in water leakageI addressed issue #1 upon checking out and the Assistant Manager (Elisa) was very friendly while assisting me.  The first night of my stay was when items #2 and #3 surfaced.  I promptly notified the front desk and gained agreement that I would contact them on May 26th so that maintenance can tend to these issues and housekeeping can bring me some fresh towels.  I was okay with this resolution because housekeeping was no longer available for the evening.  As an FYI, I had to use three towels to soak up all the water that leaked out of the shower.  On May 26th I received a phone call from the front desk inquiring if I was ready for maintenance to look into issues #2 and #3.  I informed them that i would call them as I was heading out of the room.  Well, housekeeping showed up approximately 10-15 minutes after that call and I allowed him to tend to these issues.  I have to give the maintenance man tons of kudos for being so polite, professional and showing a sincere effort to help me.The maintenance man first tended to the sink.  He used a plunger and the issue was determined to be intermittent.  He was not able to fully fix the slow drainage issue, but it was slightly better than before.  As for the shower, there was not much he could do since this was a hinge issue and he was not able to re-hinge the door.  He proceeded with re-caulking the bottom area of the shower, but we both agreed some water would still escape since the bottom 1/2 to 3/4 of the door was not fully aligned.  My 2nd and 3rd night stay resulting in having to aim the shower head towards the wall in the hopes of offsetting a lot of water from leaking out.  This helped "some", but the base near the shower door still allows water to collect and water continued to leak out.  The good news is that I only ended up using one or two towels per night versus the three on the first night.  While Elisa was assisting me with issue #1 on check-out day, she was very kind to inquire about items #2 and #3.  I provided her with a brief rundown of the detailed account I provided above and she was very sincere in thanking me for letting them know of these issues so that they can look into fixing them.  I informed her that this was not the first time that I have encountered this issue with the shower door not aligning itself and resulting in water leaking out.  I titled this review "Showergate" because I sincerely feel that Holiday Inn has a serious issues with their hotels with these types of shower doors.  I informed Elisa that I noticed one location tried to "re-hinge" a shower door and the issue still persisted.  You could tell they made this attempt because there were blue hinges that were modified from the initial shower door installation.  Some Holiday Inn's have both curtain/glass door showers.  I am going to opt for a room with a shower curtain in order to offset this issue until I know that it's been fixed.I am a loyal Holiday Inn customer, am a platinum member of their Rewards Club and will continue to frequent this location.  As stated above, the staff is very kind and shows a genuine concern to helping you.  I trust that the feedback that I provided them with will be looked into and resolved so that no other customer has my experience.  That is why I provided my feedback and am writing this review:  So that Holiday Inn can fix this issue and continue being the best hotel chain that it can be.  It was somewhat difficult to take photos of the water leakage issue, but I did my best.  I will be uploading my photos to this review for you to view this issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Check-in:  May 25, 2018
+Check-out:  May 28, 2018
+Floor:  4th
+Room type:  King Leisure Nonsmoking 
+I often stay at this Holiday Inn location when visiting Houston due to the following reasons:  
+-Well lit parking lot/safe secure 
+-Friendly front desk staff
+-Clean lobby
+-Clean rooms
+-Comfortable bed
+-Good wi-fi connection and plenty of electrical ports
+Please reference one of my previous reviews for a detailed account of this property.  I also have plenty of photos for you to view as well.  
+As usual, the parking area provide a safe/secure feeling, the front desk staff was very friendly and the bedding was very comfortable.  Unfortunately, I had the following issues during my stay:
+1) Welcome points were not added
+2) Slow draining bathroom sink
+3)Shower door did not fully shut which resulted in water leakage
+I addressed issue #1 upon checking out and the Assistant Manager (Elisa) was very friendly while assisting me.  
+The first night of my stay was when items #2 and #3 surfaced.  I promptly notified the front desk and gained agreement that I would contact them on May 26th so that maintenance can tend to these issues and housekeeping can bring me some fresh towels.  I was okay with this resolution because housekeeping was no longer available for the evening.  As an FYI, I had to use three towels to soak up all the water that leaked out of the shower.  
+On May 26th I received a phone...Check-in:  May 25, 2018Check-out:  May 28, 2018Floor:  4thRoom type:  King Leisure Nonsmoking I often stay at this Holiday Inn location when visiting Houston due to the following reasons:  -Well lit parking lot/safe secure -Friendly front desk staff-Clean lobby-Clean rooms-Comfortable bed-Good wi-fi connection and plenty of electrical portsPlease reference one of my previous reviews for a detailed account of this property.  I also have plenty of photos for you to view as well.  As usual, the parking area provide a safe/secure feeling, the front desk staff was very friendly and the bedding was very comfortable.  Unfortunately, I had the following issues during my stay:1) Welcome points were not added2) Slow draining bathroom sink3)Shower door did not fully shut which resulted in water leakageI addressed issue #1 upon checking out and the Assistant Manager (Elisa) was very friendly while assisting me.  The first night of my stay was when items #2 and #3 surfaced.  I promptly notified the front desk and gained agreement that I would contact them on May 26th so that maintenance can tend to these issues and housekeeping can bring me some fresh towels.  I was okay with this resolution because housekeeping was no longer available for the evening.  As an FYI, I had to use three towels to soak up all the water that leaked out of the shower.  On May 26th I received a phone call from the front desk inquiring if I was ready for maintenance to look into issues #2 and #3.  I informed them that i would call them as I was heading out of the room.  Well, housekeeping showed up approximately 10-15 minutes after that call and I allowed him to tend to these issues.  I have to give the maintenance man tons of kudos for being so polite, professional and showing a sincere effort to help me.The maintenance man first tended to the sink.  He used a plunger and the issue was determined to be intermittent.  He was not able to fully fix the slow drainage issue, but it was slightly better than before.  As for the shower, there was not much he could do since this was a hinge issue and he was not able to re-hinge the door.  He proceeded with re-caulking the bottom area of the shower, but we both agreed some water would still escape since the bottom 1/2 to 3/4 of the door was not fully aligned.  My 2nd and 3rd night stay resulting in having to aim the shower head towards the wall in the hopes of offsetting a lot of water from leaking out.  This helped "some", but the base near the shower door still allows water to collect and water continued to leak out.  The good news is that I only ended up using one or two towels per night versus the three on the first night.  While Elisa was assisting me with issue #1 on check-out day, she was very kind to inquire about items #2 and #3.  I provided her with a brief rundown of the detailed account I provided above and she was very sincere in thanking me for letting them know of these issues so that they can look into fixing them.  I informed her that this was not the first time that I have encountered this issue with the shower door not aligning itself and resulting in water leaking out.  I titled this review "Showergate" because I sincerely feel that Holiday Inn has a serious issues with their hotels with these types of shower doors.  I informed Elisa that I noticed one location tried to "re-hinge" a shower door and the issue still persisted.  You could tell they made this attempt because there were blue hinges that were modified from the initial shower door installation.  Some Holiday Inn's have both curtain/glass door showers.  I am going to opt for a room with a shower curtain in order to offset this issue until I know that it's been fixed.I am a loyal Holiday Inn customer, am a platinum member of their Rewards Club and will continue to frequent this location.  As stated above, the staff is very kind and shows a genuine concern to helping you.  I trust that the feedback that I provided them with will be looked into and resolved so that no other customer has my experience.  That is why I provided my feedback and am writing this review:  So that Holiday Inn can fix this issue and continue being the best hotel chain that it can be.  It was somewhat difficult to take photos of the water leakage issue, but I did my best.  I will be uploading my photos to this review for you to view this issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r583300717-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583300717</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Good location for my meeting and clean.</t>
+  </si>
+  <si>
+    <t>Arrived late. Check in was quick and easy. Staff acknowledged my status as they are suppose to. Room was nice and clean and in good order. Breakfast came with my room and was prepared exactly as I requested for the diet I'm on.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r568055418-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568055418</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible hotel staffs! </t>
+  </si>
+  <si>
+    <t>We a family booked 2 rooms here! My Visa Card was charged double intentionally. We reported straight away, showed them the evidences. We keep contacting them but hopeless. We opened a dispute and our bank told us that it took 60 days to get the money back. What a terrible experience with this hotel! Don’t stayed here if you don’t want to get trouble. Horrible staffs!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded April 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2018</t>
+  </si>
+  <si>
+    <t>We a family booked 2 rooms here! My Visa Card was charged double intentionally. We reported straight away, showed them the evidences. We keep contacting them but hopeless. We opened a dispute and our bank told us that it took 60 days to get the money back. What a terrible experience with this hotel! Don’t stayed here if you don’t want to get trouble. Horrible staffs!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r566576597-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566576597</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Be careful with your card! They charged twice!</t>
+  </si>
+  <si>
+    <t>Receptionist was not friendly and not keen on answering and helping. Especially, they charged twice of what we should pay (over 300$ extra). I reported to the receptionist on the same day and they ignored. I tried to call them to fix the billing and they ignored. Emailed to GM Claudia, she didn’t respond. Emailed to Sales Director and IHG Guest Relations and they ignored. What are this hotel and IHG doing? Are they trying to steal clients’ money? Please be careful with your card when you make the decision to stay here. You can get rob easily! Will make a dispute with Master Card definitely to take my money back. It happened on 27th Feb and now 15 March, I still never heard back from them. Shame on you Holiday Inn and IHG group!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Receptionist was not friendly and not keen on answering and helping. Especially, they charged twice of what we should pay (over 300$ extra). I reported to the receptionist on the same day and they ignored. I tried to call them to fix the billing and they ignored. Emailed to GM Claudia, she didn’t respond. Emailed to Sales Director and IHG Guest Relations and they ignored. What are this hotel and IHG doing? Are they trying to steal clients’ money? Please be careful with your card when you make the decision to stay here. You can get rob easily! Will make a dispute with Master Card definitely to take my money back. It happened on 27th Feb and now 15 March, I still never heard back from them. Shame on you Holiday Inn and IHG group!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r562809578-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562809578</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, comfortable and consistent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a road warrior I always stay at the holiday inn chain across this great country.  This property is very clean, comfortable and consistent as we expect for a corporate national chain with great friendly service.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r550303713-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550303713</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Wow...</t>
+  </si>
+  <si>
+    <t>Everything went well. Check in was good. The room was clean and all. I went to eat and came back to shower. So I’m in the shower and house keeping just comes in while I’m drying off around 7pm. She taps on the door and just comes in saying towels. I’m like no this is my first night and she starts peaking into the bathroom like she’s looking for something. I asked her to leave and repeated that it’s my first night here and I shouldn’t need towels. I’m sitting here in a damn towel. I’m highly upset and don’t even want to stay here anymore. I booked for three nights for peace and relaxation. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Everything went well. Check in was good. The room was clean and all. I went to eat and came back to shower. So I’m in the shower and house keeping just comes in while I’m drying off around 7pm. She taps on the door and just comes in saying towels. I’m like no this is my first night and she starts peaking into the bathroom like she’s looking for something. I asked her to leave and repeated that it’s my first night here and I shouldn’t need towels. I’m sitting here in a damn towel. I’m highly upset and don’t even want to stay here anymore. I booked for three nights for peace and relaxation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r539784914-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539784914</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Stayed at the Holiday Inn for a conference and had a great experience.  Loren at the front desk was pleasant and very accommodating.  Mario in the restaurant was amazing.  I had a great stay and hope to come back for leisure in the near future.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r527703894-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527703894</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>Super location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best hotel in the Westchase area. The facility has some minor maintenance issues and the restaurant is mediocre at best, the staff is superb. Very welcoming and willing to do anything reasonable to improve your stay. Rooms are a nice size and quite comfortable. Parking is sometimes a challenge. Rates are reasonable. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r492797072-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492797072</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Once Again</t>
+  </si>
+  <si>
+    <t>Stayed one night at this wonderful hotel. We have stayed here before and always enjoyed our stay. Once again a VERY pleasant stay. We were in room 500, which is a corner room. Lots of windows and a view of downtown Houston. We also reserved a second room for our extended family. Maria even gave them a room on the 5th floor! Thanks again to Maria who was so VERY helpful during our stay. We enjoyed the indoor pool, SUPER comfy bed, and the VERY quiet room. Our room was very clean and so was the bathroom. We will choose this hotel again when we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Stayed one night at this wonderful hotel. We have stayed here before and always enjoyed our stay. Once again a VERY pleasant stay. We were in room 500, which is a corner room. Lots of windows and a view of downtown Houston. We also reserved a second room for our extended family. Maria even gave them a room on the 5th floor! Thanks again to Maria who was so VERY helpful during our stay. We enjoyed the indoor pool, SUPER comfy bed, and the VERY quiet room. Our room was very clean and so was the bathroom. We will choose this hotel again when we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r488727904-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488727904</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Great and comfortable hotel</t>
+  </si>
+  <si>
+    <t>The hotel is very good, quiet and comfortable. People is very kind, there is always free coffee, water and newspaper in the hotel reception.The room was also very good with a very comfortable bed and clean bed linen. The room had a microwave, refrigerator, and coffee maker. There was only one detail: the bathroom was not flawless, I found the shower a little dirty, the housekeeping has to improve. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>The hotel is very good, quiet and comfortable. People is very kind, there is always free coffee, water and newspaper in the hotel reception.The room was also very good with a very comfortable bed and clean bed linen. The room had a microwave, refrigerator, and coffee maker. There was only one detail: the bathroom was not flawless, I found the shower a little dirty, the housekeeping has to improve. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r480398415-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480398415</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Beautiful hotel</t>
+  </si>
+  <si>
+    <t>The place was clean and beautiful. I had a very nice stay. Nom smoking room on the fifth floor. Keurig coffee maker in the room. The room was clean and smelled nice. Breakfast isn't free but depending on who you book through you can get a package for it. I have no complaints. This hotel is fairly new and it was really a wonderful stay. I'd definitely go back. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>The place was clean and beautiful. I had a very nice stay. Nom smoking room on the fifth floor. Keurig coffee maker in the room. The room was clean and smelled nice. Breakfast isn't free but depending on who you book through you can get a package for it. I have no complaints. This hotel is fairly new and it was really a wonderful stay. I'd definitely go back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r463768991-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463768991</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Modern, updated, but still a Holiday Inn</t>
+  </si>
+  <si>
+    <t>Nice hotel that is updated and very new feeling. The rooms are nice and common area is nice. You could tell the quality of some of the fixtures was definitely of lesser quality, but they functioned. The "Free" Breakfast was very limited on what they offered but they offered more for a cost. The bar was alright for a quick drink but a bit pricey even with happy hour prices.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel that is updated and very new feeling. The rooms are nice and common area is nice. You could tell the quality of some of the fixtures was definitely of lesser quality, but they functioned. The "Free" Breakfast was very limited on what they offered but they offered more for a cost. The bar was alright for a quick drink but a bit pricey even with happy hour prices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r461880486-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461880486</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel, A Bit Difficult To Get To</t>
+  </si>
+  <si>
+    <t>My original stay was only for one night but I soon discovered that I needed an extra night. The staff was very friendly and were able to get me a second night at the same price as the first despite the fact that the rate was supposed to have gone up.The room was very spacious and well equipped and the bathroom was very clean and modern. One of only a few complaints about this hotel is the lack of breakfast. It is only served in the on-site restaurant and it's quite pricey. Another complaint is that it's difficult to get to if you're not from around the area, and let's be honest if you're staying at a hotel you're not from anywhere close. In trying to find the place I ended up on a toll road and had to scrounge around for some quarters that I was lucky I had. Once I found it though I quickly figured out the proper roads to use to avoid the tolls. Parking is available but it is very limited. I ended up having to park across the street on my second night. Overall I would recommend this hotel, just plan your route ahead so that you don't get caught in the tolls like I did.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>My original stay was only for one night but I soon discovered that I needed an extra night. The staff was very friendly and were able to get me a second night at the same price as the first despite the fact that the rate was supposed to have gone up.The room was very spacious and well equipped and the bathroom was very clean and modern. One of only a few complaints about this hotel is the lack of breakfast. It is only served in the on-site restaurant and it's quite pricey. Another complaint is that it's difficult to get to if you're not from around the area, and let's be honest if you're staying at a hotel you're not from anywhere close. In trying to find the place I ended up on a toll road and had to scrounge around for some quarters that I was lucky I had. Once I found it though I quickly figured out the proper roads to use to avoid the tolls. Parking is available but it is very limited. I ended up having to park across the street on my second night. Overall I would recommend this hotel, just plan your route ahead so that you don't get caught in the tolls like I did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r460780883-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460780883</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>One of the nicer locations</t>
+  </si>
+  <si>
+    <t>Well maintained facility. Attractive common area. Food offerings limited to bar snack type items but other eating options very close by. Very clean. Room is spacious and very comfortable. Nice bath area. Staff is friendly and accommodating. Rate swing wildly depending on the date. Generally a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2017</t>
+  </si>
+  <si>
+    <t>Well maintained facility. Attractive common area. Food offerings limited to bar snack type items but other eating options very close by. Very clean. Room is spacious and very comfortable. Nice bath area. Staff is friendly and accommodating. Rate swing wildly depending on the date. Generally a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r446239120-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446239120</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Price and Experience </t>
+  </si>
+  <si>
+    <t>Excellent Location just off Beltway 10.20 minutes to DowntownNew HotelVery CleanGreat StaffWonderful BedsA Little road noiseGreat Value cost is less than hotels closer to the galleria and the facility is newer and better keptDefinite place to stay on the West Side of HoustonSafe areaMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Excellent Location just off Beltway 10.20 minutes to DowntownNew HotelVery CleanGreat StaffWonderful BedsA Little road noiseGreat Value cost is less than hotels closer to the galleria and the facility is newer and better keptDefinite place to stay on the West Side of HoustonSafe areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r443081057-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443081057</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Not the best</t>
+  </si>
+  <si>
+    <t>I stayed at this Holiday Inn because it was really close to my company but I have to say that I prefer the Holiday Inn Express brand. I never had any problem in any of the Expresses that I have stayed so far.I am a platinum member but I have not been recognized at the check-in and didn't even receive a bottle of water.They have a statement in the bathroom if you forgot anything like toothpaste, shaver cream etc., they can provide complimentary but guess what??? I asked for shaver cream and they told me to buy from their small shopping. Is this the customer service commitment that they advise?I am pretty sure that next time I will move to another property to see if I can receive a better customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded December 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this Holiday Inn because it was really close to my company but I have to say that I prefer the Holiday Inn Express brand. I never had any problem in any of the Expresses that I have stayed so far.I am a platinum member but I have not been recognized at the check-in and didn't even receive a bottle of water.They have a statement in the bathroom if you forgot anything like toothpaste, shaver cream etc., they can provide complimentary but guess what??? I asked for shaver cream and they told me to buy from their small shopping. Is this the customer service commitment that they advise?I am pretty sure that next time I will move to another property to see if I can receive a better customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r437893866-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437893866</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Again a nice stay</t>
+  </si>
+  <si>
+    <t>2nd time staying in the Holiday Inn Westchase and so far it has been an awesome experience, customer service is outstanding, the bar has lot's of TVs to watch your favorite sport, or news, it has easy access, very close to uptown and downtown...another plus is that the area is very quit which assure you a nice rest when neededMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2016</t>
+  </si>
+  <si>
+    <t>2nd time staying in the Holiday Inn Westchase and so far it has been an awesome experience, customer service is outstanding, the bar has lot's of TVs to watch your favorite sport, or news, it has easy access, very close to uptown and downtown...another plus is that the area is very quit which assure you a nice rest when neededMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r423438737-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423438737</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>A Sign of the Times</t>
+  </si>
+  <si>
+    <t>Where has the service and respect for the customer gone? I stayed in this Holiday Inn, as I was in Houston on business. I rarely ever stay with this brands' hotels, but many of my partners were staying here as well. Our company secured group rates for each us that chose to stay with Holiday Inn.
+Well, the facility was clean. But, it appears there was a culture of poor service throughout! When I arrived I had to wait almost 10 minutes for a desk clerk, who comes from some unknown location on their cell phone. They were courteous once they appeared, but you get the point.
+One evening, a number of my partners and I were in the hotel restaurant and our waitress seemed as if we were inconveniencing her. Interestingly, it was a table full of highly successful entrepreneurs that love to tip well and she totally blew it!
+To top it all off...remember I mentioned we were staying on a group rate? Well, upon my checkout, the hotel didn't provide me with our group rate. They charged me the regular rates for the rooms over the duration of my stay, but I was told the desk clerk couldn't adjust my bill. He assured me it would be taken care of, but if not to call back and speak with someone. 
+Well, I've called back 3 separate times since 09/16/16 and have been told each time the person...Where has the service and respect for the customer gone? I stayed in this Holiday Inn, as I was in Houston on business. I rarely ever stay with this brands' hotels, but many of my partners were staying here as well. Our company secured group rates for each us that chose to stay with Holiday Inn.Well, the facility was clean. But, it appears there was a culture of poor service throughout! When I arrived I had to wait almost 10 minutes for a desk clerk, who comes from some unknown location on their cell phone. They were courteous once they appeared, but you get the point.One evening, a number of my partners and I were in the hotel restaurant and our waitress seemed as if we were inconveniencing her. Interestingly, it was a table full of highly successful entrepreneurs that love to tip well and she totally blew it!To top it all off...remember I mentioned we were staying on a group rate? Well, upon my checkout, the hotel didn't provide me with our group rate. They charged me the regular rates for the rooms over the duration of my stay, but I was told the desk clerk couldn't adjust my bill. He assured me it would be taken care of, but if not to call back and speak with someone. Well, I've called back 3 separate times since 09/16/16 and have been told each time the person I've spoken with couldn't make the adjustment and that someone that could make the change to my bill would contact me. I'm glad I didn't decide to hold my breath because I'm still awaiting that call and the appropriate adjustment to my bill.If you're looking for somewhere to stay in this area of Houston, TX think again before staying here! You've been warned! It may cost you more than you agree to.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Where has the service and respect for the customer gone? I stayed in this Holiday Inn, as I was in Houston on business. I rarely ever stay with this brands' hotels, but many of my partners were staying here as well. Our company secured group rates for each us that chose to stay with Holiday Inn.
+Well, the facility was clean. But, it appears there was a culture of poor service throughout! When I arrived I had to wait almost 10 minutes for a desk clerk, who comes from some unknown location on their cell phone. They were courteous once they appeared, but you get the point.
+One evening, a number of my partners and I were in the hotel restaurant and our waitress seemed as if we were inconveniencing her. Interestingly, it was a table full of highly successful entrepreneurs that love to tip well and she totally blew it!
+To top it all off...remember I mentioned we were staying on a group rate? Well, upon my checkout, the hotel didn't provide me with our group rate. They charged me the regular rates for the rooms over the duration of my stay, but I was told the desk clerk couldn't adjust my bill. He assured me it would be taken care of, but if not to call back and speak with someone. 
+Well, I've called back 3 separate times since 09/16/16 and have been told each time the person...Where has the service and respect for the customer gone? I stayed in this Holiday Inn, as I was in Houston on business. I rarely ever stay with this brands' hotels, but many of my partners were staying here as well. Our company secured group rates for each us that chose to stay with Holiday Inn.Well, the facility was clean. But, it appears there was a culture of poor service throughout! When I arrived I had to wait almost 10 minutes for a desk clerk, who comes from some unknown location on their cell phone. They were courteous once they appeared, but you get the point.One evening, a number of my partners and I were in the hotel restaurant and our waitress seemed as if we were inconveniencing her. Interestingly, it was a table full of highly successful entrepreneurs that love to tip well and she totally blew it!To top it all off...remember I mentioned we were staying on a group rate? Well, upon my checkout, the hotel didn't provide me with our group rate. They charged me the regular rates for the rooms over the duration of my stay, but I was told the desk clerk couldn't adjust my bill. He assured me it would be taken care of, but if not to call back and speak with someone. Well, I've called back 3 separate times since 09/16/16 and have been told each time the person I've spoken with couldn't make the adjustment and that someone that could make the change to my bill would contact me. I'm glad I didn't decide to hold my breath because I'm still awaiting that call and the appropriate adjustment to my bill.If you're looking for somewhere to stay in this area of Houston, TX think again before staying here! You've been warned! It may cost you more than you agree to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r422283483-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422283483</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Poor Service</t>
+  </si>
+  <si>
+    <t>The rooms are okay, but the staff did not provide good service.  It has a nice pool, but had trouble getting towels for the pool area.  The restaurant has limited hours and menu items, but there is a Cheddar's restaurant located adjacent to the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>The rooms are okay, but the staff did not provide good service.  It has a nice pool, but had trouble getting towels for the pool area.  The restaurant has limited hours and menu items, but there is a Cheddar's restaurant located adjacent to the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r420910065-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>420910065</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Great rooms!</t>
+  </si>
+  <si>
+    <t>I stayed here for a week on a business trip.  There were many hotels to choose from, but I wanted to make sure I got quiet place with a comfortable bed, and that had ample free parking.  This fit the bill.  I had a room on the second floor, toward the back of the building.  It had a flat screen TV, mini fridge, desk, large bed, and a nice bathroom.  Everything looked updated.The bed was very comfortable, which was the most important thing to me.  The parking lot was always almost full, but I always found a spot.  I like that there's a restaurant next door (however, with so many great nearby options, I never ate at it).  The room was comfortable and always quiet.Things that could be improved include the towels.  Very thin, hard, and scratchy, as towels get when they need to be replaced.  Also, there should be extra bathroom supplies (e.g. toilet paper!) in the bathroom, so you don't have to call downstairs and bother the front desk.  The breakfast should be free, as it is in comperable hotels.  It's not, so, not being lazy, I simply went to nearby bakeries/shops to pick up better tasting items on my way to work.The front desk staff was extremely friendly, both when I checked in, and every time I passed by.  I love the service here!I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for a week on a business trip.  There were many hotels to choose from, but I wanted to make sure I got quiet place with a comfortable bed, and that had ample free parking.  This fit the bill.  I had a room on the second floor, toward the back of the building.  It had a flat screen TV, mini fridge, desk, large bed, and a nice bathroom.  Everything looked updated.The bed was very comfortable, which was the most important thing to me.  The parking lot was always almost full, but I always found a spot.  I like that there's a restaurant next door (however, with so many great nearby options, I never ate at it).  The room was comfortable and always quiet.Things that could be improved include the towels.  Very thin, hard, and scratchy, as towels get when they need to be replaced.  Also, there should be extra bathroom supplies (e.g. toilet paper!) in the bathroom, so you don't have to call downstairs and bother the front desk.  The breakfast should be free, as it is in comperable hotels.  It's not, so, not being lazy, I simply went to nearby bakeries/shops to pick up better tasting items on my way to work.The front desk staff was extremely friendly, both when I checked in, and every time I passed by.  I love the service here!I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r396003293-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396003293</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Great bar with good happy hour</t>
+  </si>
+  <si>
+    <t>First I want to say I didn't stay here. I only came here to drink :) I was at an extended stay close by that had a full kitchen (needed for a 2/3 month stay) but did not have a bar/restaurant. I was so happy to find this bar so close by. But there is NO advertisement other than one small banner on the BACK side of the hotel. It's a colorful "retro" bar (think 1970's). Happy hour from 4:00-7:00 Monday through Sat! I had a Lemon Drop Martini for 6.00 and a hummus plate (big) for 5.00. Both were VERY good. The staff is a little short handed at the moment and the bartender did lots of other things but he was exceptionally attentive and pleasant. The director of sales Dorian was also great. Unfortunately the bar was extremely quiet. With all these extended stays and hotels in the immediate area they need to promote this place. It is within walking distance to some of them. So even if you don't stay here (I can't comment on the rooms) stop in for a drink.MoreShow less</t>
+  </si>
+  <si>
+    <t>First I want to say I didn't stay here. I only came here to drink :) I was at an extended stay close by that had a full kitchen (needed for a 2/3 month stay) but did not have a bar/restaurant. I was so happy to find this bar so close by. But there is NO advertisement other than one small banner on the BACK side of the hotel. It's a colorful "retro" bar (think 1970's). Happy hour from 4:00-7:00 Monday through Sat! I had a Lemon Drop Martini for 6.00 and a hummus plate (big) for 5.00. Both were VERY good. The staff is a little short handed at the moment and the bartender did lots of other things but he was exceptionally attentive and pleasant. The director of sales Dorian was also great. Unfortunately the bar was extremely quiet. With all these extended stays and hotels in the immediate area they need to promote this place. It is within walking distance to some of them. So even if you don't stay here (I can't comment on the rooms) stop in for a drink.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r395475216-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395475216</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>Excellent staff</t>
+  </si>
+  <si>
+    <t>First off I have to say that the staff were excellent, particularly Anuar on the front desk and Michael at the bar. Very fast and efficient check-in by Anuar who gave me the room cards and breakfast vouchers (although I have to say I don't really see the point of the vouchers - it's just extra cost and waste. Why not have all residents just sign for breakfast and if there rate isn't inclusive then add it to the bill?)
+I had a suite on the second floor. Large lounge area at the front with couch, tv, chest of draws and a basic kitchen (microwave, sink and coffee maker). Off that was the ensuite and ahead the bedroom. The bed was very comfortable however sleep was slightly disrupted by the loud air con kicking on and off through the night. The lounge area was dark since it was internal and this is not helped by the dark "70s style" decor. I was surprised to hear the hotel is only a year or so old as the decor gives the impression of something much older - and in my mind is what lets it down. 
+They offer a shuttle service within a 5 mile radius which I used to go to and from the office. Anuar turned out to be my personal chauffeur in the mornings as well as running the front desk! This service was great and something most other...First off I have to say that the staff were excellent, particularly Anuar on the front desk and Michael at the bar. Very fast and efficient check-in by Anuar who gave me the room cards and breakfast vouchers (although I have to say I don't really see the point of the vouchers - it's just extra cost and waste. Why not have all residents just sign for breakfast and if there rate isn't inclusive then add it to the bill?)I had a suite on the second floor. Large lounge area at the front with couch, tv, chest of draws and a basic kitchen (microwave, sink and coffee maker). Off that was the ensuite and ahead the bedroom. The bed was very comfortable however sleep was slightly disrupted by the loud air con kicking on and off through the night. The lounge area was dark since it was internal and this is not helped by the dark "70s style" decor. I was surprised to hear the hotel is only a year or so old as the decor gives the impression of something much older - and in my mind is what lets it down. They offer a shuttle service within a 5 mile radius which I used to go to and from the office. Anuar turned out to be my personal chauffeur in the mornings as well as running the front desk! This service was great and something most other hotels don't offer. The bar had a surprisingly good selection for a hotel, particularly the range of craft beers on tap. Staff there were excellent also. Food was a little disappointing both at the bar and particularly for breakfast. Breakfast was buffet style with a selection of cereals, 2 fruit daily, bread selection and some hot offerings. The hot offering was basically the same daily - bacon, sausage patty, potato, scrambled egg and either waffles or pancakes. Coffee a plenty and tea were available but fruit juices extra (first time I have come across this). You could also order off the menu but for the sake of time I didn't. I thought it a bit strange that at weekends the option to order from the menu was not available- that is when I have the time to relax and enjoy my breakfast!The pool is small as is the gym but both are fine. The staff are really what make this hotel. Will I stay there on my next trip to Houston? Probably. MoreShow less</t>
+  </si>
+  <si>
+    <t>First off I have to say that the staff were excellent, particularly Anuar on the front desk and Michael at the bar. Very fast and efficient check-in by Anuar who gave me the room cards and breakfast vouchers (although I have to say I don't really see the point of the vouchers - it's just extra cost and waste. Why not have all residents just sign for breakfast and if there rate isn't inclusive then add it to the bill?)
+I had a suite on the second floor. Large lounge area at the front with couch, tv, chest of draws and a basic kitchen (microwave, sink and coffee maker). Off that was the ensuite and ahead the bedroom. The bed was very comfortable however sleep was slightly disrupted by the loud air con kicking on and off through the night. The lounge area was dark since it was internal and this is not helped by the dark "70s style" decor. I was surprised to hear the hotel is only a year or so old as the decor gives the impression of something much older - and in my mind is what lets it down. 
+They offer a shuttle service within a 5 mile radius which I used to go to and from the office. Anuar turned out to be my personal chauffeur in the mornings as well as running the front desk! This service was great and something most other...First off I have to say that the staff were excellent, particularly Anuar on the front desk and Michael at the bar. Very fast and efficient check-in by Anuar who gave me the room cards and breakfast vouchers (although I have to say I don't really see the point of the vouchers - it's just extra cost and waste. Why not have all residents just sign for breakfast and if there rate isn't inclusive then add it to the bill?)I had a suite on the second floor. Large lounge area at the front with couch, tv, chest of draws and a basic kitchen (microwave, sink and coffee maker). Off that was the ensuite and ahead the bedroom. The bed was very comfortable however sleep was slightly disrupted by the loud air con kicking on and off through the night. The lounge area was dark since it was internal and this is not helped by the dark "70s style" decor. I was surprised to hear the hotel is only a year or so old as the decor gives the impression of something much older - and in my mind is what lets it down. They offer a shuttle service within a 5 mile radius which I used to go to and from the office. Anuar turned out to be my personal chauffeur in the mornings as well as running the front desk! This service was great and something most other hotels don't offer. The bar had a surprisingly good selection for a hotel, particularly the range of craft beers on tap. Staff there were excellent also. Food was a little disappointing both at the bar and particularly for breakfast. Breakfast was buffet style with a selection of cereals, 2 fruit daily, bread selection and some hot offerings. The hot offering was basically the same daily - bacon, sausage patty, potato, scrambled egg and either waffles or pancakes. Coffee a plenty and tea were available but fruit juices extra (first time I have come across this). You could also order off the menu but for the sake of time I didn't. I thought it a bit strange that at weekends the option to order from the menu was not available- that is when I have the time to relax and enjoy my breakfast!The pool is small as is the gym but both are fine. The staff are really what make this hotel. Will I stay there on my next trip to Houston? Probably. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r387204960-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387204960</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Worst Customer Service!</t>
+  </si>
+  <si>
+    <t>As a Platinum Elite member of IHG, I stay at Holiday Inns all the time. This hotel so far has the worst customer service from their manager. The front desk staff were friendly and helpful. However, when an issue arose, the manager handled it extremely poor and didn't have any courtesy to their customer, especially a Platinum member.
+When I checked out the hotel, my credit card company sent me an alert of an unauthorized charge from this Holiday Inn for $15. I wasn't sure what that charge was since they've already charge me for the stay, so I called them and asked about it. Apparently, they charged me for a meal that I didn't have at their restaurant. So the manager called me and said they've took off the charge, which was fine. Then, I asked if it's possible to add some bonus points to my account because all those hassles that I had to deal with them. He then basically said " I didn't even question you when I took off the $15 charge". ARE YOU SERIOUS?!!!! You charged me for something that I did not consume, and then you had the audacity to tell me that I should thank you for not questioning me for the faulty charge?! At that point, I was done! So I hung up the phone and didn't want to waste my time with them anymore.
+So my suggestion is, if you want...As a Platinum Elite member of IHG, I stay at Holiday Inns all the time. This hotel so far has the worst customer service from their manager. The front desk staff were friendly and helpful. However, when an issue arose, the manager handled it extremely poor and didn't have any courtesy to their customer, especially a Platinum member.When I checked out the hotel, my credit card company sent me an alert of an unauthorized charge from this Holiday Inn for $15. I wasn't sure what that charge was since they've already charge me for the stay, so I called them and asked about it. Apparently, they charged me for a meal that I didn't have at their restaurant. So the manager called me and said they've took off the charge, which was fine. Then, I asked if it's possible to add some bonus points to my account because all those hassles that I had to deal with them. He then basically said " I didn't even question you when I took off the $15 charge". ARE YOU SERIOUS?!!!! You charged me for something that I did not consume, and then you had the audacity to tell me that I should thank you for not questioning me for the faulty charge?! At that point, I was done! So I hung up the phone and didn't want to waste my time with them anymore.So my suggestion is, if you want to be treated with courtesy and have a good stay in a hotel, don't stay here. There's plenty of hotels that will appreciate your business.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded July 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2016</t>
+  </si>
+  <si>
+    <t>As a Platinum Elite member of IHG, I stay at Holiday Inns all the time. This hotel so far has the worst customer service from their manager. The front desk staff were friendly and helpful. However, when an issue arose, the manager handled it extremely poor and didn't have any courtesy to their customer, especially a Platinum member.
+When I checked out the hotel, my credit card company sent me an alert of an unauthorized charge from this Holiday Inn for $15. I wasn't sure what that charge was since they've already charge me for the stay, so I called them and asked about it. Apparently, they charged me for a meal that I didn't have at their restaurant. So the manager called me and said they've took off the charge, which was fine. Then, I asked if it's possible to add some bonus points to my account because all those hassles that I had to deal with them. He then basically said " I didn't even question you when I took off the $15 charge". ARE YOU SERIOUS?!!!! You charged me for something that I did not consume, and then you had the audacity to tell me that I should thank you for not questioning me for the faulty charge?! At that point, I was done! So I hung up the phone and didn't want to waste my time with them anymore.
+So my suggestion is, if you want...As a Platinum Elite member of IHG, I stay at Holiday Inns all the time. This hotel so far has the worst customer service from their manager. The front desk staff were friendly and helpful. However, when an issue arose, the manager handled it extremely poor and didn't have any courtesy to their customer, especially a Platinum member.When I checked out the hotel, my credit card company sent me an alert of an unauthorized charge from this Holiday Inn for $15. I wasn't sure what that charge was since they've already charge me for the stay, so I called them and asked about it. Apparently, they charged me for a meal that I didn't have at their restaurant. So the manager called me and said they've took off the charge, which was fine. Then, I asked if it's possible to add some bonus points to my account because all those hassles that I had to deal with them. He then basically said " I didn't even question you when I took off the $15 charge". ARE YOU SERIOUS?!!!! You charged me for something that I did not consume, and then you had the audacity to tell me that I should thank you for not questioning me for the faulty charge?! At that point, I was done! So I hung up the phone and didn't want to waste my time with them anymore.So my suggestion is, if you want to be treated with courtesy and have a good stay in a hotel, don't stay here. There's plenty of hotels that will appreciate your business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r375156204-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375156204</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Beautiful Rooms, Great Restaurant within!</t>
+  </si>
+  <si>
+    <t>The room was nice as most Holiday Inn Expresses are. Downstairs, there's a really good restaurant that has a breakfast buffet in the mornings. Jason, one of the restaurant managers, was SUPER COOL! I met him during my stay and he arranged for me to have french toast every morning with my breakfast buffet at no additional cost just because I told him I loved french toast! Great hotel staff and the cost was very reasonable, I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded May 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2016</t>
+  </si>
+  <si>
+    <t>The room was nice as most Holiday Inn Expresses are. Downstairs, there's a really good restaurant that has a breakfast buffet in the mornings. Jason, one of the restaurant managers, was SUPER COOL! I met him during my stay and he arranged for me to have french toast every morning with my breakfast buffet at no additional cost just because I told him I loved french toast! Great hotel staff and the cost was very reasonable, I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r353734860-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353734860</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>Good functional hotel near our office</t>
+  </si>
+  <si>
+    <t>The location of the hotel to our office is the big plus, however the staff were always helpful and friendly. The breakfast is very good and there is a good selection of draft when the day is done. The rooms were very comfortable and quiet. I would certainly stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r346797162-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346797162</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Nice short stay</t>
+  </si>
+  <si>
+    <t>Perfect for a business visit. I stayed just for a night and had a good sleep. Well connected with dining and shopping areas. Good and clean room. Opens to road but still very quiet at night.Breakfast wasnt very exhaustive but good to have.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r336443744-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>336443744</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>SIMPLY OUTSTANDING</t>
+  </si>
+  <si>
+    <t>If you want great service at an affordable rate in a great location in SW Houston, this is the place. The folks are very hospitable and the go out of there way to accommodate you. Breakfast or Dinner is affordable and the quality of the food is excellent. The man that makes it all happen is Phil Haddad, the manager. Call Phil 713-532-5400. For logistics reasons we spent Christmas Eve there and returned on the 29th fo another family event. We will return for sure. Don't forget. Call Phil!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Phil H, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded January 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2016</t>
+  </si>
+  <si>
+    <t>If you want great service at an affordable rate in a great location in SW Houston, this is the place. The folks are very hospitable and the go out of there way to accommodate you. Breakfast or Dinner is affordable and the quality of the food is excellent. The man that makes it all happen is Phil Haddad, the manager. Call Phil 713-532-5400. For logistics reasons we spent Christmas Eve there and returned on the 29th fo another family event. We will return for sure. Don't forget. Call Phil!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r335561606-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335561606</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>Very Good Hotel in Westchase</t>
+  </si>
+  <si>
+    <t>Check in went OK and the staff were very friendly. I had asked for a quiet room in advance without an adjoining door and this is what I got so pleased so far. Overall condition of hotel was clean and well kept. Room was clean, very comfortable and the bed, towels and linen were all clean with no issues. TV was good and you get a flat screen TV that you can plug your media devices into so happy here. No bad people hanging around hotel and although I did not get to use the gym and pool these looked OK and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in went OK and the staff were very friendly. I had asked for a quiet room in advance without an adjoining door and this is what I got so pleased so far. Overall condition of hotel was clean and well kept. Room was clean, very comfortable and the bed, towels and linen were all clean with no issues. TV was good and you get a flat screen TV that you can plug your media devices into so happy here. No bad people hanging around hotel and although I did not get to use the gym and pool these looked OK and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r318724362-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318724362</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Most comfortable Experience Ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me and my fiancé live in different states and traveling back and forth can be challenging so when we want some alone time we grab a hotel. Went online and booked this beauty and it was the most pleasurable and exciting experience. All I can say is we didn't want to not only get out the bed while visiting but we didn't want to leave. This hotel is definitely on our list as the best hotel to visit. Thanks staff for making our time pleasurable. </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r310001764-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310001764</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Great room and service</t>
+  </si>
+  <si>
+    <t>Favorite place to stay in the area. Fresh and clean appearance. Spacious rooms. Very nice bath area and beds are comfortable. Checkin staff very friendly and accommodating. Close to many office locations. Decent food nearby. Reasonable rates.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r296863709-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296863709</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Amazing rooms, excellent service!</t>
+  </si>
+  <si>
+    <t>Room was clean, modern. Staff was kind and very friendly. We went here for a short family vacation and the room was on sale for about $90 a night. Very good value for money. Much better than any Inn I have ever stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded August 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2015</t>
+  </si>
+  <si>
+    <t>Room was clean, modern. Staff was kind and very friendly. We went here for a short family vacation and the room was on sale for about $90 a night. Very good value for money. Much better than any Inn I have ever stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r291611038-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291611038</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>Everything is great about this place!!! Employees are very friendly, helpful and the rooms are very clean!! Can't wait to come back and stay! I have stayed here with my family several times and will not stay anywhere else! The beds are very very comfortable!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Everything is great about this place!!! Employees are very friendly, helpful and the rooms are very clean!! Can't wait to come back and stay! I have stayed here with my family several times and will not stay anywhere else! The beds are very very comfortable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r274893382-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274893382</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Great hotel while visiting family in Houston</t>
+  </si>
+  <si>
+    <t>The hotel was convenient location to visit Houston relatives. Clean. Comfortable bed. Great bathroom space. Suite offered sitting area with separate TV. Breakfast available for small charge. Friendly, professional desk staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Phil H, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2015</t>
+  </si>
+  <si>
+    <t>The hotel was convenient location to visit Houston relatives. Clean. Comfortable bed. Great bathroom space. Suite offered sitting area with separate TV. Breakfast available for small charge. Friendly, professional desk staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r274368462-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274368462</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good rooms, but the rest can be improved </t>
+  </si>
+  <si>
+    <t>The rooms are nice and large and good value. However the toilet was not working and it took 2 hours to get it fixed. Service at the restaurant is terrible, with too little people at weekends. YThe swimming pool is a joke and the gym is very small. The location is quite good. MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are nice and large and good value. However the toilet was not working and it took 2 hours to get it fixed. Service at the restaurant is terrible, with too little people at weekends. YThe swimming pool is a joke and the gym is very small. The location is quite good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r270140799-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270140799</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Won't stay here again</t>
+  </si>
+  <si>
+    <t>I stay in this area a week every month for work and never stayed in this hotel so gave it a shot because the pictures caught my eye and it looked new or newly remodeled.  Upon check-in, the clerk said I was staying for 1 night which was wrong.  I showed  him my reservation for 4 nights and he made the change in the system.  The next day, my key didn't work and I went to the front desk and had to argue that I was who I said I was, was checked into the room I said I was, and wasn't supposed to check out until Friday.  He kept telling me I checked out a couple hours ago, but clearly NO, I did not and I am here now.  
+Finally, Eddie, who I presume was the manager came over and explained that I had been checked out because I only had a reservation for 1 night, that my belongings had been packed and removed from the room, and he would put me in a better room and give me drink coupons.  Eddie was one of two employees here who were professional - the rest are terrible.
+My belongings arrived in plastic bags.
+As for the rooms - both showers were dirty and grimy.  The grout needs some serious cleaning and the soap scum layer on the floor of the stand up shower was pretty thick.  The suite was about...I stay in this area a week every month for work and never stayed in this hotel so gave it a shot because the pictures caught my eye and it looked new or newly remodeled.  Upon check-in, the clerk said I was staying for 1 night which was wrong.  I showed  him my reservation for 4 nights and he made the change in the system.  The next day, my key didn't work and I went to the front desk and had to argue that I was who I said I was, was checked into the room I said I was, and wasn't supposed to check out until Friday.  He kept telling me I checked out a couple hours ago, but clearly NO, I did not and I am here now.  Finally, Eddie, who I presume was the manager came over and explained that I had been checked out because I only had a reservation for 1 night, that my belongings had been packed and removed from the room, and he would put me in a better room and give me drink coupons.  Eddie was one of two employees here who were professional - the rest are terrible.My belongings arrived in plastic bags.As for the rooms - both showers were dirty and grimy.  The grout needs some serious cleaning and the soap scum layer on the floor of the stand up shower was pretty thick.  The suite was about 4 feet longer than the standard room, with the bathroom in the middle of the room, creating a separate little tiny living room big enough for the couch and nothing else. The suite had a tub, but the standard room had the stand up shower.  The restaurant is understaffed and the food so so.  I ended up walking out and going next door to Cheddars which is the worst Cheddars I've ever been in.  Holiday Inn is usually a crap shoot, they have poor standardization with quality and this one isn't the worst, but certainly needs help.  I'm going back to what I know is good in the area and won't be back to the HI.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Phil H, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>I stay in this area a week every month for work and never stayed in this hotel so gave it a shot because the pictures caught my eye and it looked new or newly remodeled.  Upon check-in, the clerk said I was staying for 1 night which was wrong.  I showed  him my reservation for 4 nights and he made the change in the system.  The next day, my key didn't work and I went to the front desk and had to argue that I was who I said I was, was checked into the room I said I was, and wasn't supposed to check out until Friday.  He kept telling me I checked out a couple hours ago, but clearly NO, I did not and I am here now.  
+Finally, Eddie, who I presume was the manager came over and explained that I had been checked out because I only had a reservation for 1 night, that my belongings had been packed and removed from the room, and he would put me in a better room and give me drink coupons.  Eddie was one of two employees here who were professional - the rest are terrible.
+My belongings arrived in plastic bags.
+As for the rooms - both showers were dirty and grimy.  The grout needs some serious cleaning and the soap scum layer on the floor of the stand up shower was pretty thick.  The suite was about...I stay in this area a week every month for work and never stayed in this hotel so gave it a shot because the pictures caught my eye and it looked new or newly remodeled.  Upon check-in, the clerk said I was staying for 1 night which was wrong.  I showed  him my reservation for 4 nights and he made the change in the system.  The next day, my key didn't work and I went to the front desk and had to argue that I was who I said I was, was checked into the room I said I was, and wasn't supposed to check out until Friday.  He kept telling me I checked out a couple hours ago, but clearly NO, I did not and I am here now.  Finally, Eddie, who I presume was the manager came over and explained that I had been checked out because I only had a reservation for 1 night, that my belongings had been packed and removed from the room, and he would put me in a better room and give me drink coupons.  Eddie was one of two employees here who were professional - the rest are terrible.My belongings arrived in plastic bags.As for the rooms - both showers were dirty and grimy.  The grout needs some serious cleaning and the soap scum layer on the floor of the stand up shower was pretty thick.  The suite was about 4 feet longer than the standard room, with the bathroom in the middle of the room, creating a separate little tiny living room big enough for the couch and nothing else. The suite had a tub, but the standard room had the stand up shower.  The restaurant is understaffed and the food so so.  I ended up walking out and going next door to Cheddars which is the worst Cheddars I've ever been in.  Holiday Inn is usually a crap shoot, they have poor standardization with quality and this one isn't the worst, but certainly needs help.  I'm going back to what I know is good in the area and won't be back to the HI.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r260533409-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260533409</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Great bed, clean and quiet.</t>
+  </si>
+  <si>
+    <t>The lobby is cute and the staff were *quick* and helpful.  Never saw a line!  Plenty of parking is available.  We never ate at the restaurant close, but we did eat at the hotel for breakfast and a late entrée-style dinner with drinks.  Good food, good beer choices.  But for me, the quiet room and clean bed.  I slept soundly.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r257734829-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257734829</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>Excellent Service, Hospitality, at Terrific Rates</t>
+  </si>
+  <si>
+    <t>Wife and I stayed here for about a week while she was getting medical treatment and they were simply top notch. With the hotel busy due to Houston's annual rodeo, the service was still always readily available and Phil, the hotel manager, was always present for any assistance we needed and he and his staff always went above and beyond with making us feel accommodated. There was an instance where the breakfast buffet was minutes from ending and the restaurant was about to close when a guest walked towards the entrance, and he found Phil opening the door, greeting him to a table to enjoy the service. Additionally, we had great experience with Anwar, one of the guys who worked at the front desk; he checked us in and was always personable and friendly whenever we'd see him at the facility. He also was super helpful when we needed assistance during one of our overnight stays there, and was prompt and professional with us. The restaurant staff was equally great and super helpful when we ate there; additionally, the food was way better than anticipated. Most hotel restaurants tend to be lacking usually in quality, but not here; the complimentary breakfast buffets were 4 stars every time and the dinner menu was equally satisfying. Additionally, the location of the hotel is fairly centralized for the main Houston attractions; it's a 20-30 minute drive from downtown, Toyota Center, Reliant Center, the...Wife and I stayed here for about a week while she was getting medical treatment and they were simply top notch. With the hotel busy due to Houston's annual rodeo, the service was still always readily available and Phil, the hotel manager, was always present for any assistance we needed and he and his staff always went above and beyond with making us feel accommodated. There was an instance where the breakfast buffet was minutes from ending and the restaurant was about to close when a guest walked towards the entrance, and he found Phil opening the door, greeting him to a table to enjoy the service. Additionally, we had great experience with Anwar, one of the guys who worked at the front desk; he checked us in and was always personable and friendly whenever we'd see him at the facility. He also was super helpful when we needed assistance during one of our overnight stays there, and was prompt and professional with us. The restaurant staff was equally great and super helpful when we ate there; additionally, the food was way better than anticipated. Most hotel restaurants tend to be lacking usually in quality, but not here; the complimentary breakfast buffets were 4 stars every time and the dinner menu was equally satisfying. Additionally, the location of the hotel is fairly centralized for the main Houston attractions; it's a 20-30 minute drive from downtown, Toyota Center, Reliant Center, the Museum and Medical Districts, and maybe 30-45 minutes from Houston Hobby and/or Bush Intercontinental Airports. I could continue on with how much we enjoyed our stay, but you have to experience it to see the top notch service they provide here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Wife and I stayed here for about a week while she was getting medical treatment and they were simply top notch. With the hotel busy due to Houston's annual rodeo, the service was still always readily available and Phil, the hotel manager, was always present for any assistance we needed and he and his staff always went above and beyond with making us feel accommodated. There was an instance where the breakfast buffet was minutes from ending and the restaurant was about to close when a guest walked towards the entrance, and he found Phil opening the door, greeting him to a table to enjoy the service. Additionally, we had great experience with Anwar, one of the guys who worked at the front desk; he checked us in and was always personable and friendly whenever we'd see him at the facility. He also was super helpful when we needed assistance during one of our overnight stays there, and was prompt and professional with us. The restaurant staff was equally great and super helpful when we ate there; additionally, the food was way better than anticipated. Most hotel restaurants tend to be lacking usually in quality, but not here; the complimentary breakfast buffets were 4 stars every time and the dinner menu was equally satisfying. Additionally, the location of the hotel is fairly centralized for the main Houston attractions; it's a 20-30 minute drive from downtown, Toyota Center, Reliant Center, the...Wife and I stayed here for about a week while she was getting medical treatment and they were simply top notch. With the hotel busy due to Houston's annual rodeo, the service was still always readily available and Phil, the hotel manager, was always present for any assistance we needed and he and his staff always went above and beyond with making us feel accommodated. There was an instance where the breakfast buffet was minutes from ending and the restaurant was about to close when a guest walked towards the entrance, and he found Phil opening the door, greeting him to a table to enjoy the service. Additionally, we had great experience with Anwar, one of the guys who worked at the front desk; he checked us in and was always personable and friendly whenever we'd see him at the facility. He also was super helpful when we needed assistance during one of our overnight stays there, and was prompt and professional with us. The restaurant staff was equally great and super helpful when we ate there; additionally, the food was way better than anticipated. Most hotel restaurants tend to be lacking usually in quality, but not here; the complimentary breakfast buffets were 4 stars every time and the dinner menu was equally satisfying. Additionally, the location of the hotel is fairly centralized for the main Houston attractions; it's a 20-30 minute drive from downtown, Toyota Center, Reliant Center, the Museum and Medical Districts, and maybe 30-45 minutes from Houston Hobby and/or Bush Intercontinental Airports. I could continue on with how much we enjoyed our stay, but you have to experience it to see the top notch service they provide here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r252912929-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252912929</t>
+  </si>
+  <si>
+    <t>02/06/2015</t>
+  </si>
+  <si>
+    <t>Another great stay</t>
+  </si>
+  <si>
+    <t>My wife and I love staying here. Even though we live 30 minutes away from the hotel, we enjoy just getting away for the night. There is a restaurant my wife and I love to eat and drink at right next door. Mai Tai's are the bartender Joel's specialties. The restaurant is just seconds away from the hotel, so there's no driving. The hotel's breakfast buffet is was worth waking up early for.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r246828762-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246828762</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>Very modern, clean</t>
+  </si>
+  <si>
+    <t>This was a nice place for an overnight stay. The lobby was modern and inviting, with a friendly evening front desk staff. My room was spacious, clean, and relaxing. Breakfast was one of the best I have had in a hotel. There was a variety of food and even HEALTHY food choices!My only problem was with the morning front desk staff. As a gold member, I did not receive my bill under my door, so I had to visit the front desk to retrieve one. The staff was very monotone with their greeting and appeared to be bothered by my request. More so that they were "unable" to print a copy of my bill. I had to get to a meeting so I figured I could call later and get it faxed/emailed or get it from my account website. No dice. I called three different times within the two following days and every time I felt I was inconveniencing the front desk staff. I never did receive a copy of bill, nor have I been able to retrieve it from my IHG account page. Anyway, it is still worth the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>This was a nice place for an overnight stay. The lobby was modern and inviting, with a friendly evening front desk staff. My room was spacious, clean, and relaxing. Breakfast was one of the best I have had in a hotel. There was a variety of food and even HEALTHY food choices!My only problem was with the morning front desk staff. As a gold member, I did not receive my bill under my door, so I had to visit the front desk to retrieve one. The staff was very monotone with their greeting and appeared to be bothered by my request. More so that they were "unable" to print a copy of my bill. I had to get to a meeting so I figured I could call later and get it faxed/emailed or get it from my account website. No dice. I called three different times within the two following days and every time I felt I was inconveniencing the front desk staff. I never did receive a copy of bill, nor have I been able to retrieve it from my IHG account page. Anyway, it is still worth the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r240567228-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240567228</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Great and relaxing good service</t>
+  </si>
+  <si>
+    <t>Spent a week at this hotel location, very conveniently located in the westchase strip at short distance from Westheimer and other business centers. Staff is very professional and charming. Only inconvenience was intermittent Wi-Fi service rapidly resolved by staff. Good restaurant choices and convenient parking. Quite happy with overall service will certainly come back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r238941226-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238941226</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Rodriquez ROCKS!!</t>
+  </si>
+  <si>
+    <t>Rodriquez at the front desk is awesome!! I travel all over the world and stay at some really amazing hotels and this young man by far is one of the best I've seen. He definitely deserves to be promoted to property manager or something close to it. Holiday Inn Westchase and this young man have definitely set the bar for other hotels to come!</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r217678915-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217678915</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights on a short visit to Houston for business.The hotel is located in a quiet location with comfortable, clean and well appointed rooms and I found the the staff to be very professional, friendly and helpful.The bar and restaurant offer a good range of choices and breakfasts are plentiful.There is plenty of off street parking available if you are travelling with a vehicle.Not sure on how central the location would be in relation to getting around Houston generally though as my meetings were only a short drive away so ideal for me. For me I thought it was great value and I would certainly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Andy S, Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded August 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights on a short visit to Houston for business.The hotel is located in a quiet location with comfortable, clean and well appointed rooms and I found the the staff to be very professional, friendly and helpful.The bar and restaurant offer a good range of choices and breakfasts are plentiful.There is plenty of off street parking available if you are travelling with a vehicle.Not sure on how central the location would be in relation to getting around Houston generally though as my meetings were only a short drive away so ideal for me. For me I thought it was great value and I would certainly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r216706931-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216706931</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Very good Holiday Inn...</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights in mid-July. This particular Holiday Inn has a restaurant onsite, but I did not eat there. The property itself appears to be no more than 5 years old. It's located next to the Sam Houston Tollway. There are a ton of restaurants up/down Westheimer, which is a mile or so away. My only disappointment was the fact that there's no complimentary breakfast. I don't usually "dine in" at restaurants for breakfast, as I just don't have the time. It would have been nice to grab a muffin/coffee/yogurt before I head out the door. If complimentary breakfasts does not bother you, then you'll enjoy this hotel!  There's a chance that I may return to this property, as it's very close to my job.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andy S, Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded July 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for 4 nights in mid-July. This particular Holiday Inn has a restaurant onsite, but I did not eat there. The property itself appears to be no more than 5 years old. It's located next to the Sam Houston Tollway. There are a ton of restaurants up/down Westheimer, which is a mile or so away. My only disappointment was the fact that there's no complimentary breakfast. I don't usually "dine in" at restaurants for breakfast, as I just don't have the time. It would have been nice to grab a muffin/coffee/yogurt before I head out the door. If complimentary breakfasts does not bother you, then you'll enjoy this hotel!  There's a chance that I may return to this property, as it's very close to my job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r206804832-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206804832</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>Aged property</t>
+  </si>
+  <si>
+    <t>To start with, I would compare the brand "Holiday Inn" with her international counterparts, specially in Asia. This brand is a reputed brand in Asia providing all services that you could ask for from a 3-4 star hotel, however this Hotel in North America came across as strictly a "budget hotel".
+The check-in was smooth and my relationship with the IHG group was duly recognized by the front desk. Again, very basic looking front door welcome and below average lobby. Just one person managing the front desk and multitasking most of the time.
+The room was good size, however was aging. The carpets needed attention at many parts in the room as well as the lobby. The bed provided the usual signature "Holiday Inn" comfort, however, it was a tad too soft for my liking. The décor of the room was very basic, the furniture very outdated and in need of maintenance. The washroom needed a lot of attention. Part of it was addressed by the maintenance staff upon complaining. The water was not draining through the sink and the toilet flush needed attention as well. Besides, the bathroom looked very old and dated. The tiles dirty at many places and fixtures all rusted in places. Like I said, this place is in dire need of renovations.
+Again, no bottles of water provided in the room. Upon asking, the front desk said that they would give me a bottle if...To start with, I would compare the brand "Holiday Inn" with her international counterparts, specially in Asia. This brand is a reputed brand in Asia providing all services that you could ask for from a 3-4 star hotel, however this Hotel in North America came across as strictly a "budget hotel".The check-in was smooth and my relationship with the IHG group was duly recognized by the front desk. Again, very basic looking front door welcome and below average lobby. Just one person managing the front desk and multitasking most of the time.The room was good size, however was aging. The carpets needed attention at many parts in the room as well as the lobby. The bed provided the usual signature "Holiday Inn" comfort, however, it was a tad too soft for my liking. The décor of the room was very basic, the furniture very outdated and in need of maintenance. The washroom needed a lot of attention. Part of it was addressed by the maintenance staff upon complaining. The water was not draining through the sink and the toilet flush needed attention as well. Besides, the bathroom looked very old and dated. The tiles dirty at many places and fixtures all rusted in places. Like I said, this place is in dire need of renovations.Again, no bottles of water provided in the room. Upon asking, the front desk said that they would give me a bottle if I would go down myself to get it. Also, needed a dental and shaving kit. When requested, I was told to go down to the front desk and collect it myself. I was very surprised with this attitude! Like I said at the start, my experience at Holiday Inn's in Asia has been very different and this hotel came across as a strictly budget hotel or rather a B&amp;B and it was not even a Holiday Inn "Express"!!For food, there was only one restaurant in the hotel, with a very limited menu for all meals. Again it is not 24 hours, moreover, it is even closed during afternoon hours after 2pm I think! The food was strictly "okay", the service lack luster. Most of the time, there were no servers in sight and often seen chatting with each other and even snacking at the tables in the restaurant while other guests were dining. In other words, the service was not attentive and could be much better. The food was priced as per the hotel class so no complaints there.The saving grace, I would say, was the friendliness of the staff and their willingness to help. Otherwise, this place turned out to be something that I never expected out of the "Holiday Inn" brand. Maybe its a "budget" brand in North America. I do not think I will choose to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded June 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2014</t>
+  </si>
+  <si>
+    <t>To start with, I would compare the brand "Holiday Inn" with her international counterparts, specially in Asia. This brand is a reputed brand in Asia providing all services that you could ask for from a 3-4 star hotel, however this Hotel in North America came across as strictly a "budget hotel".
+The check-in was smooth and my relationship with the IHG group was duly recognized by the front desk. Again, very basic looking front door welcome and below average lobby. Just one person managing the front desk and multitasking most of the time.
+The room was good size, however was aging. The carpets needed attention at many parts in the room as well as the lobby. The bed provided the usual signature "Holiday Inn" comfort, however, it was a tad too soft for my liking. The décor of the room was very basic, the furniture very outdated and in need of maintenance. The washroom needed a lot of attention. Part of it was addressed by the maintenance staff upon complaining. The water was not draining through the sink and the toilet flush needed attention as well. Besides, the bathroom looked very old and dated. The tiles dirty at many places and fixtures all rusted in places. Like I said, this place is in dire need of renovations.
+Again, no bottles of water provided in the room. Upon asking, the front desk said that they would give me a bottle if...To start with, I would compare the brand "Holiday Inn" with her international counterparts, specially in Asia. This brand is a reputed brand in Asia providing all services that you could ask for from a 3-4 star hotel, however this Hotel in North America came across as strictly a "budget hotel".The check-in was smooth and my relationship with the IHG group was duly recognized by the front desk. Again, very basic looking front door welcome and below average lobby. Just one person managing the front desk and multitasking most of the time.The room was good size, however was aging. The carpets needed attention at many parts in the room as well as the lobby. The bed provided the usual signature "Holiday Inn" comfort, however, it was a tad too soft for my liking. The décor of the room was very basic, the furniture very outdated and in need of maintenance. The washroom needed a lot of attention. Part of it was addressed by the maintenance staff upon complaining. The water was not draining through the sink and the toilet flush needed attention as well. Besides, the bathroom looked very old and dated. The tiles dirty at many places and fixtures all rusted in places. Like I said, this place is in dire need of renovations.Again, no bottles of water provided in the room. Upon asking, the front desk said that they would give me a bottle if I would go down myself to get it. Also, needed a dental and shaving kit. When requested, I was told to go down to the front desk and collect it myself. I was very surprised with this attitude! Like I said at the start, my experience at Holiday Inn's in Asia has been very different and this hotel came across as a strictly budget hotel or rather a B&amp;B and it was not even a Holiday Inn "Express"!!For food, there was only one restaurant in the hotel, with a very limited menu for all meals. Again it is not 24 hours, moreover, it is even closed during afternoon hours after 2pm I think! The food was strictly "okay", the service lack luster. Most of the time, there were no servers in sight and often seen chatting with each other and even snacking at the tables in the restaurant while other guests were dining. In other words, the service was not attentive and could be much better. The food was priced as per the hotel class so no complaints there.The saving grace, I would say, was the friendliness of the staff and their willingness to help. Otherwise, this place turned out to be something that I never expected out of the "Holiday Inn" brand. Maybe its a "budget" brand in North America. I do not think I will choose to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r174115237-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174115237</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>OK room but bar / restaurant not great</t>
+  </si>
+  <si>
+    <t>This was my first time at the hotel and arriving late on a flight from the UK the staff were friendly and the room I was checked into good. Decent size, large bed, good facilities available in the room and I was up several floors so there was no noise from the large amounts of traffic outside. The bathroom was of a good size.The food for breakfast was pretty basic - greasy potatoes and sausages and bacon burnt to a crisp. There wasn't much alternative on offer except for some pieces of melon. It was very disappointing.Returning to the bar in the evening for a beer and a light bite the staff weren't particularly friendly. I was on my own and it seemed like it was a trouble for them to serve me.The 'gym' is very basic with 3 machines and a small pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded September 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2013</t>
+  </si>
+  <si>
+    <t>This was my first time at the hotel and arriving late on a flight from the UK the staff were friendly and the room I was checked into good. Decent size, large bed, good facilities available in the room and I was up several floors so there was no noise from the large amounts of traffic outside. The bathroom was of a good size.The food for breakfast was pretty basic - greasy potatoes and sausages and bacon burnt to a crisp. There wasn't much alternative on offer except for some pieces of melon. It was very disappointing.Returning to the bar in the evening for a beer and a light bite the staff weren't particularly friendly. I was on my own and it seemed like it was a trouble for them to serve me.The 'gym' is very basic with 3 machines and a small pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r170100514-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170100514</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Restaurant Has Staff Issues</t>
+  </si>
+  <si>
+    <t>The hotel is nice and I have no complaints - typical Holiday Inn. However; the restaurant has staff issues. Although breakfast is advertised as available starting at 6 AM, one morning my 6AM breakfast doorknob menu was not filled and I had to call for the status and finally received it at 6:45AM. I was told no one showed up to work. I asked for egg beaters and received whole eggs. Since I didn't receive another doorknob menu, the next morning, I called at 3 til 6 to place my order and was told I had to wait until 6! I asked the front desk, housekeeper and restaurant, more than once, for a new doorknob menu and never received one. The servers all had attitudes that seemed to be "I hate my job" or "you're inconveniencing me". The food was good though.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Dave G, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded November 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2013</t>
+  </si>
+  <si>
+    <t>The hotel is nice and I have no complaints - typical Holiday Inn. However; the restaurant has staff issues. Although breakfast is advertised as available starting at 6 AM, one morning my 6AM breakfast doorknob menu was not filled and I had to call for the status and finally received it at 6:45AM. I was told no one showed up to work. I asked for egg beaters and received whole eggs. Since I didn't receive another doorknob menu, the next morning, I called at 3 til 6 to place my order and was told I had to wait until 6! I asked the front desk, housekeeper and restaurant, more than once, for a new doorknob menu and never received one. The servers all had attitudes that seemed to be "I hate my job" or "you're inconveniencing me". The food was good though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r164996433-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164996433</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Clean and Quite</t>
+  </si>
+  <si>
+    <t>I have stayed several times at this hotel.It is new, the rooms are spacious, well funished, quiet and clean.The hotel is lose to Highway 10 which gives quick access anywhere in Houston.Pool and sport room are pretty small though.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded June 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed several times at this hotel.It is new, the rooms are spacious, well funished, quiet and clean.The hotel is lose to Highway 10 which gives quick access anywhere in Houston.Pool and sport room are pretty small though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r159924630-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159924630</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Very nice place to stay!</t>
+  </si>
+  <si>
+    <t>Rooms are excellent and very comfortable for a stay.  Refrigerator and microwave in rooms.  Restaurant available downstairs and Cheddar's right next door.  Hotel close to toll way, making it very easy to get around.  Nice hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded May 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2013</t>
+  </si>
+  <si>
+    <t>Rooms are excellent and very comfortable for a stay.  Refrigerator and microwave in rooms.  Restaurant available downstairs and Cheddar's right next door.  Hotel close to toll way, making it very easy to get around.  Nice hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r155907972-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155907972</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>Holiday Inn Hotel- Houston Westchase</t>
+  </si>
+  <si>
+    <t>First, let me say, book any hotel in Houston and surrounding areas as soon as you can because they all sell out.  In such a large city who would have thought.  We were researching the area for relocation and visited Kemah, Pearland, Richmond, Katy and Houston and we rented by the night depending on where we were (Note:  Kemah was also a very nice Holiday Inn).  We stayed at several different hotels throughout our trip always trying to pick a Holiday Inn, but not always finding one where we wanted it or that had the rooms we needed.  So to end our trip, we booked this hotel for two nights because it was in the area we wanted to be and it had the right handicap accommodations for my dad.  Ashleigh at the front desk was the most helpful and friendly front desk person we had the pleasure to work with during out trip to Houston.  It's also not far from the Galleria and conveniently located next to the Sam Houston PWY and Westpark Toll.  Drive to Hobby Airport was approximately 30 minutes (of nail biting traffic!)
+We rented two rooms (king and handicapped).  The first night they were not able to get our rooms on the same floor but they were able to make the change on our 2nd day there.  Upon check in, being a Priority Club Member, we were offered our choice of beverage.  Usually we just...First, let me say, book any hotel in Houston and surrounding areas as soon as you can because they all sell out.  In such a large city who would have thought.  We were researching the area for relocation and visited Kemah, Pearland, Richmond, Katy and Houston and we rented by the night depending on where we were (Note:  Kemah was also a very nice Holiday Inn).  We stayed at several different hotels throughout our trip always trying to pick a Holiday Inn, but not always finding one where we wanted it or that had the rooms we needed.  So to end our trip, we booked this hotel for two nights because it was in the area we wanted to be and it had the right handicap accommodations for my dad.  Ashleigh at the front desk was the most helpful and friendly front desk person we had the pleasure to work with during out trip to Houston.  It's also not far from the Galleria and conveniently located next to the Sam Houston PWY and Westpark Toll.  Drive to Hobby Airport was approximately 30 minutes (of nail biting traffic!)We rented two rooms (king and handicapped).  The first night they were not able to get our rooms on the same floor but they were able to make the change on our 2nd day there.  Upon check in, being a Priority Club Member, we were offered our choice of beverage.  Usually we just get a bottle of water and a bag of chips but this hotel had airplane bottles of alcohol/wine/beer and they had DEWARS, which was my father's brand.  They also provided mixers (water/soda) and a bag of trail mix.  My husband and I each asked for the Crown Royal.  So, I would say this Holiday Inn was a bit upscale from most of them.  Our rooms were huge and included all the amenities you needed including coffee maker, microwave, fridge, and my dad's handicap room had a living room as well, so we hung out in there.  Our king bed room also had a couch and was roomy.  The beds and pillows were very comfortable and I would say comparable to The Hilton.The hotel was clean and modern.  The elevators worked well.  The ice machine is near the elevators and if you go through a door where the ice machine is, you will find a small laundry room.  It was all very clean.  There is a firepit outside although I didn't use it.  Housekeeping was wonderful.  My dad made a huge mess in the handicapped bathroom and got water all over the floor.  They cleaned it up right away.My only complaint is of the sports restaurant in the hotel.  The waitstaff lacked the proper service and they were not busy.  We had drinks one night, and breakfast twice and they were never busy.  We paid for breakfast with our rooms and the first morning they had a breakfast buffet (weekday) and they ran out of biscuits and I asked if they had more.  We waited a long time and no one got back to us about when they would have them put out.  I asked the waitress again and finally the cook came out of the kitchen with a fresh batch of biscuits.  We had to ask for butter and jelly as it was not provided on the tables or on the buffet table and was never offered.  The second morning we ordered off the menu and service was again not good.  They didn't bring my husband's order of fresh fruit, and they didn't ask me what type of toast I wanted until after they brought out my meal.  The food, however, was good.  The waitstaff just didn't seem to know what they were doing and what they did do, they did slowly.  There is a restaurant right next door (Cheddar’s) and if we stay here again, we will try them out.  I did not use the internet.  I have my own internet service and don't trust using Wi-Fi.  I did not use the gym or the pool.  There is an ATM on site.  It only took us 10/15 min. to get to Richmond for more house hunting and since we didn’t travel during rush hour, the commute was fine.  I would highly recommend this Holiday Inn.  It stands out from the rest by far.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>First, let me say, book any hotel in Houston and surrounding areas as soon as you can because they all sell out.  In such a large city who would have thought.  We were researching the area for relocation and visited Kemah, Pearland, Richmond, Katy and Houston and we rented by the night depending on where we were (Note:  Kemah was also a very nice Holiday Inn).  We stayed at several different hotels throughout our trip always trying to pick a Holiday Inn, but not always finding one where we wanted it or that had the rooms we needed.  So to end our trip, we booked this hotel for two nights because it was in the area we wanted to be and it had the right handicap accommodations for my dad.  Ashleigh at the front desk was the most helpful and friendly front desk person we had the pleasure to work with during out trip to Houston.  It's also not far from the Galleria and conveniently located next to the Sam Houston PWY and Westpark Toll.  Drive to Hobby Airport was approximately 30 minutes (of nail biting traffic!)
+We rented two rooms (king and handicapped).  The first night they were not able to get our rooms on the same floor but they were able to make the change on our 2nd day there.  Upon check in, being a Priority Club Member, we were offered our choice of beverage.  Usually we just...First, let me say, book any hotel in Houston and surrounding areas as soon as you can because they all sell out.  In such a large city who would have thought.  We were researching the area for relocation and visited Kemah, Pearland, Richmond, Katy and Houston and we rented by the night depending on where we were (Note:  Kemah was also a very nice Holiday Inn).  We stayed at several different hotels throughout our trip always trying to pick a Holiday Inn, but not always finding one where we wanted it or that had the rooms we needed.  So to end our trip, we booked this hotel for two nights because it was in the area we wanted to be and it had the right handicap accommodations for my dad.  Ashleigh at the front desk was the most helpful and friendly front desk person we had the pleasure to work with during out trip to Houston.  It's also not far from the Galleria and conveniently located next to the Sam Houston PWY and Westpark Toll.  Drive to Hobby Airport was approximately 30 minutes (of nail biting traffic!)We rented two rooms (king and handicapped).  The first night they were not able to get our rooms on the same floor but they were able to make the change on our 2nd day there.  Upon check in, being a Priority Club Member, we were offered our choice of beverage.  Usually we just get a bottle of water and a bag of chips but this hotel had airplane bottles of alcohol/wine/beer and they had DEWARS, which was my father's brand.  They also provided mixers (water/soda) and a bag of trail mix.  My husband and I each asked for the Crown Royal.  So, I would say this Holiday Inn was a bit upscale from most of them.  Our rooms were huge and included all the amenities you needed including coffee maker, microwave, fridge, and my dad's handicap room had a living room as well, so we hung out in there.  Our king bed room also had a couch and was roomy.  The beds and pillows were very comfortable and I would say comparable to The Hilton.The hotel was clean and modern.  The elevators worked well.  The ice machine is near the elevators and if you go through a door where the ice machine is, you will find a small laundry room.  It was all very clean.  There is a firepit outside although I didn't use it.  Housekeeping was wonderful.  My dad made a huge mess in the handicapped bathroom and got water all over the floor.  They cleaned it up right away.My only complaint is of the sports restaurant in the hotel.  The waitstaff lacked the proper service and they were not busy.  We had drinks one night, and breakfast twice and they were never busy.  We paid for breakfast with our rooms and the first morning they had a breakfast buffet (weekday) and they ran out of biscuits and I asked if they had more.  We waited a long time and no one got back to us about when they would have them put out.  I asked the waitress again and finally the cook came out of the kitchen with a fresh batch of biscuits.  We had to ask for butter and jelly as it was not provided on the tables or on the buffet table and was never offered.  The second morning we ordered off the menu and service was again not good.  They didn't bring my husband's order of fresh fruit, and they didn't ask me what type of toast I wanted until after they brought out my meal.  The food, however, was good.  The waitstaff just didn't seem to know what they were doing and what they did do, they did slowly.  There is a restaurant right next door (Cheddar’s) and if we stay here again, we will try them out.  I did not use the internet.  I have my own internet service and don't trust using Wi-Fi.  I did not use the gym or the pool.  There is an ATM on site.  It only took us 10/15 min. to get to Richmond for more house hunting and since we didn’t travel during rush hour, the commute was fine.  I would highly recommend this Holiday Inn.  It stands out from the rest by far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r154051490-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154051490</t>
+  </si>
+  <si>
+    <t>03/08/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel but was also disappointed!</t>
+  </si>
+  <si>
+    <t>First off, we booked our room thru booking.com &amp; was offered a descent rate which was suppose to include a breakfast. However, the 1st morning we were told by the waiter that there is no free breakfast w/ our stay. I went to discuss this w/ the front desk clerk but no one was there, only a note stating they would be "return shortly".  I waited a good while &amp; no one came but 2 other hotel personnel walked by &amp; saw me standing there &amp; never offered any assistance.  I went back to the restaurant when no one came to the front desk &amp; spoke to the waiter again. He stated that" the website states that just to lure people to stay".  I couldn't believe he said that to us.  I'm not sure if he was new or just not trained but we had to initially wait as others were ahead of us to be seated.  Their was only one person working in the restaurant.  One time, he shouted at a customer regarding their order from across the restaurant.  He was very friendly but just needs a little training and professionalism.  Also, we were suppose to get hash browns with our plate and it wasn't served w/ it.  While we were in the restaurant, 6 others were also told there was no breakfast w/ their stay.  Our receipt specificly stated a breakfast was included.  During the night, the neighboring...First off, we booked our room thru booking.com &amp; was offered a descent rate which was suppose to include a breakfast. However, the 1st morning we were told by the waiter that there is no free breakfast w/ our stay. I went to discuss this w/ the front desk clerk but no one was there, only a note stating they would be "return shortly".  I waited a good while &amp; no one came but 2 other hotel personnel walked by &amp; saw me standing there &amp; never offered any assistance.  I went back to the restaurant when no one came to the front desk &amp; spoke to the waiter again. He stated that" the website states that just to lure people to stay".  I couldn't believe he said that to us.  I'm not sure if he was new or just not trained but we had to initially wait as others were ahead of us to be seated.  Their was only one person working in the restaurant.  One time, he shouted at a customer regarding their order from across the restaurant.  He was very friendly but just needs a little training and professionalism.  Also, we were suppose to get hash browns with our plate and it wasn't served w/ it.  While we were in the restaurant, 6 others were also told there was no breakfast w/ their stay.  Our receipt specificly stated a breakfast was included.  During the night, the neighboring guest very very loud and we could evening hear someone snoring.  The room was clean, nice, roomy and the location was very close to where we need to be for our trip.  I did notify booking.com about our stay but got a response stating " they contacted the hotel and the hotel stated we did have breakfast and it was free".  I'm not sure if they really called the hotel or not but if they really had, the computer would have shown that we PAID for our food that morning!  I even sent them a copy of our receipt which clearly shows we PAID but got no respone.  This was very disappointing to me!  I specifically booked this hotel because I wanted one that came with a breakfast and again it looked nice from the photos &amp; was close to our destination.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded March 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2013</t>
+  </si>
+  <si>
+    <t>First off, we booked our room thru booking.com &amp; was offered a descent rate which was suppose to include a breakfast. However, the 1st morning we were told by the waiter that there is no free breakfast w/ our stay. I went to discuss this w/ the front desk clerk but no one was there, only a note stating they would be "return shortly".  I waited a good while &amp; no one came but 2 other hotel personnel walked by &amp; saw me standing there &amp; never offered any assistance.  I went back to the restaurant when no one came to the front desk &amp; spoke to the waiter again. He stated that" the website states that just to lure people to stay".  I couldn't believe he said that to us.  I'm not sure if he was new or just not trained but we had to initially wait as others were ahead of us to be seated.  Their was only one person working in the restaurant.  One time, he shouted at a customer regarding their order from across the restaurant.  He was very friendly but just needs a little training and professionalism.  Also, we were suppose to get hash browns with our plate and it wasn't served w/ it.  While we were in the restaurant, 6 others were also told there was no breakfast w/ their stay.  Our receipt specificly stated a breakfast was included.  During the night, the neighboring...First off, we booked our room thru booking.com &amp; was offered a descent rate which was suppose to include a breakfast. However, the 1st morning we were told by the waiter that there is no free breakfast w/ our stay. I went to discuss this w/ the front desk clerk but no one was there, only a note stating they would be "return shortly".  I waited a good while &amp; no one came but 2 other hotel personnel walked by &amp; saw me standing there &amp; never offered any assistance.  I went back to the restaurant when no one came to the front desk &amp; spoke to the waiter again. He stated that" the website states that just to lure people to stay".  I couldn't believe he said that to us.  I'm not sure if he was new or just not trained but we had to initially wait as others were ahead of us to be seated.  Their was only one person working in the restaurant.  One time, he shouted at a customer regarding their order from across the restaurant.  He was very friendly but just needs a little training and professionalism.  Also, we were suppose to get hash browns with our plate and it wasn't served w/ it.  While we were in the restaurant, 6 others were also told there was no breakfast w/ their stay.  Our receipt specificly stated a breakfast was included.  During the night, the neighboring guest very very loud and we could evening hear someone snoring.  The room was clean, nice, roomy and the location was very close to where we need to be for our trip.  I did notify booking.com about our stay but got a response stating " they contacted the hotel and the hotel stated we did have breakfast and it was free".  I'm not sure if they really called the hotel or not but if they really had, the computer would have shown that we PAID for our food that morning!  I even sent them a copy of our receipt which clearly shows we PAID but got no respone.  This was very disappointing to me!  I specifically booked this hotel because I wanted one that came with a breakfast and again it looked nice from the photos &amp; was close to our destination.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r151321200-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151321200</t>
+  </si>
+  <si>
+    <t>02/03/2013</t>
+  </si>
+  <si>
+    <t>Ok but a lot of little things not OK</t>
+  </si>
+  <si>
+    <t>This is a comfortable business hotel, but there were enough little things that were wrong during the week that I would think twice before recommending. The wifi was very inconsistent and many nights I was very frustrated trying to get on-line. Also the cable TV was out of order for three nights. In addition, the swimming pool was closed for maintenance the entire week, annoying as that was one of the main reasons i picked the hotel. The food was very mediocre at the hotel Sporting News restaurant. In addition the shower leaked in the bathroom and flooded the floor each morning, it took me a few days to figure out you have to stuff a towel into the door crack to prevent this. 
+To be fair the room was clean and comfortable with a decent bed, and the desk staff are friendly - that is about all the good I can say. Also note that if you don't have a rental car, its an expensive taxi trip from either airport and there are only two restaurants within walking distance (Cheddars and Red Robin), so if don't have business in the immediate area, you might look elsewhere. 
+Lastly, I had asked the hotel to call me a taxi to get me to the airport. A limousine showed up, and when I told them I wanted a taxi they insisted it would be the same price. The limo turned out to...This is a comfortable business hotel, but there were enough little things that were wrong during the week that I would think twice before recommending. The wifi was very inconsistent and many nights I was very frustrated trying to get on-line. Also the cable TV was out of order for three nights. In addition, the swimming pool was closed for maintenance the entire week, annoying as that was one of the main reasons i picked the hotel. The food was very mediocre at the hotel Sporting News restaurant. In addition the shower leaked in the bathroom and flooded the floor each morning, it took me a few days to figure out you have to stuff a towel into the door crack to prevent this. To be fair the room was clean and comfortable with a decent bed, and the desk staff are friendly - that is about all the good I can say. Also note that if you don't have a rental car, its an expensive taxi trip from either airport and there are only two restaurants within walking distance (Cheddars and Red Robin), so if don't have business in the immediate area, you might look elsewhere. Lastly, I had asked the hotel to call me a taxi to get me to the airport. A limousine showed up, and when I told them I wanted a taxi they insisted it would be the same price. The limo turned out to be $15 more ($95 vs $80 for a taxi right from the airport, and I left on a Sunday with no traffic so the trip was even shorter).  Any hotel can have something go wrong, but this property seems to be weak on the little details that make a place worth returning to.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded February 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2013</t>
+  </si>
+  <si>
+    <t>This is a comfortable business hotel, but there were enough little things that were wrong during the week that I would think twice before recommending. The wifi was very inconsistent and many nights I was very frustrated trying to get on-line. Also the cable TV was out of order for three nights. In addition, the swimming pool was closed for maintenance the entire week, annoying as that was one of the main reasons i picked the hotel. The food was very mediocre at the hotel Sporting News restaurant. In addition the shower leaked in the bathroom and flooded the floor each morning, it took me a few days to figure out you have to stuff a towel into the door crack to prevent this. 
+To be fair the room was clean and comfortable with a decent bed, and the desk staff are friendly - that is about all the good I can say. Also note that if you don't have a rental car, its an expensive taxi trip from either airport and there are only two restaurants within walking distance (Cheddars and Red Robin), so if don't have business in the immediate area, you might look elsewhere. 
+Lastly, I had asked the hotel to call me a taxi to get me to the airport. A limousine showed up, and when I told them I wanted a taxi they insisted it would be the same price. The limo turned out to...This is a comfortable business hotel, but there were enough little things that were wrong during the week that I would think twice before recommending. The wifi was very inconsistent and many nights I was very frustrated trying to get on-line. Also the cable TV was out of order for three nights. In addition, the swimming pool was closed for maintenance the entire week, annoying as that was one of the main reasons i picked the hotel. The food was very mediocre at the hotel Sporting News restaurant. In addition the shower leaked in the bathroom and flooded the floor each morning, it took me a few days to figure out you have to stuff a towel into the door crack to prevent this. To be fair the room was clean and comfortable with a decent bed, and the desk staff are friendly - that is about all the good I can say. Also note that if you don't have a rental car, its an expensive taxi trip from either airport and there are only two restaurants within walking distance (Cheddars and Red Robin), so if don't have business in the immediate area, you might look elsewhere. Lastly, I had asked the hotel to call me a taxi to get me to the airport. A limousine showed up, and when I told them I wanted a taxi they insisted it would be the same price. The limo turned out to be $15 more ($95 vs $80 for a taxi right from the airport, and I left on a Sunday with no traffic so the trip was even shorter).  Any hotel can have something go wrong, but this property seems to be weak on the little details that make a place worth returning to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r148667269-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148667269</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Clean, Nice, Luxury Hotel</t>
+  </si>
+  <si>
+    <t>My Girls and I stayed at this hotel for NYE. I must say I was pleasantly surprised. The hotel is absolutely beautiful and the staff is very helpful and friendly... We loved our room &amp;&amp; I would definitely recommend this hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded January 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2013</t>
+  </si>
+  <si>
+    <t>My Girls and I stayed at this hotel for NYE. I must say I was pleasantly surprised. The hotel is absolutely beautiful and the staff is very helpful and friendly... We loved our room &amp;&amp; I would definitely recommend this hotel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r143404163-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143404163</t>
+  </si>
+  <si>
+    <t>10/21/2012</t>
+  </si>
+  <si>
+    <t>Close to Head Office</t>
+  </si>
+  <si>
+    <t>I was in a business trip and we choose this hotel because is close to the office (sales office).For my surprise the Hotel is very good, clean with a excelent bed and bathroom.The only thing not so good is the deliveries I was waiting from Amazon.com. I missed one delivery - due to Amazon - but the concierge was not excited about checking if something arrived for me.Anyways it was October, Houston was hot, wonderful weather and I could easily move to the Memorial Mall and Fry's and Town &amp; Country Center.We had very good dinning during three days.I would repeat my staying there.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded October 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2012</t>
+  </si>
+  <si>
+    <t>I was in a business trip and we choose this hotel because is close to the office (sales office).For my surprise the Hotel is very good, clean with a excelent bed and bathroom.The only thing not so good is the deliveries I was waiting from Amazon.com. I missed one delivery - due to Amazon - but the concierge was not excited about checking if something arrived for me.Anyways it was October, Houston was hot, wonderful weather and I could easily move to the Memorial Mall and Fry's and Town &amp; Country Center.We had very good dinning during three days.I would repeat my staying there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r135993218-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135993218</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>A fantastic hotel with convenient location</t>
+  </si>
+  <si>
+    <t>Our children and myself accompanied my husband on a week-long business trip to Houston in mid-July.  This is by far the best Holiday Inn that we've ever experienced.  It was very clean and the staff (especially the morning restaurant staff) were top notch.  We ate breakfast daily and it was always great. Kids eat meals free, so that was a nice bonus.  It is an excellent hotel for families and would also be great for an extended stay arrangement as well as the routine business traveler.  Our only two concerns were the only dinner we ate there wasn't great and the service not nearly as good as the morning. The evening dinner took 2 hours due to very slow service and my dinner was served raw and had to be redone. Neither my husband nor I were impressed with our dishes anyway.  Our other concern was with the pool.  They have a nice pool/fitness area and even have pool toys.  The problem is that the water was very cold and cloudy, so our kids were very disappointed and only ended up swimming once.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded August 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2012</t>
+  </si>
+  <si>
+    <t>Our children and myself accompanied my husband on a week-long business trip to Houston in mid-July.  This is by far the best Holiday Inn that we've ever experienced.  It was very clean and the staff (especially the morning restaurant staff) were top notch.  We ate breakfast daily and it was always great. Kids eat meals free, so that was a nice bonus.  It is an excellent hotel for families and would also be great for an extended stay arrangement as well as the routine business traveler.  Our only two concerns were the only dinner we ate there wasn't great and the service not nearly as good as the morning. The evening dinner took 2 hours due to very slow service and my dinner was served raw and had to be redone. Neither my husband nor I were impressed with our dishes anyway.  Our other concern was with the pool.  They have a nice pool/fitness area and even have pool toys.  The problem is that the water was very cold and cloudy, so our kids were very disappointed and only ended up swimming once.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r134138500-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134138500</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>Welcome back to Holiday Inn</t>
+  </si>
+  <si>
+    <t>This was my first stay at a new Holiday Inn in years. This compares very nicely with any upper tier business travel hotel. They have quality decor and furnishings, it's very well maintained, and has an acceptable restaurant. The location has pretty good access off the frontage road, but there's only a Cheddar's adjacent to walk to.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>This was my first stay at a new Holiday Inn in years. This compares very nicely with any upper tier business travel hotel. They have quality decor and furnishings, it's very well maintained, and has an acceptable restaurant. The location has pretty good access off the frontage road, but there's only a Cheddar's adjacent to walk to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r129989654-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129989654</t>
+  </si>
+  <si>
+    <t>05/15/2012</t>
+  </si>
+  <si>
+    <t>Nice, decent, clean, upscale for a Holiday Inn.</t>
+  </si>
+  <si>
+    <t>Stayed there on business April 25-28, 2012. Cheddars next door which is convienient. One of the nicest and upscale Holiday-Inns I've stayed at. The beds were great! The shuttle driver, Hazel drove us around the Westheimer area to find places to eat. I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Charlie M, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded May 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2012</t>
+  </si>
+  <si>
+    <t>Stayed there on business April 25-28, 2012. Cheddars next door which is convienient. One of the nicest and upscale Holiday-Inns I've stayed at. The beds were great! The shuttle driver, Hazel drove us around the Westheimer area to find places to eat. I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r127785387-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127785387</t>
+  </si>
+  <si>
+    <t>04/12/2012</t>
+  </si>
+  <si>
+    <t>Comfy, clean, and convenient for a lot</t>
+  </si>
+  <si>
+    <t>This hotel is very good for what it is worth. My party had no problems with check-in at all. They were very nice at the check-in counter, and were very helpful in sending toiletries up when I needed them.The room itself was comfortable. The beds were pretty good, the TV was good, the shower was good, and I liked the free internet.It's an awkward location for this hotel, with it in a corner right off the Sam Houston Tollway and the Westpark Tollway, but it works. It's very easy to get on BOTH Tollways to go wherever from the hotel (although for the Westpark Tollway, you'll need what they call an EZ Tag, and to go eastbound, you'll have to drive down Westpark Dr or Harwin Dr to South Gessner and get on there.)I also liked the fact that the hotel is very quiet. Considering it's flanked by two freeways, that's great. (I was in a room facing away from the freeways.)I didn't try the restaurant, but it did look busy. May be a good sign.So, this is a good, cheap hotel for Westchase, and very convenient for what we were doing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Charlie M, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded April 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is very good for what it is worth. My party had no problems with check-in at all. They were very nice at the check-in counter, and were very helpful in sending toiletries up when I needed them.The room itself was comfortable. The beds were pretty good, the TV was good, the shower was good, and I liked the free internet.It's an awkward location for this hotel, with it in a corner right off the Sam Houston Tollway and the Westpark Tollway, but it works. It's very easy to get on BOTH Tollways to go wherever from the hotel (although for the Westpark Tollway, you'll need what they call an EZ Tag, and to go eastbound, you'll have to drive down Westpark Dr or Harwin Dr to South Gessner and get on there.)I also liked the fact that the hotel is very quiet. Considering it's flanked by two freeways, that's great. (I was in a room facing away from the freeways.)I didn't try the restaurant, but it did look busy. May be a good sign.So, this is a good, cheap hotel for Westchase, and very convenient for what we were doing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r127427843-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127427843</t>
+  </si>
+  <si>
+    <t>04/07/2012</t>
+  </si>
+  <si>
+    <t>Clean rooms. Quiet weekend</t>
+  </si>
+  <si>
+    <t>Just needed a place to stay before driving into Galveston for cruise next day. We stayed on the Saturday of spring break week. It is near business park so the hotel was vey quiet and not very busy. We tried the onsite Sporting News Grill for breakfast. Huge mistake. They had one waitress also doubling as hostess. She seemed to be hung over and constantly complaing because they were out of food in the kitchen. There were only 2 other tables and they ending up closing the place because they ran out of food. What the heck?!  The good: rooms are clean, large, modern, and hotel decor appears new or newly remodeled. We located the hotel very easily and slept very well.The bad: front desk staff was non-existent at check in and check out. Staff at the Sporting News Grill should all be replaced (including the cook who came out to lock the doors and turn off the TV's while there were 6 people trying to make the best out of a toast and cofffe breakfast)MoreShow less</t>
+  </si>
+  <si>
+    <t>Charlie M, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded April 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2012</t>
+  </si>
+  <si>
+    <t>Just needed a place to stay before driving into Galveston for cruise next day. We stayed on the Saturday of spring break week. It is near business park so the hotel was vey quiet and not very busy. We tried the onsite Sporting News Grill for breakfast. Huge mistake. They had one waitress also doubling as hostess. She seemed to be hung over and constantly complaing because they were out of food in the kitchen. There were only 2 other tables and they ending up closing the place because they ran out of food. What the heck?!  The good: rooms are clean, large, modern, and hotel decor appears new or newly remodeled. We located the hotel very easily and slept very well.The bad: front desk staff was non-existent at check in and check out. Staff at the Sporting News Grill should all be replaced (including the cook who came out to lock the doors and turn off the TV's while there were 6 people trying to make the best out of a toast and cofffe breakfast)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r125982820-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125982820</t>
+  </si>
+  <si>
+    <t>03/12/2012</t>
+  </si>
+  <si>
+    <t>Consistently Good</t>
+  </si>
+  <si>
+    <t>Stayed here on two occasions so far, Oct last year and Feb this year.  Both visits were very comfortable.  The check in staff are amongst the freindliest that I have ever experienced.  The gym is small but fine.  On my last visit I arrived on Sunday evening and ate in the Sports Bar.  The food was good, had the breaded catfish and fries, and the service prompt.  Used the complimentary drinks voucher, that I had been given at check in for a very acceptable Samual Adams.  The service at breakfast on both mornings was a little slow, but not unacceptably so.  Rooms very comfortable, with no noise from the freeway which is quite close.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Charlie M, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded March 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here on two occasions so far, Oct last year and Feb this year.  Both visits were very comfortable.  The check in staff are amongst the freindliest that I have ever experienced.  The gym is small but fine.  On my last visit I arrived on Sunday evening and ate in the Sports Bar.  The food was good, had the breaded catfish and fries, and the service prompt.  Used the complimentary drinks voucher, that I had been given at check in for a very acceptable Samual Adams.  The service at breakfast on both mornings was a little slow, but not unacceptably so.  Rooms very comfortable, with no noise from the freeway which is quite close.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r121519228-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121519228</t>
+  </si>
+  <si>
+    <t>12/08/2011</t>
+  </si>
+  <si>
+    <t>Excellent Hotel, Clean and Friendly</t>
+  </si>
+  <si>
+    <t>I am always reluctant to stay at Holiday Inns, as they are very inconsistent across the USA.   This hotel was excellent.  The beds were very comfortable, the room was extremely clean and the staff was very friendly.  I have stayed at most hotels around this area including the Hilton and the Marriott, I would highly recommend this hotel over both of them.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>charliemadden, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded December 12, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2011</t>
+  </si>
+  <si>
+    <t>I am always reluctant to stay at Holiday Inns, as they are very inconsistent across the USA.   This hotel was excellent.  The beds were very comfortable, the room was extremely clean and the staff was very friendly.  I have stayed at most hotels around this area including the Hilton and the Marriott, I would highly recommend this hotel over both of them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r120715190-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120715190</t>
+  </si>
+  <si>
+    <t>11/17/2011</t>
+  </si>
+  <si>
+    <t>Great Room and Serivice</t>
+  </si>
+  <si>
+    <t>This is a New Holidy Inn and it is great!!  The rooms are better looking then most Hiltons for a much better price. room was spotless and always greeted by a smile. The sports grill in the lobby had a great breakfast. Enjoyes the free drink when I checked in! Would stay here for a biz trip or family.MoreShow less</t>
+  </si>
+  <si>
+    <t>charliemadden, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded November 21, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2011</t>
+  </si>
+  <si>
+    <t>This is a New Holidy Inn and it is great!!  The rooms are better looking then most Hiltons for a much better price. room was spotless and always greeted by a smile. The sports grill in the lobby had a great breakfast. Enjoyes the free drink when I checked in! Would stay here for a biz trip or family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r120150647-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120150647</t>
+  </si>
+  <si>
+    <t>11/04/2011</t>
+  </si>
+  <si>
+    <t>New hotel, Great service.</t>
+  </si>
+  <si>
+    <t>This place is new, so no complaints with the rooms, etc.The service from the hotel staff was outstanding! Very enjoyable stay....MoreShow less</t>
+  </si>
+  <si>
+    <t>charliemadden, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded November 9, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2011</t>
+  </si>
+  <si>
+    <t>This place is new, so no complaints with the rooms, etc.The service from the hotel staff was outstanding! Very enjoyable stay....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r119938186-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119938186</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Conveniently situated on the west side of town, it is easy to get around (albeit on toll roads).  This is a fairly new hotel, and is very nicely done.  Spacious rooms with a desk and a sitting area, lovely bathroom, mini-fridge, free wi-fi (could use a bit stronger signal, tho).  There is a sports bar in the hotel that is particularly nice for the lone business traveler-lots of tv screens and pretty good food.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Conveniently situated on the west side of town, it is easy to get around (albeit on toll roads).  This is a fairly new hotel, and is very nicely done.  Spacious rooms with a desk and a sitting area, lovely bathroom, mini-fridge, free wi-fi (could use a bit stronger signal, tho).  There is a sports bar in the hotel that is particularly nice for the lone business traveler-lots of tv screens and pretty good food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r118320779-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118320779</t>
+  </si>
+  <si>
+    <t>09/19/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel Experience</t>
+  </si>
+  <si>
+    <t>This is a new and upgraded Holiday Inn.  Very clean and comfortable, and they've added a lot of nice touches, like upgraded rooms and the choice of beverages at check-in.  David at the front desk goes above and beyond.  Breakfast was fresh, fast, and very good.  My only regret was eating dinner at the restaurant across the parking lot instead of staying in the sports bar.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>charliemadden, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded October 20, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2011</t>
+  </si>
+  <si>
+    <t>This is a new and upgraded Holiday Inn.  Very clean and comfortable, and they've added a lot of nice touches, like upgraded rooms and the choice of beverages at check-in.  David at the front desk goes above and beyond.  Breakfast was fresh, fast, and very good.  My only regret was eating dinner at the restaurant across the parking lot instead of staying in the sports bar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r117945273-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117945273</t>
+  </si>
+  <si>
+    <t>09/11/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel, Awesome Front Desk Staff!</t>
+  </si>
+  <si>
+    <t>I stayed here for business over a couple of weeks in August.  The hotel looks to be very new. It’s right behind a Cheddar’s. The area is pretty nice, it’s near Chinatown (Sharpstown) where I was working. I have to say the front desk guy, David, was extremely friendly. I stay &gt;120 nights a year in hotels around the country and he was one of the most friendly I have ever encountered. It’s rare to find someone who seems genuinely interested in helping you out and goes out of his way to do it.The rooms were great. I’m PC Platinum and I was upgraded to a one-bedroom suite both weeks. I appreciate that. The rooms are very nice, all-new and very clean… what you would expect from a new property.  The suite has two large LCD Flat Screens, the internet was fast for hotel internet.  The bathroom was a good size.I would definitely stay here again. The people definitely make the difference in a city FULL of hotels. Thanks, again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I stayed here for business over a couple of weeks in August.  The hotel looks to be very new. It’s right behind a Cheddar’s. The area is pretty nice, it’s near Chinatown (Sharpstown) where I was working. I have to say the front desk guy, David, was extremely friendly. I stay &gt;120 nights a year in hotels around the country and he was one of the most friendly I have ever encountered. It’s rare to find someone who seems genuinely interested in helping you out and goes out of his way to do it.The rooms were great. I’m PC Platinum and I was upgraded to a one-bedroom suite both weeks. I appreciate that. The rooms are very nice, all-new and very clean… what you would expect from a new property.  The suite has two large LCD Flat Screens, the internet was fast for hotel internet.  The bathroom was a good size.I would definitely stay here again. The people definitely make the difference in a city FULL of hotels. Thanks, again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r116003156-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116003156</t>
+  </si>
+  <si>
+    <t>07/29/2011</t>
+  </si>
+  <si>
+    <t>Not your grandparents Holiday Inn, This place is Awesome!!</t>
+  </si>
+  <si>
+    <t>This is the first time I've stayed at a Holiday Inn since I had such a problem at the Holiday Inn in Jenks, Oklahoma in a few months. I wrote about that back in June of 2011. Needless to say we almost drove by, boy I'm so glad  we stopped in.So it was late at night and we need a place to crash after  long day of driving, after a few second thoughts we pulled in. Right off, the night manager  David was a welcome face, so helpful in getting us checked in fast and quick. He even gave us some pointers on local hot spots, places to eat and grab a few drinks. He was over the top helpful! Holiday Inn must take extra efforts to train their staff  here as the whole staff was very helpful and friendly.  David was awesome!The hotel is brand new and a fine mix of cozy and high tech furnishing and what seems like larger rooms. A big plus to this Holiday Inn is the new upgraded hotel beds and linens. As a road warriors this location has changed the way I think of Holiday Inn. Not every location is a good as this I'm sure but this type of place makes me want to stay at Holiday Inn's more often.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>charliemadden, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded July 31, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2011</t>
+  </si>
+  <si>
+    <t>This is the first time I've stayed at a Holiday Inn since I had such a problem at the Holiday Inn in Jenks, Oklahoma in a few months. I wrote about that back in June of 2011. Needless to say we almost drove by, boy I'm so glad  we stopped in.So it was late at night and we need a place to crash after  long day of driving, after a few second thoughts we pulled in. Right off, the night manager  David was a welcome face, so helpful in getting us checked in fast and quick. He even gave us some pointers on local hot spots, places to eat and grab a few drinks. He was over the top helpful! Holiday Inn must take extra efforts to train their staff  here as the whole staff was very helpful and friendly.  David was awesome!The hotel is brand new and a fine mix of cozy and high tech furnishing and what seems like larger rooms. A big plus to this Holiday Inn is the new upgraded hotel beds and linens. As a road warriors this location has changed the way I think of Holiday Inn. Not every location is a good as this I'm sure but this type of place makes me want to stay at Holiday Inn's more often.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2177,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2209,4406 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>119</v>
+      </c>
+      <c r="X12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>135</v>
+      </c>
+      <c r="X14" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>135</v>
+      </c>
+      <c r="X15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>135</v>
+      </c>
+      <c r="X17" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>174</v>
+      </c>
+      <c r="X18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>197</v>
+      </c>
+      <c r="X22" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>219</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s">
+        <v>223</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>225</v>
+      </c>
+      <c r="X25" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>233</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>234</v>
+      </c>
+      <c r="X26" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s">
+        <v>240</v>
+      </c>
+      <c r="L27" t="s">
+        <v>241</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>150</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" t="s">
+        <v>74</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>254</v>
+      </c>
+      <c r="X29" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>253</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X30" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" t="s">
+        <v>267</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>268</v>
+      </c>
+      <c r="O31" t="s">
+        <v>112</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>270</v>
+      </c>
+      <c r="J32" t="s">
+        <v>271</v>
+      </c>
+      <c r="K32" t="s">
+        <v>272</v>
+      </c>
+      <c r="L32" t="s">
+        <v>273</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>274</v>
+      </c>
+      <c r="O32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L33" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>280</v>
+      </c>
+      <c r="O33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>281</v>
+      </c>
+      <c r="X33" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" t="s">
+        <v>286</v>
+      </c>
+      <c r="K34" t="s">
+        <v>287</v>
+      </c>
+      <c r="L34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>289</v>
+      </c>
+      <c r="O34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>290</v>
+      </c>
+      <c r="X34" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>294</v>
+      </c>
+      <c r="J35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s">
+        <v>74</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>299</v>
+      </c>
+      <c r="X35" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>303</v>
+      </c>
+      <c r="J36" t="s">
+        <v>304</v>
+      </c>
+      <c r="K36" t="s">
+        <v>305</v>
+      </c>
+      <c r="L36" t="s">
+        <v>306</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>299</v>
+      </c>
+      <c r="X36" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J37" t="s">
+        <v>310</v>
+      </c>
+      <c r="K37" t="s">
+        <v>311</v>
+      </c>
+      <c r="L37" t="s">
+        <v>312</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>313</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>314</v>
+      </c>
+      <c r="X37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>322</v>
+      </c>
+      <c r="O38" t="s">
+        <v>134</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>324</v>
+      </c>
+      <c r="J39" t="s">
+        <v>325</v>
+      </c>
+      <c r="K39" t="s">
+        <v>326</v>
+      </c>
+      <c r="L39" t="s">
+        <v>327</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>330</v>
+      </c>
+      <c r="J40" t="s">
+        <v>331</v>
+      </c>
+      <c r="K40" t="s">
+        <v>332</v>
+      </c>
+      <c r="L40" t="s">
+        <v>333</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>334</v>
+      </c>
+      <c r="O40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>335</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>336</v>
+      </c>
+      <c r="J41" t="s">
+        <v>337</v>
+      </c>
+      <c r="K41" t="s">
+        <v>338</v>
+      </c>
+      <c r="L41" t="s">
+        <v>339</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>340</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>343</v>
+      </c>
+      <c r="J42" t="s">
+        <v>344</v>
+      </c>
+      <c r="K42" t="s">
+        <v>345</v>
+      </c>
+      <c r="L42" t="s">
+        <v>346</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>340</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>348</v>
+      </c>
+      <c r="J43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K43" t="s">
+        <v>350</v>
+      </c>
+      <c r="L43" t="s">
+        <v>351</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>352</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>353</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>354</v>
+      </c>
+      <c r="J44" t="s">
+        <v>355</v>
+      </c>
+      <c r="K44" t="s">
+        <v>356</v>
+      </c>
+      <c r="L44" t="s">
+        <v>357</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>358</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>359</v>
+      </c>
+      <c r="X44" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>362</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>363</v>
+      </c>
+      <c r="J45" t="s">
+        <v>364</v>
+      </c>
+      <c r="K45" t="s">
+        <v>365</v>
+      </c>
+      <c r="L45" t="s">
+        <v>366</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>358</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X45" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>370</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>371</v>
+      </c>
+      <c r="J46" t="s">
+        <v>372</v>
+      </c>
+      <c r="K46" t="s">
+        <v>373</v>
+      </c>
+      <c r="L46" t="s">
+        <v>374</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>375</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>376</v>
+      </c>
+      <c r="X46" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>379</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>380</v>
+      </c>
+      <c r="J47" t="s">
+        <v>381</v>
+      </c>
+      <c r="K47" t="s">
+        <v>382</v>
+      </c>
+      <c r="L47" t="s">
+        <v>383</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>384</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>385</v>
+      </c>
+      <c r="X47" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>388</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>389</v>
+      </c>
+      <c r="J48" t="s">
+        <v>390</v>
+      </c>
+      <c r="K48" t="s">
+        <v>391</v>
+      </c>
+      <c r="L48" t="s">
+        <v>392</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>393</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>394</v>
+      </c>
+      <c r="X48" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>397</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>398</v>
+      </c>
+      <c r="J49" t="s">
+        <v>399</v>
+      </c>
+      <c r="K49" t="s">
+        <v>400</v>
+      </c>
+      <c r="L49" t="s">
+        <v>401</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>402</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>403</v>
+      </c>
+      <c r="X49" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>406</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>407</v>
+      </c>
+      <c r="J50" t="s">
+        <v>408</v>
+      </c>
+      <c r="K50" t="s">
+        <v>409</v>
+      </c>
+      <c r="L50" t="s">
+        <v>410</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>411</v>
+      </c>
+      <c r="X50" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>414</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>415</v>
+      </c>
+      <c r="J51" t="s">
+        <v>416</v>
+      </c>
+      <c r="K51" t="s">
+        <v>417</v>
+      </c>
+      <c r="L51" t="s">
+        <v>418</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>419</v>
+      </c>
+      <c r="O51" t="s">
+        <v>74</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>420</v>
+      </c>
+      <c r="X51" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>423</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>424</v>
+      </c>
+      <c r="J52" t="s">
+        <v>425</v>
+      </c>
+      <c r="K52" t="s">
+        <v>426</v>
+      </c>
+      <c r="L52" t="s">
+        <v>427</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>419</v>
+      </c>
+      <c r="O52" t="s">
+        <v>112</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>428</v>
+      </c>
+      <c r="X52" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>431</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>432</v>
+      </c>
+      <c r="J53" t="s">
+        <v>433</v>
+      </c>
+      <c r="K53" t="s">
+        <v>434</v>
+      </c>
+      <c r="L53" t="s">
+        <v>435</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>436</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>437</v>
+      </c>
+      <c r="X53" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>440</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>441</v>
+      </c>
+      <c r="J54" t="s">
+        <v>442</v>
+      </c>
+      <c r="K54" t="s">
+        <v>443</v>
+      </c>
+      <c r="L54" t="s">
+        <v>444</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>445</v>
+      </c>
+      <c r="X54" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="J55" t="s">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>453</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>454</v>
+      </c>
+      <c r="X55" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>457</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>458</v>
+      </c>
+      <c r="J56" t="s">
+        <v>459</v>
+      </c>
+      <c r="K56" t="s">
+        <v>460</v>
+      </c>
+      <c r="L56" t="s">
+        <v>461</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>462</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>463</v>
+      </c>
+      <c r="X56" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>466</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>467</v>
+      </c>
+      <c r="J57" t="s">
+        <v>468</v>
+      </c>
+      <c r="K57" t="s">
+        <v>469</v>
+      </c>
+      <c r="L57" t="s">
+        <v>470</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>471</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>472</v>
+      </c>
+      <c r="X57" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>475</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>476</v>
+      </c>
+      <c r="J58" t="s">
+        <v>477</v>
+      </c>
+      <c r="K58" t="s">
+        <v>478</v>
+      </c>
+      <c r="L58" t="s">
+        <v>479</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>480</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>481</v>
+      </c>
+      <c r="X58" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>484</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>485</v>
+      </c>
+      <c r="J59" t="s">
+        <v>486</v>
+      </c>
+      <c r="K59" t="s">
+        <v>487</v>
+      </c>
+      <c r="L59" t="s">
+        <v>488</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>480</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>489</v>
+      </c>
+      <c r="X59" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>492</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>493</v>
+      </c>
+      <c r="J60" t="s">
+        <v>494</v>
+      </c>
+      <c r="K60" t="s">
+        <v>495</v>
+      </c>
+      <c r="L60" t="s">
+        <v>496</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>471</v>
+      </c>
+      <c r="O60" t="s">
+        <v>112</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>497</v>
+      </c>
+      <c r="X60" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>500</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>501</v>
+      </c>
+      <c r="J61" t="s">
+        <v>502</v>
+      </c>
+      <c r="K61" t="s">
+        <v>503</v>
+      </c>
+      <c r="L61" t="s">
+        <v>504</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>505</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>506</v>
+      </c>
+      <c r="X61" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>509</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>510</v>
+      </c>
+      <c r="J62" t="s">
+        <v>511</v>
+      </c>
+      <c r="K62" t="s">
+        <v>512</v>
+      </c>
+      <c r="L62" t="s">
+        <v>513</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>514</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>515</v>
+      </c>
+      <c r="X62" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>518</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>519</v>
+      </c>
+      <c r="J63" t="s">
+        <v>520</v>
+      </c>
+      <c r="K63" t="s">
+        <v>521</v>
+      </c>
+      <c r="L63" t="s">
+        <v>522</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>514</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>523</v>
+      </c>
+      <c r="X63" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>526</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>527</v>
+      </c>
+      <c r="J64" t="s">
+        <v>528</v>
+      </c>
+      <c r="K64" t="s">
+        <v>529</v>
+      </c>
+      <c r="L64" t="s">
+        <v>530</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>531</v>
+      </c>
+      <c r="X64" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>534</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>535</v>
+      </c>
+      <c r="J65" t="s">
+        <v>536</v>
+      </c>
+      <c r="K65" t="s">
+        <v>537</v>
+      </c>
+      <c r="L65" t="s">
+        <v>538</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>539</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>531</v>
+      </c>
+      <c r="X65" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>541</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>542</v>
+      </c>
+      <c r="J66" t="s">
+        <v>543</v>
+      </c>
+      <c r="K66" t="s">
+        <v>544</v>
+      </c>
+      <c r="L66" t="s">
+        <v>545</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>546</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>547</v>
+      </c>
+      <c r="X66" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>550</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>551</v>
+      </c>
+      <c r="J67" t="s">
+        <v>552</v>
+      </c>
+      <c r="K67" t="s">
+        <v>553</v>
+      </c>
+      <c r="L67" t="s">
+        <v>554</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>555</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>557</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>558</v>
+      </c>
+      <c r="J68" t="s">
+        <v>559</v>
+      </c>
+      <c r="K68" t="s">
+        <v>560</v>
+      </c>
+      <c r="L68" t="s">
+        <v>561</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>562</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>563</v>
+      </c>
+      <c r="X68" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_360.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_360.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="898">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r605115782-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1866401</t>
+  </si>
+  <si>
+    <t>605115782</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>I stayed here recently because I was visiting my daughter who lives nearby (I live in Cypress) and I did not want to have to have to fight the traffic to get to this side of town. I selected this hotel due to it's location and the brand, of course. I was not able to try the restaurant because I did not check in until around 10:30 P.M. Overall, I like this hotel and will stay here again.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r604777218-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>604777218</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Convenient location in westchase. Room is comfortable as is the bed. Both elevators now working. Staff is very nice and friendly. Restaurant is still very limited in its offering. A few days here is OK but for and extended visit I might do something else.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r591945541-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1866401</t>
-  </si>
-  <si>
     <t>591945541</t>
   </si>
   <si>
@@ -175,9 +214,6 @@
   </si>
   <si>
     <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>The customer service at this hotel is horrible and atrocious. I had a very embarrassing and humiliating experience. Unbeknownst to me, a few days into my stay, my credit card was suspended by my bank due to suspicious activity.  The hotel has received an initial authorization, but I was ordering breakfast daily, so additional funds were needed. Since my card was suspended it was declining. Instead of the hotel staff doing what any other hotel would do in this situation for example; slip a note under my door to please see the front desk or leave a voice message on my hotel room phone, they take it took it to the extreme. A member of hotel staff began to pound on my door and when I opened it he threatened me to please see the desk and give them a new card, that if I didn’t they were going to call law-enforcement. At the moment I wasn't thinking about customer service I was thinking about I need to fix this problem because apparently their intention is to call the police over a few hundred dollars mind you I wasn't due to check out for another few days. I rectified the situation with my bank and had the front desk re-run the card and everything was fine. However when I went back up to my room I found I was locked out. I had to go back down to the front...The customer service at this hotel is horrible and atrocious. I had a very embarrassing and humiliating experience. Unbeknownst to me, a few days into my stay, my credit card was suspended by my bank due to suspicious activity.  The hotel has received an initial authorization, but I was ordering breakfast daily, so additional funds were needed. Since my card was suspended it was declining. Instead of the hotel staff doing what any other hotel would do in this situation for example; slip a note under my door to please see the front desk or leave a voice message on my hotel room phone, they take it took it to the extreme. A member of hotel staff began to pound on my door and when I opened it he threatened me to please see the desk and give them a new card, that if I didn’t they were going to call law-enforcement. At the moment I wasn't thinking about customer service I was thinking about I need to fix this problem because apparently their intention is to call the police over a few hundred dollars mind you I wasn't due to check out for another few days. I rectified the situation with my bank and had the front desk re-run the card and everything was fine. However when I went back up to my room I found I was locked out. I had to go back down to the front desk and have them re-issue keys. In hindsight I realized that was a ridiculous and horrific over the top reaction to the situation. I find it hard to believe that being a so-called “gold elite” member of the IHG® loyalty program that I would have been given a little bit more respect and not treated like some kind of criminal. It had only been a few hours that the card had declined. On another note the rooms here are quite dated and dirty. The carpets are sticky and during my stay I had to kill three baby sized roaches which leads me to believe they have a roach infestation problem. Also during my stay housekeeping missed my room twice. I would avoid this hotel at all costs as they have no concept of what customer service is. I have never felt so belittled and degraded in my life. I have been traveling for over 15 years and this is the first time a hotel has ever threatened to call law-enforcement over a card that that was declining for a few hours. In my opinion the staff needs training on this issue surely a simple note underneath the door to please swing by is sufficient, not sending some goon to pound on my door and make underlying threats. Horrible.More</t>
@@ -258,6 +294,51 @@
     <t>Arrived late. Check in was quick and easy. Staff acknowledged my status as they are suppose to. Room was nice and clean and in good order. Breakfast came with my room and was prepared exactly as I requested for the diet I'm on.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r569907015-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569907015</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Good location nice staff but</t>
+  </si>
+  <si>
+    <t>Restaurant is a sad excuse. Menu very limited and preparation is very inconsistent. Italian dressing on a Caesar salad?  Really?  Some items are good like firecracker shrimp and next time your better off with a TV dinner. One elevator is always broken and call button lights but doesn’t work when going down. Use the up button. Rooms are a decent size but never stocked with adequate towels. Hotel does not have enough according to staff. Never get complete supply of toiletries or in room coffee. Electric outlets will not hold a plug above the bed. We had a light out and maintenance removed the fixture and covered the hole with duct tape. Said owner would not buy the needed parts. Numerous break-ins in the parking lot. A friend had his exhaust system stolen. Pretty brazen huh?I could go in but you get the idea. Parking is sometimes a challenge. Rates are reasonable but going up with maintenance going down. I am thinking Marriott next time. Rating would be worse but staff is nice and tried but there is a lot of turnover. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Restaurant is a sad excuse. Menu very limited and preparation is very inconsistent. Italian dressing on a Caesar salad?  Really?  Some items are good like firecracker shrimp and next time your better off with a TV dinner. One elevator is always broken and call button lights but doesn’t work when going down. Use the up button. Rooms are a decent size but never stocked with adequate towels. Hotel does not have enough according to staff. Never get complete supply of toiletries or in room coffee. Electric outlets will not hold a plug above the bed. We had a light out and maintenance removed the fixture and covered the hole with duct tape. Said owner would not buy the needed parts. Numerous break-ins in the parking lot. A friend had his exhaust system stolen. Pretty brazen huh?I could go in but you get the idea. Parking is sometimes a challenge. Rates are reasonable but going up with maintenance going down. I am thinking Marriott next time. Rating would be worse but staff is nice and tried but there is a lot of turnover. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r568445270-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568445270</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Good location, convenient, clean!</t>
+  </si>
+  <si>
+    <t>This is your average Holiday Inn. The staff are polite, will efficiently check you in, you go to your clean room, and you don't pay a lot. Be careful about parking your car - I have seen cars broken in, so don't leave anything in plain view to temp the bad guys.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r568055418-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -276,9 +357,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded April 7, 2018</t>
   </si>
   <si>
@@ -312,6 +390,24 @@
     <t>Receptionist was not friendly and not keen on answering and helping. Especially, they charged twice of what we should pay (over 300$ extra). I reported to the receptionist on the same day and they ignored. I tried to call them to fix the billing and they ignored. Emailed to GM Claudia, she didn’t respond. Emailed to Sales Director and IHG Guest Relations and they ignored. What are this hotel and IHG doing? Are they trying to steal clients’ money? Please be careful with your card when you make the decision to stay here. You can get rob easily! Will make a dispute with Master Card definitely to take my money back. It happened on 27th Feb and now 15 March, I still never heard back from them. Shame on you Holiday Inn and IHG group!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r563439339-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563439339</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Great Place for West Houston</t>
+  </si>
+  <si>
+    <t>This is a great place to stay on the west side of Houston. It's located on the Hwy 8/ Sam Houston Tollway between I-10 and I-69/US 59, but you don't have to take the tollway to get there. It offers ease of access to at least most of southwest Houston outside Loop 610. Towns southwest of Houston such as Sugarland are also easily accessible. The staff was helpful and check-in was easy. The room had plenty of amenities, and the price was just right. One thing I might mention is that this hotel does not offer a complimentary breakfast because it has a restaurant. But this was little to us because we met family for meals.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great place to stay on the west side of Houston. It's located on the Hwy 8/ Sam Houston Tollway between I-10 and I-69/US 59, but you don't have to take the tollway to get there. It offers ease of access to at least most of southwest Houston outside Loop 610. Towns southwest of Houston such as Sugarland are also easily accessible. The staff was helpful and check-in was easy. The room had plenty of amenities, and the price was just right. One thing I might mention is that this hotel does not offer a complimentary breakfast because it has a restaurant. But this was little to us because we met family for meals.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r562809578-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -327,6 +423,51 @@
     <t xml:space="preserve">As a road warrior I always stay at the holiday inn chain across this great country.  This property is very clean, comfortable and consistent as we expect for a corporate national chain with great friendly service.  </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r556393077-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556393077</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>Rooms are dirty and wallpaper is peeling</t>
+  </si>
+  <si>
+    <t>This was my first stay at a Holiday Inn in several years and it will be my last (hopefully!).  The check in was efficient and the front desk person was personable.  My room was awful.  There were pieces of mud on the floor, the sheer curtains were ripped and the tables were dirty.  The worst was when I was getting ready for bed and turned over a pillow and it had red stains that showed thru the pillow case,   I travel most every week and this was a terrible experience.  I am disappointed in Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2018</t>
+  </si>
+  <si>
+    <t>This was my first stay at a Holiday Inn in several years and it will be my last (hopefully!).  The check in was efficient and the front desk person was personable.  My room was awful.  There were pieces of mud on the floor, the sheer curtains were ripped and the tables were dirty.  The worst was when I was getting ready for bed and turned over a pillow and it had red stains that showed thru the pillow case,   I travel most every week and this was a terrible experience.  I am disappointed in Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r553993433-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553993433</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unexpected Great Stay! </t>
+  </si>
+  <si>
+    <t>The stay here was very enjoyable. I initially booked my room for two nights. I enjoyed my stay so much I booked a third night. Everything went smoothly. The staff is very nice and hospitable. I ate at the restaurant and the food was good. The first night I ordered the pepperoni pizza and it was good ($20). The second day I had potatoes and toast for breakfast and it was good. For dinner, I had a hummus plate and nachos and they were very tasty (a lot of food). Overall, I enjoyed my stay. I enjoyed it so much that I joined the rewards program and plan to book again! My only advice is not to get a room at the end of the hall near the service room for the housekeeping staff. They are noisy early in the morning. MoreShow less</t>
+  </si>
+  <si>
+    <t>The stay here was very enjoyable. I initially booked my room for two nights. I enjoyed my stay so much I booked a third night. Everything went smoothly. The staff is very nice and hospitable. I ate at the restaurant and the food was good. The first night I ordered the pepperoni pizza and it was good ($20). The second day I had potatoes and toast for breakfast and it was good. For dinner, I had a hummus plate and nachos and they were very tasty (a lot of food). Overall, I enjoyed my stay. I enjoyed it so much that I joined the rewards program and plan to book again! My only advice is not to get a room at the end of the hall near the service room for the housekeeping staff. They are noisy early in the morning. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r550303713-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -390,7 +531,55 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r524915270-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>524915270</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Very Comfortable</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location. Drive 15 minutes in any direction, and you'll come to a restaurant. Walk across the parking lot, and there's Cheddar's, a very good place to eat.The room I was in was comfortable, and clean. There's a lot of furniture in the room, so it feels a tad bit cramped, but it's not a big deal. I had a small frig, a microwave, and for the first time I've ever seen, a Keurig machine.The hotel has a small excercise room, and a pool, though I only peaked through the window, so I have no opinion on these. There are soda machines and ice machines on each floor, and somewhere there are also laundry rooms, though I didn't use them.Overall a great experience. The staff was friendly, and kind.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location. Drive 15 minutes in any direction, and you'll come to a restaurant. Walk across the parking lot, and there's Cheddar's, a very good place to eat.The room I was in was comfortable, and clean. There's a lot of furniture in the room, so it feels a tad bit cramped, but it's not a big deal. I had a small frig, a microwave, and for the first time I've ever seen, a Keurig machine.The hotel has a small excercise room, and a pool, though I only peaked through the window, so I have no opinion on these. There are soda machines and ice machines on each floor, and somewhere there are also laundry rooms, though I didn't use them.Overall a great experience. The staff was friendly, and kind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r495978714-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495978714</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Great location Right off the Beltway for Conference</t>
+  </si>
+  <si>
+    <t>I attended a conference at the Holiday Inn Westchase  and I must say I was impressed.  The property is in a great location right off a major hwy and right next to a really nice restaurant for a quick lunch.  The staff were friendly and the conference area was very accommodating.  My only complain was that the conference room temperature was a bit on the warmer side, we had to keep asking the staff to adjust the temperature.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>I attended a conference at the Holiday Inn Westchase  and I must say I was impressed.  The property is in a great location right off a major hwy and right next to a really nice restaurant for a quick lunch.  The staff were friendly and the conference area was very accommodating.  My only complain was that the conference room temperature was a bit on the warmer side, we had to keep asking the staff to adjust the temperature.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r492797072-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
@@ -408,15 +597,6 @@
     <t>Stayed one night at this wonderful hotel. We have stayed here before and always enjoyed our stay. Once again a VERY pleasant stay. We were in room 500, which is a corner room. Lots of windows and a view of downtown Houston. We also reserved a second room for our extended family. Maria even gave them a room on the 5th floor! Thanks again to Maria who was so VERY helpful during our stay. We enjoyed the indoor pool, SUPER comfy bed, and the VERY quiet room. Our room was very clean and so was the bathroom. We will choose this hotel again when we are in the area.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
-    <t>Management response:Responded July 17, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 17, 2017</t>
-  </si>
-  <si>
     <t>Stayed one night at this wonderful hotel. We have stayed here before and always enjoyed our stay. Once again a VERY pleasant stay. We were in room 500, which is a corner room. Lots of windows and a view of downtown Houston. We also reserved a second room for our extended family. Maria even gave them a room on the 5th floor! Thanks again to Maria who was so VERY helpful during our stay. We enjoyed the indoor pool, SUPER comfy bed, and the VERY quiet room. Our room was very clean and so was the bathroom. We will choose this hotel again when we are in the area.More</t>
   </si>
   <si>
@@ -468,6 +648,54 @@
     <t>The place was clean and beautiful. I had a very nice stay. Nom smoking room on the fifth floor. Keurig coffee maker in the room. The room was clean and smelled nice. Breakfast isn't free but depending on who you book through you can get a package for it. I have no complaints. This hotel is fairly new and it was really a wonderful stay. I'd definitely go back. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r479841865-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479841865</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Dirty, found a roach - not recommended.</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn Westchase from April 26-28th on business. The hotel is large and relatively new. The room (506) was large and spacious. So far so good. However the room was not particularly clean - stains on carpeting and mold in the bathroom.First morning, I awoke to a large roach on the floor which I promptly dispatched with my shoe. I reported the roach to front desk at 7 AM who were very apologetic and promised to take care of the issue. I returned to the hotel later that afternoon around 4 PM, and found housekeeping had been in and made up the room. But the roach remained on the carpet where I left it that morning!Once again I reported the roach to Front desk, who offered me another room. The next room wasn't much cleaner, found debris on the carpet but fortunately no roaches.Oh, and the power went off one evening for an hour. No back-up Generator! Emergency lighting was working in the halls, but stairwell fire escape stars were too dark and I had to use my phone to navigate the stairs. (Hope the Houston Fire Inspector reads this)..Conclusion - I can't recommend this hotel at any price (and it's not cheap).  Management need to step up their game.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded May 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn Westchase from April 26-28th on business. The hotel is large and relatively new. The room (506) was large and spacious. So far so good. However the room was not particularly clean - stains on carpeting and mold in the bathroom.First morning, I awoke to a large roach on the floor which I promptly dispatched with my shoe. I reported the roach to front desk at 7 AM who were very apologetic and promised to take care of the issue. I returned to the hotel later that afternoon around 4 PM, and found housekeeping had been in and made up the room. But the roach remained on the carpet where I left it that morning!Once again I reported the roach to Front desk, who offered me another room. The next room wasn't much cleaner, found debris on the carpet but fortunately no roaches.Oh, and the power went off one evening for an hour. No back-up Generator! Emergency lighting was working in the halls, but stairwell fire escape stars were too dark and I had to use my phone to navigate the stairs. (Hope the Houston Fire Inspector reads this)..Conclusion - I can't recommend this hotel at any price (and it's not cheap).  Management need to step up their game.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r466193940-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466193940</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Above average Holiday Inn</t>
+  </si>
+  <si>
+    <t>I have stayed a couple of times in the hotel. They have a good parking area, internet is fast and breakfast is severed in the downstairs restaurant. There is also a restaurant across the hotel: Cheddar's. The rooms are standard for a Holiday Inn. I prefer this hotel compared to the Marriott across the streetMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>I have stayed a couple of times in the hotel. They have a good parking area, internet is fast and breakfast is severed in the downstairs restaurant. There is also a restaurant across the hotel: Cheddar's. The rooms are standard for a Holiday Inn. I prefer this hotel compared to the Marriott across the streetMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r463768991-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -537,6 +765,54 @@
     <t>Well maintained facility. Attractive common area. Food offerings limited to bar snack type items but other eating options very close by. Very clean. Room is spacious and very comfortable. Nice bath area. Staff is friendly and accommodating. Rate swing wildly depending on the date. Generally a good value.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r457629385-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457629385</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Are Holiday Inns just run-of-the mill hotels now?</t>
+  </si>
+  <si>
+    <t>The hotel and staff really tried with refreshments in the lobby and offers of room service.  Check-in was marred by the huge group booking in before me which the one receptionist couldn't handle.  The room was nice and clean but the bed, tv and air conditioner were not up to standard. I always miss not having a tub.  The food in the bar was mediocre.  The gym smelled badly, was too small and with only one recumbent, one stepper and two treadmills that needed servicing.  Blah...MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>The hotel and staff really tried with refreshments in the lobby and offers of room service.  Check-in was marred by the huge group booking in before me which the one receptionist couldn't handle.  The room was nice and clean but the bed, tv and air conditioner were not up to standard. I always miss not having a tub.  The food in the bar was mediocre.  The gym smelled badly, was too small and with only one recumbent, one stepper and two treadmills that needed servicing.  Blah...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r454864026-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454864026</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>2 nights stay when travelling for buisness</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights when travelling through Houston with work for some meetings. Nice clean room and comfortable bed.Not enough parking spots for cars at night and cars are double parked i the back parking spaces. Breakfast is not included which was a shame as most places offer something and this can be a major design maker when travelling and have choices. Swimming pool was greta as indoor but was to cold. Would be interested to come back with family as close to work and have a indoor pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights when travelling through Houston with work for some meetings. Nice clean room and comfortable bed.Not enough parking spots for cars at night and cars are double parked i the back parking spaces. Breakfast is not included which was a shame as most places offer something and this can be a major design maker when travelling and have choices. Swimming pool was greta as indoor but was to cold. Would be interested to come back with family as close to work and have a indoor pool.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r446239120-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -607,6 +883,57 @@
   </si>
   <si>
     <t>2nd time staying in the Holiday Inn Westchase and so far it has been an awesome experience, customer service is outstanding, the bar has lot's of TVs to watch your favorite sport, or news, it has easy access, very close to uptown and downtown...another plus is that the area is very quit which assure you a nice rest when neededMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r430728211-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430728211</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Great staff, nice place</t>
+  </si>
+  <si>
+    <t>I was back in town for business and stayed here for my second trip.  The staff is very friendly and helpful, there is a nice little bar and cafe for meals.  Mario runs the cafe in the morning and is always quick with the coffee and a smile.  There is a gym with a few cardio machines that is very convenient for me, I hit it early before work.  I like the location and the staff and will be back next time I am in town.  There is a restaurant "cheddars" in front of the hotel and the Sam Houston highway in front of that,  If you are a light sleeper be mindful that I found there was some commotion at an early hour a night or two out front as well as occasional road noise, you may want to request a room facing the back.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>I was back in town for business and stayed here for my second trip.  The staff is very friendly and helpful, there is a nice little bar and cafe for meals.  Mario runs the cafe in the morning and is always quick with the coffee and a smile.  There is a gym with a few cardio machines that is very convenient for me, I hit it early before work.  I like the location and the staff and will be back next time I am in town.  There is a restaurant "cheddars" in front of the hotel and the Sam Houston highway in front of that,  If you are a light sleeper be mindful that I found there was some commotion at an early hour a night or two out front as well as occasional road noise, you may want to request a room facing the back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r425109539-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425109539</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Great customer service and a very pleasant stay!</t>
+  </si>
+  <si>
+    <t>Holiday Inn- Westchase was extremely accommodating and provided me an early check-in at 12 PM so I could make a 3 PM wedding! Noah at the front desk was exceptionally friendly and I could tell he took a lot of pride in his work and customer relations. Our room was very clean and comfortable. The location seemed odd, to me, but it's Texas so we did not mind driving around. We will be visiting again this month to take my niece to the Children's Museum.  The indoor pool should be a nice surprise for her stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn- Westchase was extremely accommodating and provided me an early check-in at 12 PM so I could make a 3 PM wedding! Noah at the front desk was exceptionally friendly and I could tell he took a lot of pride in his work and customer relations. Our room was very clean and comfortable. The location seemed odd, to me, but it's Texas so we did not mind driving around. We will be visiting again this month to take my niece to the Children's Museum.  The indoor pool should be a nice surprise for her stay!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r423438737-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
@@ -683,6 +1010,48 @@
     <t>I stayed here for a week on a business trip.  There were many hotels to choose from, but I wanted to make sure I got quiet place with a comfortable bed, and that had ample free parking.  This fit the bill.  I had a room on the second floor, toward the back of the building.  It had a flat screen TV, mini fridge, desk, large bed, and a nice bathroom.  Everything looked updated.The bed was very comfortable, which was the most important thing to me.  The parking lot was always almost full, but I always found a spot.  I like that there's a restaurant next door (however, with so many great nearby options, I never ate at it).  The room was comfortable and always quiet.Things that could be improved include the towels.  Very thin, hard, and scratchy, as towels get when they need to be replaced.  Also, there should be extra bathroom supplies (e.g. toilet paper!) in the bathroom, so you don't have to call downstairs and bother the front desk.  The breakfast should be free, as it is in comperable hotels.  It's not, so, not being lazy, I simply went to nearby bakeries/shops to pick up better tasting items on my way to work.The front desk staff was extremely friendly, both when I checked in, and every time I passed by.  I love the service here!I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r420336146-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>420336146</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holiday Inn Houston </t>
+  </si>
+  <si>
+    <t>Functional, friendly, professional and ideally located for downtown business visits. Reasonable breakfast, with Cheddar's restaurant nearby. Quite some way (~45 mins) from the George Bush International Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Functional, friendly, professional and ideally located for downtown business visits. Reasonable breakfast, with Cheddar's restaurant nearby. Quite some way (~45 mins) from the George Bush International Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r397344009-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>397344009</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Supervisor </t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for a week. The staff was very attentive and kind. The restaurant had good food. Menu was limited understandably. Room was very clean and comfortable. What I loved is that the room had full sized pillows, two soft and two firm.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for a week. The staff was very attentive and kind. The restaurant had good food. Menu was limited understandably. Room was very clean and comfortable. What I loved is that the room had full sized pillows, two soft and two firm.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r396003293-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -754,30 +1123,69 @@
 So my suggestion is, if you want...As a Platinum Elite member of IHG, I stay at Holiday Inns all the time. This hotel so far has the worst customer service from their manager. The front desk staff were friendly and helpful. However, when an issue arose, the manager handled it extremely poor and didn't have any courtesy to their customer, especially a Platinum member.When I checked out the hotel, my credit card company sent me an alert of an unauthorized charge from this Holiday Inn for $15. I wasn't sure what that charge was since they've already charge me for the stay, so I called them and asked about it. Apparently, they charged me for a meal that I didn't have at their restaurant. So the manager called me and said they've took off the charge, which was fine. Then, I asked if it's possible to add some bonus points to my account because all those hassles that I had to deal with them. He then basically said " I didn't even question you when I took off the $15 charge". ARE YOU SERIOUS?!!!! You charged me for something that I did not consume, and then you had the audacity to tell me that I should thank you for not questioning me for the faulty charge?! At that point, I was done! So I hung up the phone and didn't want to waste my time with them anymore.So my suggestion is, if you want to be treated with courtesy and have a good stay in a hotel, don't stay here. There's plenty of hotels that will appreciate your business.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r386351959-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386351959</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do It Yourself Inn </t>
+  </si>
+  <si>
+    <t>I stayed 9 days at this hotel 3 weeks ago.The breakfast is ok for a 2 days,  not too many options, no fresh cheese or ham,    you even have to pay extra for bottled orange juice. In the weekend I went to the Madelaine Bakery,  paid almost the same price and was much better. After 5 days I asked reception to change the sheets, when I arrived in my room that afternoon I discovered that they did not put clean sheets in my bed.  I went down to reception to file a complaint and to get the sheets changed,  the girl at reception told me that there was no staff available to change the sheets, but she could give me the sheets so I can change them myself...... A security guy was standing at reception and he kindly offered to help me.  So we went up to the room and tried to change the sheets. Unfortunately the poor guy took the wrong clean sheets and pillow covers, they did not really fit,  but they were clean! This ridiculous situation reminded me of the English TV serie Fawlty Towers!  Not the kind of hotel a business traveller is looking for.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>I stayed 9 days at this hotel 3 weeks ago.The breakfast is ok for a 2 days,  not too many options, no fresh cheese or ham,    you even have to pay extra for bottled orange juice. In the weekend I went to the Madelaine Bakery,  paid almost the same price and was much better. After 5 days I asked reception to change the sheets, when I arrived in my room that afternoon I discovered that they did not put clean sheets in my bed.  I went down to reception to file a complaint and to get the sheets changed,  the girl at reception told me that there was no staff available to change the sheets, but she could give me the sheets so I can change them myself...... A security guy was standing at reception and he kindly offered to help me.  So we went up to the room and tried to change the sheets. Unfortunately the poor guy took the wrong clean sheets and pillow covers, they did not really fit,  but they were clean! This ridiculous situation reminded me of the English TV serie Fawlty Towers!  Not the kind of hotel a business traveller is looking for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r375247208-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375247208</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Not the best, but management took care of us</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful!My family and I traveled to Texas from New Orleans to celebrate my sons graduation. Our room that we booked on booking.com was not the room that we got when we arrived- and our air conditioner in our room went out at about 1am :-/ While this was not the best experience- Mr. Solomon, a manager at the hotel was very apologetic and accommodating.I would definitely stay here again thanks to Mr. Solomon and also Mr. Angur who was very professional, even while listening to my rants.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded May 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful!My family and I traveled to Texas from New Orleans to celebrate my sons graduation. Our room that we booked on booking.com was not the room that we got when we arrived- and our air conditioner in our room went out at about 1am :-/ While this was not the best experience- Mr. Solomon, a manager at the hotel was very apologetic and accommodating.I would definitely stay here again thanks to Mr. Solomon and also Mr. Angur who was very professional, even while listening to my rants.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r375156204-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
     <t>375156204</t>
   </si>
   <si>
-    <t>05/21/2016</t>
-  </si>
-  <si>
     <t>Beautiful Rooms, Great Restaurant within!</t>
   </si>
   <si>
     <t>The room was nice as most Holiday Inn Expresses are. Downstairs, there's a really good restaurant that has a breakfast buffet in the mornings. Jason, one of the restaurant managers, was SUPER COOL! I met him during my stay and he arranged for me to have french toast every morning with my breakfast buffet at no additional cost just because I told him I loved french toast! Great hotel staff and the cost was very reasonable, I would definitely stay here again!MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
-    <t>Tiffany R, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded May 27, 2016</t>
-  </si>
-  <si>
-    <t>Responded May 27, 2016</t>
-  </si>
-  <si>
     <t>The room was nice as most Holiday Inn Expresses are. Downstairs, there's a really good restaurant that has a breakfast buffet in the mornings. Jason, one of the restaurant managers, was SUPER COOL! I met him during my stay and he arranged for me to have french toast every morning with my breakfast buffet at no additional cost just because I told him I loved french toast! Great hotel staff and the cost was very reasonable, I would definitely stay here again!More</t>
   </si>
   <si>
@@ -814,6 +1222,36 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r340767926-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340767926</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Amazing hotel.  GREAT VALUE</t>
+  </si>
+  <si>
+    <t>This was an exceptional hotel.  The price was low and the facility is fantastic.  The staff is polite and extremely professional.  Everything was perfect.  This is an elegant hotel, priced much lower than you would expect for such a nice place.  The Sporting News grill and bar is very nice.  They also have an outdoor fire pit area that is great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r339988450-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339988450</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Quiet and convenient</t>
+  </si>
+  <si>
+    <t>This hotel is located just a half block off Beltway 8, but I did not hear any noise from rush hour traffic.  It is easy to get onto the freeway from the parking lot.  There is a good restaurant in the hotel, and another next door.  The staff were all friendly, the room was clean and I'll stay there again!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r336443744-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -877,6 +1315,48 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r318059680-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318059680</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Worn out and mediocre service</t>
+  </si>
+  <si>
+    <t>I stayed here for business for a week and cannot recommend. This hotel does not come anywhere near the usual Holiday Inn standards. Room was very much worn out and did not have any wardrobe or place to hang clothes. Bathroom was not very clean either. And the sound proofing was almost non-existent, could here the traffic to the room very easily as well as any noice from all nearby rooms.Breakfast was of poor quality, pantry table is very very basic and even juices are not included in that price. White toast, cereals and some melon and pineapple slices. Not worth the money at all.Service at restaurant as well as at reception was not very friendly either.Will not stay there again, plenty of choice around that area anyway for better hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for business for a week and cannot recommend. This hotel does not come anywhere near the usual Holiday Inn standards. Room was very much worn out and did not have any wardrobe or place to hang clothes. Bathroom was not very clean either. And the sound proofing was almost non-existent, could here the traffic to the room very easily as well as any noice from all nearby rooms.Breakfast was of poor quality, pantry table is very very basic and even juices are not included in that price. White toast, cereals and some melon and pineapple slices. Not worth the money at all.Service at restaurant as well as at reception was not very friendly either.Will not stay there again, plenty of choice around that area anyway for better hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r317843280-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317843280</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Great Location, quiet, fare price, and comfortable bed</t>
+  </si>
+  <si>
+    <t>Location is close to Westheimer St and Sam Houston Highway. Fully equipped room/ suite. small kitchenette. comfortable bed. Very helpful and nice reception staff and manager. "Guests are usually families and friendly". The only drawbacks are the very weak bedroom lights, lack of bellboy, and conceirge services.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r310001764-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -892,9 +1372,6 @@
     <t>Favorite place to stay in the area. Fresh and clean appearance. Spacious rooms. Very nice bath area and beds are comfortable. Checkin staff very friendly and accommodating. Close to many office locations. Decent food nearby. Reasonable rates.</t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r296863709-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -949,6 +1426,67 @@
     <t>Everything is great about this place!!! Employees are very friendly, helpful and the rooms are very clean!! Can't wait to come back and stay! I have stayed here with my family several times and will not stay anywhere else! The beds are very very comfortable!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r289312799-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289312799</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Very nice Holiday Inn</t>
+  </si>
+  <si>
+    <t>My wife and I were pleasantly surprised by the Holiday Inn Westchase.  We stayed here for just one night while visiting family in the west Houston area and it was great.  It had everything we were looking for: updated room, a nice bathroom, comfy bed, free wifi, and more.  Plus they even had free flavored water in the lobby!  A nice touch.  Our only real complaint was that breakfast was not included and that our room had a little bit of noise from the nearby highway.  All in all, a great Holiday Inn!MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I were pleasantly surprised by the Holiday Inn Westchase.  We stayed here for just one night while visiting family in the west Houston area and it was great.  It had everything we were looking for: updated room, a nice bathroom, comfy bed, free wifi, and more.  Plus they even had free flavored water in the lobby!  A nice touch.  Our only real complaint was that breakfast was not included and that our room had a little bit of noise from the nearby highway.  All in all, a great Holiday Inn!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r277705301-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277705301</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Ray of Light</t>
+  </si>
+  <si>
+    <t>Another excellent Holiday Inn located off Sam Houston Parkway 8.  I really like the direction that Holiday Inn is taking in regards to building and furnishing their newer hotels.  Sadly, it makes all the other established locations seem outdated.  
+I titled my review "Ray of Light" because I stayed at this location during Memorial Day weekend 2015.  I don't think I need to remind anyone of all the rain/flooding that we had in Texas during this time frame.  This hotel was a true ray of light in brightening my weekend.  
+Location:  This hotel is located off Sam Houston Parkway 8, but don't let that sway you away.  I do not use toll roads at all while I'm in Houston.  You can arrive at this hotel within 10-15 minutes by taking either 290 or I-10 and using alternate routes.  My recommendation would be to use your GPS device for an appropriate route.  
+Parking lot:  This location has an adequate amount of parking spaces and is very well lit.  On multiple occasions I saw the security guard walking the premises and this added to my sense of security.  Having said that, there are signs posted all over the parking lot, lobby and in the room reminding you to take appropriate safety precautions.  
+Also several signs advising of Holiday Inn versus Cheddar's parking areas.  
+Front desk/lobby:  Everyone at the front desk was very warm and hospitable during my stay.  Kudos to the night...Another excellent Holiday Inn located off Sam Houston Parkway 8.  I really like the direction that Holiday Inn is taking in regards to building and furnishing their newer hotels.  Sadly, it makes all the other established locations seem outdated.  I titled my review "Ray of Light" because I stayed at this location during Memorial Day weekend 2015.  I don't think I need to remind anyone of all the rain/flooding that we had in Texas during this time frame.  This hotel was a true ray of light in brightening my weekend.  Location:  This hotel is located off Sam Houston Parkway 8, but don't let that sway you away.  I do not use toll roads at all while I'm in Houston.  You can arrive at this hotel within 10-15 minutes by taking either 290 or I-10 and using alternate routes.  My recommendation would be to use your GPS device for an appropriate route.  Parking lot:  This location has an adequate amount of parking spaces and is very well lit.  On multiple occasions I saw the security guard walking the premises and this added to my sense of security.  Having said that, there are signs posted all over the parking lot, lobby and in the room reminding you to take appropriate safety precautions.  Also several signs advising of Holiday Inn versus Cheddar's parking areas.  Front desk/lobby:  Everyone at the front desk was very warm and hospitable during my stay.  Kudos to the night clerk after 12am that always greeted me warmly and engaged me in a conversation while I waited for the elevator.  He added that southern hospitality and really made me feel welcomed at this location.  The lobby area is nicely decorated, clean and spacious.  They have several sitting sofas and a tv for you to view.  Elevator:  Updated, clean and smooth ride.  On one occasion the elevator lights were out and I actually smiled.  I felt like I was on ride at a theme park and used the light of my phone to see.  It was actual "cool" versus "creepy".  The next evening the lights were working on both elevators so this was obviously a one off.  Room:  I was very impressed with the furnishings and cleanliness of my hotel room.  You can tell that this location takes great pride in their hotel and want to provide a comfortable stay for everyone.  The bedding was very comfortable and provided me with excellent sleep.  The desk area is very spacious with a very comfortable chair.  There are multiple outlets for you to plug your computer and other devices into.  Nice touch of bed night lights for you readers to enjoy without disturbing anyone else.  Shower:  Very clean with lots of towels and amenities.  I like the shower glass door and floor tile.  Great water pressure and commode worked well.Room view:  My room was of Cheddar's off Sam Houston Parkway 8.  Pro's:  Newer location, adequate parking, friendly staff, clean room/shower area and quiet location.  Even though Sam Houston Parkway 8 is close by you don't hear the traffic.  Con's:  Keep in mind that my overall review of this location was "excellent".  I'm notating the following as an "fyi" to management so that their hotel remains "excellent" for years to come.  The seating area had some stains on it that could be removed with appropriate stain removal sprays.  It would sadden me if the sofas are not cleaned properly detracting from the rooms cleanliness.The shower nozzle had a few water spots that once again can be removed with the appropriate cleaning material.  The overall appearance of the shower was very clean and these few water spots once again may detract from the rooms overall cleanliness.  Having said that, let's be honest here and how many of our shower nozzles don't have a few water spots.  I want this hotel to stay excellent and that's why I'm adding this under my con's.  There was a portion of the side border that was coming undone and a few wall scuffs.  Once again, by stapling the wall border and using cleaning solution to remove the wall scuffs will provide that "new feel" to the room for years to come.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Another excellent Holiday Inn located off Sam Houston Parkway 8.  I really like the direction that Holiday Inn is taking in regards to building and furnishing their newer hotels.  Sadly, it makes all the other established locations seem outdated.  
+I titled my review "Ray of Light" because I stayed at this location during Memorial Day weekend 2015.  I don't think I need to remind anyone of all the rain/flooding that we had in Texas during this time frame.  This hotel was a true ray of light in brightening my weekend.  
+Location:  This hotel is located off Sam Houston Parkway 8, but don't let that sway you away.  I do not use toll roads at all while I'm in Houston.  You can arrive at this hotel within 10-15 minutes by taking either 290 or I-10 and using alternate routes.  My recommendation would be to use your GPS device for an appropriate route.  
+Parking lot:  This location has an adequate amount of parking spaces and is very well lit.  On multiple occasions I saw the security guard walking the premises and this added to my sense of security.  Having said that, there are signs posted all over the parking lot, lobby and in the room reminding you to take appropriate safety precautions.  
+Also several signs advising of Holiday Inn versus Cheddar's parking areas.  
+Front desk/lobby:  Everyone at the front desk was very warm and hospitable during my stay.  Kudos to the night...Another excellent Holiday Inn located off Sam Houston Parkway 8.  I really like the direction that Holiday Inn is taking in regards to building and furnishing their newer hotels.  Sadly, it makes all the other established locations seem outdated.  I titled my review "Ray of Light" because I stayed at this location during Memorial Day weekend 2015.  I don't think I need to remind anyone of all the rain/flooding that we had in Texas during this time frame.  This hotel was a true ray of light in brightening my weekend.  Location:  This hotel is located off Sam Houston Parkway 8, but don't let that sway you away.  I do not use toll roads at all while I'm in Houston.  You can arrive at this hotel within 10-15 minutes by taking either 290 or I-10 and using alternate routes.  My recommendation would be to use your GPS device for an appropriate route.  Parking lot:  This location has an adequate amount of parking spaces and is very well lit.  On multiple occasions I saw the security guard walking the premises and this added to my sense of security.  Having said that, there are signs posted all over the parking lot, lobby and in the room reminding you to take appropriate safety precautions.  Also several signs advising of Holiday Inn versus Cheddar's parking areas.  Front desk/lobby:  Everyone at the front desk was very warm and hospitable during my stay.  Kudos to the night clerk after 12am that always greeted me warmly and engaged me in a conversation while I waited for the elevator.  He added that southern hospitality and really made me feel welcomed at this location.  The lobby area is nicely decorated, clean and spacious.  They have several sitting sofas and a tv for you to view.  Elevator:  Updated, clean and smooth ride.  On one occasion the elevator lights were out and I actually smiled.  I felt like I was on ride at a theme park and used the light of my phone to see.  It was actual "cool" versus "creepy".  The next evening the lights were working on both elevators so this was obviously a one off.  Room:  I was very impressed with the furnishings and cleanliness of my hotel room.  You can tell that this location takes great pride in their hotel and want to provide a comfortable stay for everyone.  The bedding was very comfortable and provided me with excellent sleep.  The desk area is very spacious with a very comfortable chair.  There are multiple outlets for you to plug your computer and other devices into.  Nice touch of bed night lights for you readers to enjoy without disturbing anyone else.  Shower:  Very clean with lots of towels and amenities.  I like the shower glass door and floor tile.  Great water pressure and commode worked well.Room view:  My room was of Cheddar's off Sam Houston Parkway 8.  Pro's:  Newer location, adequate parking, friendly staff, clean room/shower area and quiet location.  Even though Sam Houston Parkway 8 is close by you don't hear the traffic.  Con's:  Keep in mind that my overall review of this location was "excellent".  I'm notating the following as an "fyi" to management so that their hotel remains "excellent" for years to come.  The seating area had some stains on it that could be removed with appropriate stain removal sprays.  It would sadden me if the sofas are not cleaned properly detracting from the rooms cleanliness.The shower nozzle had a few water spots that once again can be removed with the appropriate cleaning material.  The overall appearance of the shower was very clean and these few water spots once again may detract from the rooms overall cleanliness.  Having said that, let's be honest here and how many of our shower nozzles don't have a few water spots.  I want this hotel to stay excellent and that's why I'm adding this under my con's.  There was a portion of the side border that was coming undone and a few wall scuffs.  Once again, by stapling the wall border and using cleaning solution to remove the wall scuffs will provide that "new feel" to the room for years to come.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r274893382-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -962,9 +1500,6 @@
   </si>
   <si>
     <t>The hotel was convenient location to visit Houston relatives. Clean. Comfortable bed. Great bathroom space. Suite offered sitting area with separate TV. Breakfast available for small charge. Friendly, professional desk staff.MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2015</t>
   </si>
   <si>
     <t>Phil H, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded May 29, 2015</t>
@@ -1027,6 +1562,54 @@
 As for the rooms - both showers were dirty and grimy.  The grout needs some serious cleaning and the soap scum layer on the floor of the stand up shower was pretty thick.  The suite was about...I stay in this area a week every month for work and never stayed in this hotel so gave it a shot because the pictures caught my eye and it looked new or newly remodeled.  Upon check-in, the clerk said I was staying for 1 night which was wrong.  I showed  him my reservation for 4 nights and he made the change in the system.  The next day, my key didn't work and I went to the front desk and had to argue that I was who I said I was, was checked into the room I said I was, and wasn't supposed to check out until Friday.  He kept telling me I checked out a couple hours ago, but clearly NO, I did not and I am here now.  Finally, Eddie, who I presume was the manager came over and explained that I had been checked out because I only had a reservation for 1 night, that my belongings had been packed and removed from the room, and he would put me in a better room and give me drink coupons.  Eddie was one of two employees here who were professional - the rest are terrible.My belongings arrived in plastic bags.As for the rooms - both showers were dirty and grimy.  The grout needs some serious cleaning and the soap scum layer on the floor of the stand up shower was pretty thick.  The suite was about 4 feet longer than the standard room, with the bathroom in the middle of the room, creating a separate little tiny living room big enough for the couch and nothing else. The suite had a tub, but the standard room had the stand up shower.  The restaurant is understaffed and the food so so.  I ended up walking out and going next door to Cheddars which is the worst Cheddars I've ever been in.  Holiday Inn is usually a crap shoot, they have poor standardization with quality and this one isn't the worst, but certainly needs help.  I'm going back to what I know is good in the area and won't be back to the HI.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r267739857-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267739857</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>Comfy bed, Clean room</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times due to the proximity to work and rooms are always clean. I've never felt the need to write a review before but I am deeply troubled by what I witnessed this stay. One of the housekeeper managers (she is short with black hair) was being extremely rude to the housekeeper cleaning my floor, I don't understand a lot of spanish so I'm not sure what she was saying but that is not way to speak to another individual special in a public space.MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded April 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed here a few times due to the proximity to work and rooms are always clean. I've never felt the need to write a review before but I am deeply troubled by what I witnessed this stay. One of the housekeeper managers (she is short with black hair) was being extremely rude to the housekeeper cleaning my floor, I don't understand a lot of spanish so I'm not sure what she was saying but that is not way to speak to another individual special in a public space.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r266317775-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266317775</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>Great Stay, Great staff.</t>
+  </si>
+  <si>
+    <t>I stayed at this Holiday Inn during a trip to Houston. The Staff at this hotel were awesome! The room itself was clean, spacious and had enough room to work in. I will definitely stay in this Holiday Inn again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded April 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this Holiday Inn during a trip to Houston. The Staff at this hotel were awesome! The room itself was clean, spacious and had enough room to work in. I will definitely stay in this Holiday Inn again.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r260533409-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1081,6 +1664,36 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r251668642-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251668642</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Very  nice Holiday Inn</t>
+  </si>
+  <si>
+    <t>I was very surprised at the condition of the hotel and the up-class feel it had.The room was very nice and the hotel is right off the interstate, just a little jog to get there.  The workout room was nice and a restaurant right next door.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r250619864-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250619864</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights on a short visit to Houston for business. The hotel has comfortable, clean and well appointed rooms and the staff is very professional, friendly and helpful. The restaurant has a very good self service breakfast.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r246828762-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1135,6 +1748,51 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r232289206-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232289206</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Warm welcome by the staff.Room is large clean and comfortable.  The bed is exceptional.Good water pressure.Restauranr is more than adequate for a couple of noghts stay.Toweld are rich and very absorbent and oversized.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r222802321-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222802321</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel Poor Internet</t>
+  </si>
+  <si>
+    <t>Great large rooms with good water pressure nice decor decent restaurant open late(10 pm) , only issue to me was extremely slow internet. I used my hotspot but this could be a big issue to the Modern traveller. Very clean throughout and staff are very professional. This hotel also has great meeting rooms if needed. I will stay here again if I need to go to the Westchase area of Houston.Breakfast was not free for my rate but I have seen deals where it's included.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Andy S, Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Great large rooms with good water pressure nice decor decent restaurant open late(10 pm) , only issue to me was extremely slow internet. I used my hotspot but this could be a big issue to the Modern traveller. Very clean throughout and staff are very professional. This hotel also has great meeting rooms if needed. I will stay here again if I need to go to the Westchase area of Houston.Breakfast was not free for my rate but I have seen deals where it's included.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r217678915-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1142,9 +1800,6 @@
   </si>
   <si>
     <t>07/26/2014</t>
-  </si>
-  <si>
-    <t>Enjoyable stay</t>
   </si>
   <si>
     <t>Stayed here for 3 nights on a short visit to Houston for business.The hotel is located in a quiet location with comfortable, clean and well appointed rooms and I found the the staff to be very professional, friendly and helpful.The bar and restaurant offer a good range of choices and breakfasts are plentiful.There is plenty of off street parking available if you are travelling with a vehicle.Not sure on how central the location would be in relation to getting around Houston generally though as my meetings were only a short drive away so ideal for me. For me I thought it was great value and I would certainly stay here again.MoreShow less</t>
@@ -1219,6 +1874,51 @@
 Again, no bottles of water provided in the room. Upon asking, the front desk said that they would give me a bottle if...To start with, I would compare the brand "Holiday Inn" with her international counterparts, specially in Asia. This brand is a reputed brand in Asia providing all services that you could ask for from a 3-4 star hotel, however this Hotel in North America came across as strictly a "budget hotel".The check-in was smooth and my relationship with the IHG group was duly recognized by the front desk. Again, very basic looking front door welcome and below average lobby. Just one person managing the front desk and multitasking most of the time.The room was good size, however was aging. The carpets needed attention at many parts in the room as well as the lobby. The bed provided the usual signature "Holiday Inn" comfort, however, it was a tad too soft for my liking. The décor of the room was very basic, the furniture very outdated and in need of maintenance. The washroom needed a lot of attention. Part of it was addressed by the maintenance staff upon complaining. The water was not draining through the sink and the toilet flush needed attention as well. Besides, the bathroom looked very old and dated. The tiles dirty at many places and fixtures all rusted in places. Like I said, this place is in dire need of renovations.Again, no bottles of water provided in the room. Upon asking, the front desk said that they would give me a bottle if I would go down myself to get it. Also, needed a dental and shaving kit. When requested, I was told to go down to the front desk and collect it myself. I was very surprised with this attitude! Like I said at the start, my experience at Holiday Inn's in Asia has been very different and this hotel came across as a strictly budget hotel or rather a B&amp;B and it was not even a Holiday Inn "Express"!!For food, there was only one restaurant in the hotel, with a very limited menu for all meals. Again it is not 24 hours, moreover, it is even closed during afternoon hours after 2pm I think! The food was strictly "okay", the service lack luster. Most of the time, there were no servers in sight and often seen chatting with each other and even snacking at the tables in the restaurant while other guests were dining. In other words, the service was not attentive and could be much better. The food was priced as per the hotel class so no complaints there.The saving grace, I would say, was the friendliness of the staff and their willingness to help. Otherwise, this place turned out to be something that I never expected out of the "Holiday Inn" brand. Maybe its a "budget" brand in North America. I do not think I will choose to stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r205141610-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205141610</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel and great staff.</t>
+  </si>
+  <si>
+    <t>Over the last 6 months I have spent over 50 nights at this hotel as it is close to where I was working.I found it to be very clean ,well maintained and serviced.The bar was typical hotel/ sports bar but much improved by the friendliness of the staff. Eating anywhere on a regular basis means the menu becomes a bit boring , but this was due to frequency, not quality.Excellent breakfast buffet and nice lunch choices.What made this hotel special was the quality and attitude of the staff.I mention Lauren in Reception and Jose in the Bar for special note.A well looked after 3 star a hotel which I reccomend without hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>Over the last 6 months I have spent over 50 nights at this hotel as it is close to where I was working.I found it to be very clean ,well maintained and serviced.The bar was typical hotel/ sports bar but much improved by the friendliness of the staff. Eating anywhere on a regular basis means the menu becomes a bit boring , but this was due to frequency, not quality.Excellent breakfast buffet and nice lunch choices.What made this hotel special was the quality and attitude of the staff.I mention Lauren in Reception and Jose in the Bar for special note.A well looked after 3 star a hotel which I reccomend without hesitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r177258599-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177258599</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>GOOD OLD TIME FAMILY PLACE</t>
+  </si>
+  <si>
+    <t>I have not only stayed at this Huston; Holiday Inn but I LOVE THIS chain to stay at; as you arealways guaranteed a excellent room that is clean.  They always have Ice buckets and I can bring my own Wine or Beer and enjoy a drink when Iget back to my temporally Home of a room.  Their bedding is always clean and neat. Their are NO bugs here! The room is spotlessly clean!   My family; especially my Dad; James always took us their as kids as it welcomed families andkids that also were looking for a Swimming pool.  YES I would always go to a Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Dave G, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded November 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2013</t>
+  </si>
+  <si>
+    <t>I have not only stayed at this Huston; Holiday Inn but I LOVE THIS chain to stay at; as you arealways guaranteed a excellent room that is clean.  They always have Ice buckets and I can bring my own Wine or Beer and enjoy a drink when Iget back to my temporally Home of a room.  Their bedding is always clean and neat. Their are NO bugs here! The room is spotlessly clean!   My family; especially my Dad; James always took us their as kids as it welcomed families andkids that also were looking for a Swimming pool.  YES I would always go to a Holiday Inn.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r174115237-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1264,12 +1964,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>Dave G, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded November 4, 2013</t>
-  </si>
-  <si>
-    <t>Responded November 4, 2013</t>
-  </si>
-  <si>
     <t>The hotel is nice and I have no complaints - typical Holiday Inn. However; the restaurant has staff issues. Although breakfast is advertised as available starting at 6 AM, one morning my 6AM breakfast doorknob menu was not filled and I had to call for the status and finally received it at 6:45AM. I was told no one showed up to work. I asked for egg beaters and received whole eggs. Since I didn't receive another doorknob menu, the next morning, I called at 3 til 6 to place my order and was told I had to wait until 6! I asked the front desk, housekeeper and restaurant, more than once, for a new doorknob menu and never received one. The servers all had attitudes that seemed to be "I hate my job" or "you're inconveniencing me". The food was good though.More</t>
   </si>
   <si>
@@ -1298,6 +1992,57 @@
   </si>
   <si>
     <t>I have stayed several times at this hotel.It is new, the rooms are spacious, well funished, quiet and clean.The hotel is lose to Highway 10 which gives quick access anywhere in Houston.Pool and sport room are pretty small though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r164424857-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164424857</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Not so nice</t>
+  </si>
+  <si>
+    <t>I stayed there 5 days in June 2013. This hotel seems to be pretty recent and my room was nice and modern as well as the bathroom. That's all the positive points folks! The location is poor, this hotel being surrounded by highways and big roads. The staff is barely pleasant and welcoming (I don't say some of them but all of them!). the quality of the breakfast is extremely low, the fitness room is almost inexistent.First stay, probbaly the last one too.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded June 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2013</t>
+  </si>
+  <si>
+    <t>I stayed there 5 days in June 2013. This hotel seems to be pretty recent and my room was nice and modern as well as the bathroom. That's all the positive points folks! The location is poor, this hotel being surrounded by highways and big roads. The staff is barely pleasant and welcoming (I don't say some of them but all of them!). the quality of the breakfast is extremely low, the fitness room is almost inexistent.First stay, probbaly the last one too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r160763436-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160763436</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Great value for a great hotel.  Clean.  Spacious room and bathroom.  Couch.  Has everything.  Friendly staff.  Best Holiday Inn I've ever stayed in.  Location is good, but that doesn't matter because it takes twenty minutes to get anywhere in Houston.  You won't be disappointed!MoreShow less</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded May 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2013</t>
+  </si>
+  <si>
+    <t>Great value for a great hotel.  Clean.  Spacious room and bathroom.  Couch.  Has everything.  Friendly staff.  Best Holiday Inn I've ever stayed in.  Location is good, but that doesn't matter because it takes twenty minutes to get anywhere in Houston.  You won't be disappointed!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r159924630-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
@@ -1375,6 +2120,57 @@
   </si>
   <si>
     <t>First off, we booked our room thru booking.com &amp; was offered a descent rate which was suppose to include a breakfast. However, the 1st morning we were told by the waiter that there is no free breakfast w/ our stay. I went to discuss this w/ the front desk clerk but no one was there, only a note stating they would be "return shortly".  I waited a good while &amp; no one came but 2 other hotel personnel walked by &amp; saw me standing there &amp; never offered any assistance.  I went back to the restaurant when no one came to the front desk &amp; spoke to the waiter again. He stated that" the website states that just to lure people to stay".  I couldn't believe he said that to us.  I'm not sure if he was new or just not trained but we had to initially wait as others were ahead of us to be seated.  Their was only one person working in the restaurant.  One time, he shouted at a customer regarding their order from across the restaurant.  He was very friendly but just needs a little training and professionalism.  Also, we were suppose to get hash browns with our plate and it wasn't served w/ it.  While we were in the restaurant, 6 others were also told there was no breakfast w/ their stay.  Our receipt specificly stated a breakfast was included.  During the night, the neighboring...First off, we booked our room thru booking.com &amp; was offered a descent rate which was suppose to include a breakfast. However, the 1st morning we were told by the waiter that there is no free breakfast w/ our stay. I went to discuss this w/ the front desk clerk but no one was there, only a note stating they would be "return shortly".  I waited a good while &amp; no one came but 2 other hotel personnel walked by &amp; saw me standing there &amp; never offered any assistance.  I went back to the restaurant when no one came to the front desk &amp; spoke to the waiter again. He stated that" the website states that just to lure people to stay".  I couldn't believe he said that to us.  I'm not sure if he was new or just not trained but we had to initially wait as others were ahead of us to be seated.  Their was only one person working in the restaurant.  One time, he shouted at a customer regarding their order from across the restaurant.  He was very friendly but just needs a little training and professionalism.  Also, we were suppose to get hash browns with our plate and it wasn't served w/ it.  While we were in the restaurant, 6 others were also told there was no breakfast w/ their stay.  Our receipt specificly stated a breakfast was included.  During the night, the neighboring guest very very loud and we could evening hear someone snoring.  The room was clean, nice, roomy and the location was very close to where we need to be for our trip.  I did notify booking.com about our stay but got a response stating " they contacted the hotel and the hotel stated we did have breakfast and it was free".  I'm not sure if they really called the hotel or not but if they really had, the computer would have shown that we PAID for our food that morning!  I even sent them a copy of our receipt which clearly shows we PAID but got no respone.  This was very disappointing to me!  I specifically booked this hotel because I wanted one that came with a breakfast and again it looked nice from the photos &amp; was close to our destination.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r153595605-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153595605</t>
+  </si>
+  <si>
+    <t>03/03/2013</t>
+  </si>
+  <si>
+    <t>Wonderful Holiday Inn</t>
+  </si>
+  <si>
+    <t>I have stayed in many Holiday Inns, and this one by far is one of the best ones.  The hotel looks very new.  The room decor was nice and the bed was soft.Each time I went downstairs, the staff greeted me.  The next time I return to Houston, I will make it a point to return to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded March 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed in many Holiday Inns, and this one by far is one of the best ones.  The hotel looks very new.  The room decor was nice and the bed was soft.Each time I went downstairs, the staff greeted me.  The next time I return to Houston, I will make it a point to return to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r151520596-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151520596</t>
+  </si>
+  <si>
+    <t>02/06/2013</t>
+  </si>
+  <si>
+    <t>Nice, new Holiday Inn but not addressing problems</t>
+  </si>
+  <si>
+    <t>This is a very nice, new Holiday Inn in the Westchase District.  Westchase is booming right now so it's hard to find a room but I would look elsewhere because of the oft-reported Internet problems. Once they get those problems fixed, it's a good place to stay.When I checked in I was told they were working on the Internet and was offered a cable!  Come on guys, join the 21st century... not a single device I own can use a cable connection to the Internet - they all assume a hotel (especially one that appears brand new) would have wireless. I was pleasantly surprised when my Mac connected to the HI wireless but it didn't last long; I was soon disconnected and couldn't get back on.I am not sure what these "Internet doesn't work" reviews do for others but, for me, this is not a place I would stay again.  As a business traveller, I depend on a dependable connection.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded February 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2013</t>
+  </si>
+  <si>
+    <t>This is a very nice, new Holiday Inn in the Westchase District.  Westchase is booming right now so it's hard to find a room but I would look elsewhere because of the oft-reported Internet problems. Once they get those problems fixed, it's a good place to stay.When I checked in I was told they were working on the Internet and was offered a cable!  Come on guys, join the 21st century... not a single device I own can use a cable connection to the Internet - they all assume a hotel (especially one that appears brand new) would have wireless. I was pleasantly surprised when my Mac connected to the HI wireless but it didn't last long; I was soon disconnected and couldn't get back on.I am not sure what these "Internet doesn't work" reviews do for others but, for me, this is not a place I would stay again.  As a business traveller, I depend on a dependable connection.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r151321200-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
@@ -1447,9 +2243,6 @@
     <t>I was in a business trip and we choose this hotel because is close to the office (sales office).For my surprise the Hotel is very good, clean with a excelent bed and bathroom.The only thing not so good is the deliveries I was waiting from Amazon.com. I missed one delivery - due to Amazon - but the concierge was not excited about checking if something arrived for me.Anyways it was October, Houston was hot, wonderful weather and I could easily move to the Memorial Mall and Fry's and Town &amp; Country Center.We had very good dinning during three days.I would repeat my staying there.MoreShow less</t>
   </si>
   <si>
-    <t>October 2012</t>
-  </si>
-  <si>
     <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded October 31, 2012</t>
   </si>
   <si>
@@ -1459,6 +2252,60 @@
     <t>I was in a business trip and we choose this hotel because is close to the office (sales office).For my surprise the Hotel is very good, clean with a excelent bed and bathroom.The only thing not so good is the deliveries I was waiting from Amazon.com. I missed one delivery - due to Amazon - but the concierge was not excited about checking if something arrived for me.Anyways it was October, Houston was hot, wonderful weather and I could easily move to the Memorial Mall and Fry's and Town &amp; Country Center.We had very good dinning during three days.I would repeat my staying there.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r142373117-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142373117</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>A good business hotel</t>
+  </si>
+  <si>
+    <t>Fisrt I'll cut to the chase. This is a very good business hotel for a few nights stay and I would recommend it.
+We moved our company office to the Westchase area and I visted for the first time last week and was based in this hotel. The staff were friendly and welcoming and as a Priority Club member I recieved a bag of goodies at check in including a bottle of water, wine and snacks. The hotel is nicely appointed with modern feel (almost like a boutique hotel in parts) and kept is clean and tidy at all times. The rooms were large and included all the amenities you needed including coffee maker, microwave, fridge, wireless internet etc. and the beds are so comfortable with a choice of pillows.
+A couple of downsides for me were the food quality in the Sports Bar &amp; Grill. The breakfast and evening menu's offered a reasonbable choice but the food quality was a bit hit and miss. According to the staff I spoke to this depends on which chef is on duty. This didnt really impact me because we ate out most nights anyway. The second is the gym and pool facility. The pool is too small to swim and the gym had only the very basic equipment. 
+I stayed over the weekend because fo my travel arrangements and the hotel was dead with only a handful of guests. Aparently their weekend...Fisrt I'll cut to the chase. This is a very good business hotel for a few nights stay and I would recommend it.We moved our company office to the Westchase area and I visted for the first time last week and was based in this hotel. The staff were friendly and welcoming and as a Priority Club member I recieved a bag of goodies at check in including a bottle of water, wine and snacks. The hotel is nicely appointed with modern feel (almost like a boutique hotel in parts) and kept is clean and tidy at all times. The rooms were large and included all the amenities you needed including coffee maker, microwave, fridge, wireless internet etc. and the beds are so comfortable with a choice of pillows.A couple of downsides for me were the food quality in the Sports Bar &amp; Grill. The breakfast and evening menu's offered a reasonbable choice but the food quality was a bit hit and miss. According to the staff I spoke to this depends on which chef is on duty. This didnt really impact me because we ate out most nights anyway. The second is the gym and pool facility. The pool is too small to swim and the gym had only the very basic equipment. I stayed over the weekend because fo my travel arrangements and the hotel was dead with only a handful of guests. Aparently their weekend rates are high in comparison to other local hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded October 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2012</t>
+  </si>
+  <si>
+    <t>Fisrt I'll cut to the chase. This is a very good business hotel for a few nights stay and I would recommend it.
+We moved our company office to the Westchase area and I visted for the first time last week and was based in this hotel. The staff were friendly and welcoming and as a Priority Club member I recieved a bag of goodies at check in including a bottle of water, wine and snacks. The hotel is nicely appointed with modern feel (almost like a boutique hotel in parts) and kept is clean and tidy at all times. The rooms were large and included all the amenities you needed including coffee maker, microwave, fridge, wireless internet etc. and the beds are so comfortable with a choice of pillows.
+A couple of downsides for me were the food quality in the Sports Bar &amp; Grill. The breakfast and evening menu's offered a reasonbable choice but the food quality was a bit hit and miss. According to the staff I spoke to this depends on which chef is on duty. This didnt really impact me because we ate out most nights anyway. The second is the gym and pool facility. The pool is too small to swim and the gym had only the very basic equipment. 
+I stayed over the weekend because fo my travel arrangements and the hotel was dead with only a handful of guests. Aparently their weekend...Fisrt I'll cut to the chase. This is a very good business hotel for a few nights stay and I would recommend it.We moved our company office to the Westchase area and I visted for the first time last week and was based in this hotel. The staff were friendly and welcoming and as a Priority Club member I recieved a bag of goodies at check in including a bottle of water, wine and snacks. The hotel is nicely appointed with modern feel (almost like a boutique hotel in parts) and kept is clean and tidy at all times. The rooms were large and included all the amenities you needed including coffee maker, microwave, fridge, wireless internet etc. and the beds are so comfortable with a choice of pillows.A couple of downsides for me were the food quality in the Sports Bar &amp; Grill. The breakfast and evening menu's offered a reasonbable choice but the food quality was a bit hit and miss. According to the staff I spoke to this depends on which chef is on duty. This didnt really impact me because we ate out most nights anyway. The second is the gym and pool facility. The pool is too small to swim and the gym had only the very basic equipment. I stayed over the weekend because fo my travel arrangements and the hotel was dead with only a handful of guests. Aparently their weekend rates are high in comparison to other local hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r139852207-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139852207</t>
+  </si>
+  <si>
+    <t>09/09/2012</t>
+  </si>
+  <si>
+    <t>"Late entry review"My first visit to Texas: I stayed April 6-9, 2012, while visiting a friend. This is a beautiful hotel.Friendly staff. Simply love Holiday Inn's "New look", the most comfy bed! Everything was nice clean! All appliances worked great. No complaints.I liked that they had a Cheddar's right next door. My first time at a Cheddar's as well. I would stay here again, on my next visit. I had experienced a great stay In Holiday Inn Jacksonville, FL March 2012. Loved it there too.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Kerri A, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded September 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2012</t>
+  </si>
+  <si>
+    <t>"Late entry review"My first visit to Texas: I stayed April 6-9, 2012, while visiting a friend. This is a beautiful hotel.Friendly staff. Simply love Holiday Inn's "New look", the most comfy bed! Everything was nice clean! All appliances worked great. No complaints.I liked that they had a Cheddar's right next door. My first time at a Cheddar's as well. I would stay here again, on my next visit. I had experienced a great stay In Holiday Inn Jacksonville, FL March 2012. Loved it there too.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r135993218-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1528,9 +2375,6 @@
     <t>Stayed there on business April 25-28, 2012. Cheddars next door which is convienient. One of the nicest and upscale Holiday-Inns I've stayed at. The beds were great! The shuttle driver, Hazel drove us around the Westheimer area to find places to eat. I would stay there again.MoreShow less</t>
   </si>
   <si>
-    <t>April 2012</t>
-  </si>
-  <si>
     <t>Charlie M, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded May 16, 2012</t>
   </si>
   <si>
@@ -1540,6 +2384,51 @@
     <t>Stayed there on business April 25-28, 2012. Cheddars next door which is convienient. One of the nicest and upscale Holiday-Inns I've stayed at. The beds were great! The shuttle driver, Hazel drove us around the Westheimer area to find places to eat. I would stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r129855277-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129855277</t>
+  </si>
+  <si>
+    <t>05/13/2012</t>
+  </si>
+  <si>
+    <t>Everything is perfect!</t>
+  </si>
+  <si>
+    <t>Hotel is clean, new. It smells great everyday when I get back to my room! The front desk staff are extremely friendly and courtsey. I also find the restaurant staff are equally passionate about their job, making my dining experience there a pleasant one. Needless to say, its location is very conveniently close to Sam Houston PWY and Westpark Toll road. Highliy recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Hotel is clean, new. It smells great everyday when I get back to my room! The front desk staff are extremely friendly and courtsey. I also find the restaurant staff are equally passionate about their job, making my dining experience there a pleasant one. Needless to say, its location is very conveniently close to Sam Houston PWY and Westpark Toll road. Highliy recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r129588645-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129588645</t>
+  </si>
+  <si>
+    <t>05/08/2012</t>
+  </si>
+  <si>
+    <t>Impressive</t>
+  </si>
+  <si>
+    <t>I had business in Sugar Land, TX but everything nearby was booked.  So, I utilized my priority rewards points and booked this hotel (10 minutes away) for two nights.  It's about a year old so everthing was like new.  I would consider this hotel an upscale Holiday Inn when comparing to others.  My wife and five year old son accompanied me.  They were also impressed.  The beds were comfortable and pillows just right.  The room was exceptionally clean and quiet.  It still smelled new.  The wall mounted flat screen was clear and variety was good.  Free internet worked very well.  The room also has a mini fridge, microwave and coffee maker.  All were new appliances and worked very well. My son and I visited the sports bar within the hotel and we were quite pleased with decor and service.  Everyone was exceptionally nice and kid friendly.  Food and beverage prices were not excessive.  I can't comment on the price of the hotel since I utilized my priority reward points but the listed price was expensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Charlie M, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded May 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2012</t>
+  </si>
+  <si>
+    <t>I had business in Sugar Land, TX but everything nearby was booked.  So, I utilized my priority rewards points and booked this hotel (10 minutes away) for two nights.  It's about a year old so everthing was like new.  I would consider this hotel an upscale Holiday Inn when comparing to others.  My wife and five year old son accompanied me.  They were also impressed.  The beds were comfortable and pillows just right.  The room was exceptionally clean and quiet.  It still smelled new.  The wall mounted flat screen was clear and variety was good.  Free internet worked very well.  The room also has a mini fridge, microwave and coffee maker.  All were new appliances and worked very well. My son and I visited the sports bar within the hotel and we were quite pleased with decor and service.  Everyone was exceptionally nice and kid friendly.  Food and beverage prices were not excessive.  I can't comment on the price of the hotel since I utilized my priority reward points but the listed price was expensive.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r127785387-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1615,6 +2504,65 @@
     <t>Stayed here on two occasions so far, Oct last year and Feb this year.  Both visits were very comfortable.  The check in staff are amongst the freindliest that I have ever experienced.  The gym is small but fine.  On my last visit I arrived on Sunday evening and ate in the Sports Bar.  The food was good, had the breaded catfish and fries, and the service prompt.  Used the complimentary drinks voucher, that I had been given at check in for a very acceptable Samual Adams.  The service at breakfast on both mornings was a little slow, but not unacceptably so.  Rooms very comfortable, with no noise from the freeway which is quite close.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r125692100-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125692100</t>
+  </si>
+  <si>
+    <t>03/06/2012</t>
+  </si>
+  <si>
+    <t>Exceling (new) hotel, recommend</t>
+  </si>
+  <si>
+    <t>As a European I reserve "excellent" grade for events that go beyond expectations or limits. Therefore I rate only "very good". A American would call experience as an excellent.
+Hotel is located 33 miles from Houston International (IAH) airport, so I guess you have business at this Westchase area, if you are considering this hotel. Neighborhood is industrial/office like the closest blocks (3 directions) or highway (1). This of course made morning running not so fun, as I prefer outside, real life neighborhood learning to inside running machine.
+Rooms, like hotel, are new, even though there is not anymore this "new car smell", but nothing is worn out. Cleaning is good, though slow. One day I visited room at 3pm to change for dinner and it had not been cleaned (was later w/o rqst). Check-in is from 3pm onwards. Beds were good with options for pillows (soft/hard). In bathroom there were amenities like shampoo &amp; conditioner. I'm not sure if one bottle should have been moisturizer, now I had one shampoo and two conditioner bottles. Toilet paper location is design flaw as it is extremely far from the seat.
+Hotel premises included Sporting News Grill, which also was breakfast room. Breakfast was not a gourmet experience, but very good value for money. There are option between buffet and menu. Buffet has some bacon, eggs, potato wedges, sausages and oatmeal as warm component.  Fresh fruits (salad) was nice touch. Packed Danish...As a European I reserve "excellent" grade for events that go beyond expectations or limits. Therefore I rate only "very good". A American would call experience as an excellent.Hotel is located 33 miles from Houston International (IAH) airport, so I guess you have business at this Westchase area, if you are considering this hotel. Neighborhood is industrial/office like the closest blocks (3 directions) or highway (1). This of course made morning running not so fun, as I prefer outside, real life neighborhood learning to inside running machine.Rooms, like hotel, are new, even though there is not anymore this "new car smell", but nothing is worn out. Cleaning is good, though slow. One day I visited room at 3pm to change for dinner and it had not been cleaned (was later w/o rqst). Check-in is from 3pm onwards. Beds were good with options for pillows (soft/hard). In bathroom there were amenities like shampoo &amp; conditioner. I'm not sure if one bottle should have been moisturizer, now I had one shampoo and two conditioner bottles. Toilet paper location is design flaw as it is extremely far from the seat.Hotel premises included Sporting News Grill, which also was breakfast room. Breakfast was not a gourmet experience, but very good value for money. There are option between buffet and menu. Buffet has some bacon, eggs, potato wedges, sausages and oatmeal as warm component.  Fresh fruits (salad) was nice touch. Packed Danish was a disappointing, orange juice was excellent. Breakfast buffet takes you long. Atmosphere and service were both very good. At evening bar/grill was quite empty, probably same lot Cheddar's takes some clientale.WiFi was strong at entire hotel area, which is an unexceptional experience, giving a strong + for the hotel. Hotel also has a pool and a gym, which neither I tested. Parking is free.Service from employees were excellent, real dedicated team there.As a summary, I can really recommend this hotel for Houston area. Car is essential, GPS is highly recommendable.MoreShow less</t>
+  </si>
+  <si>
+    <t>charliemadden, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded March 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2012</t>
+  </si>
+  <si>
+    <t>As a European I reserve "excellent" grade for events that go beyond expectations or limits. Therefore I rate only "very good". A American would call experience as an excellent.
+Hotel is located 33 miles from Houston International (IAH) airport, so I guess you have business at this Westchase area, if you are considering this hotel. Neighborhood is industrial/office like the closest blocks (3 directions) or highway (1). This of course made morning running not so fun, as I prefer outside, real life neighborhood learning to inside running machine.
+Rooms, like hotel, are new, even though there is not anymore this "new car smell", but nothing is worn out. Cleaning is good, though slow. One day I visited room at 3pm to change for dinner and it had not been cleaned (was later w/o rqst). Check-in is from 3pm onwards. Beds were good with options for pillows (soft/hard). In bathroom there were amenities like shampoo &amp; conditioner. I'm not sure if one bottle should have been moisturizer, now I had one shampoo and two conditioner bottles. Toilet paper location is design flaw as it is extremely far from the seat.
+Hotel premises included Sporting News Grill, which also was breakfast room. Breakfast was not a gourmet experience, but very good value for money. There are option between buffet and menu. Buffet has some bacon, eggs, potato wedges, sausages and oatmeal as warm component.  Fresh fruits (salad) was nice touch. Packed Danish...As a European I reserve "excellent" grade for events that go beyond expectations or limits. Therefore I rate only "very good". A American would call experience as an excellent.Hotel is located 33 miles from Houston International (IAH) airport, so I guess you have business at this Westchase area, if you are considering this hotel. Neighborhood is industrial/office like the closest blocks (3 directions) or highway (1). This of course made morning running not so fun, as I prefer outside, real life neighborhood learning to inside running machine.Rooms, like hotel, are new, even though there is not anymore this "new car smell", but nothing is worn out. Cleaning is good, though slow. One day I visited room at 3pm to change for dinner and it had not been cleaned (was later w/o rqst). Check-in is from 3pm onwards. Beds were good with options for pillows (soft/hard). In bathroom there were amenities like shampoo &amp; conditioner. I'm not sure if one bottle should have been moisturizer, now I had one shampoo and two conditioner bottles. Toilet paper location is design flaw as it is extremely far from the seat.Hotel premises included Sporting News Grill, which also was breakfast room. Breakfast was not a gourmet experience, but very good value for money. There are option between buffet and menu. Buffet has some bacon, eggs, potato wedges, sausages and oatmeal as warm component.  Fresh fruits (salad) was nice touch. Packed Danish was a disappointing, orange juice was excellent. Breakfast buffet takes you long. Atmosphere and service were both very good. At evening bar/grill was quite empty, probably same lot Cheddar's takes some clientale.WiFi was strong at entire hotel area, which is an unexceptional experience, giving a strong + for the hotel. Hotel also has a pool and a gym, which neither I tested. Parking is free.Service from employees were excellent, real dedicated team there.As a summary, I can really recommend this hotel for Houston area. Car is essential, GPS is highly recommendable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r122985944-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122985944</t>
+  </si>
+  <si>
+    <t>01/12/2012</t>
+  </si>
+  <si>
+    <t>Excellent Service &amp; Presentation</t>
+  </si>
+  <si>
+    <t>Stayed at the Holiday Inn Houston Westchase for  6 nights in early January for business.  The hotel is brand new, so very clean, bright and to the new brand standards.  They have a single restaurant off the main lobby (The Sporting News Grill) which I only used for breakfast (it was fine and reasonably-priced).  The pool is nice and there is a great southern-exposure patio off the pool area with chairs and loungers if you need to soak in some sun (it is a bit noisy from the roadways that are near, but once my headphones were in I didn't notice the cars any more).  The fitness facilities are new and the cardio machines each have their own TV screens.
+My room was clean and well-appointed.  Nice desk area, king size bed, flat-screen LCD TV with 50+ channels.  There was a nice lounger with a side table I could use to eat a meal or do work while watching TV as well.  The bathroom is nice, but a couple of comments: (1) there was only a large stand-up shower provided (no bathtub).  I'm used to this in Europe for any non-suite in a new hotel, but it's a little odd to see in N.America, especially the USA.  If you need a tub - be sure to clarify with the front desk before you get your room assignment.  This certainly wasn't a deal-breaker for me, but it might be for some....Stayed at the Holiday Inn Houston Westchase for  6 nights in early January for business.  The hotel is brand new, so very clean, bright and to the new brand standards.  They have a single restaurant off the main lobby (The Sporting News Grill) which I only used for breakfast (it was fine and reasonably-priced).  The pool is nice and there is a great southern-exposure patio off the pool area with chairs and loungers if you need to soak in some sun (it is a bit noisy from the roadways that are near, but once my headphones were in I didn't notice the cars any more).  The fitness facilities are new and the cardio machines each have their own TV screens.My room was clean and well-appointed.  Nice desk area, king size bed, flat-screen LCD TV with 50+ channels.  There was a nice lounger with a side table I could use to eat a meal or do work while watching TV as well.  The bathroom is nice, but a couple of comments: (1) there was only a large stand-up shower provided (no bathtub).  I'm used to this in Europe for any non-suite in a new hotel, but it's a little odd to see in N.America, especially the USA.  If you need a tub - be sure to clarify with the front desk before you get your room assignment.  This certainly wasn't a deal-breaker for me, but it might be for some.  (2) There was no soap dish for the vanity/sink area in the bathroom.  Every day I opened a new soap package and used the wrapper as a "dish", only to have housekeeping take it away.  If there isn't going to be a soap dish, then provide some sort of soap pump so that I can wash my hands properly without have to waste a whole bar of soap every day.Overall, the rooms were quiet.  But the A/C system does have a loud click when it turns on, which may disturb some people, I alternated between keeping the fan on the whole night, and putting it on Auto (where it would turn on and off).  I found it was too loud to have on all night, and the on/off noises only bothered me on the weekend when I was trying to sleep-in an extra hour or two.  I would've like to have an extra blanket provided in the room, I know Houston is hot, but it did get cool at night, and if the A/C kicked in (for humidity reduction), I did need an extra blanket.Overall, a very good hotel, keep up the good work.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>charliemadden, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded January 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2012</t>
+  </si>
+  <si>
+    <t>Stayed at the Holiday Inn Houston Westchase for  6 nights in early January for business.  The hotel is brand new, so very clean, bright and to the new brand standards.  They have a single restaurant off the main lobby (The Sporting News Grill) which I only used for breakfast (it was fine and reasonably-priced).  The pool is nice and there is a great southern-exposure patio off the pool area with chairs and loungers if you need to soak in some sun (it is a bit noisy from the roadways that are near, but once my headphones were in I didn't notice the cars any more).  The fitness facilities are new and the cardio machines each have their own TV screens.
+My room was clean and well-appointed.  Nice desk area, king size bed, flat-screen LCD TV with 50+ channels.  There was a nice lounger with a side table I could use to eat a meal or do work while watching TV as well.  The bathroom is nice, but a couple of comments: (1) there was only a large stand-up shower provided (no bathtub).  I'm used to this in Europe for any non-suite in a new hotel, but it's a little odd to see in N.America, especially the USA.  If you need a tub - be sure to clarify with the front desk before you get your room assignment.  This certainly wasn't a deal-breaker for me, but it might be for some....Stayed at the Holiday Inn Houston Westchase for  6 nights in early January for business.  The hotel is brand new, so very clean, bright and to the new brand standards.  They have a single restaurant off the main lobby (The Sporting News Grill) which I only used for breakfast (it was fine and reasonably-priced).  The pool is nice and there is a great southern-exposure patio off the pool area with chairs and loungers if you need to soak in some sun (it is a bit noisy from the roadways that are near, but once my headphones were in I didn't notice the cars any more).  The fitness facilities are new and the cardio machines each have their own TV screens.My room was clean and well-appointed.  Nice desk area, king size bed, flat-screen LCD TV with 50+ channels.  There was a nice lounger with a side table I could use to eat a meal or do work while watching TV as well.  The bathroom is nice, but a couple of comments: (1) there was only a large stand-up shower provided (no bathtub).  I'm used to this in Europe for any non-suite in a new hotel, but it's a little odd to see in N.America, especially the USA.  If you need a tub - be sure to clarify with the front desk before you get your room assignment.  This certainly wasn't a deal-breaker for me, but it might be for some.  (2) There was no soap dish for the vanity/sink area in the bathroom.  Every day I opened a new soap package and used the wrapper as a "dish", only to have housekeeping take it away.  If there isn't going to be a soap dish, then provide some sort of soap pump so that I can wash my hands properly without have to waste a whole bar of soap every day.Overall, the rooms were quiet.  But the A/C system does have a loud click when it turns on, which may disturb some people, I alternated between keeping the fan on the whole night, and putting it on Auto (where it would turn on and off).  I found it was too loud to have on all night, and the on/off noises only bothered me on the weekend when I was trying to sleep-in an extra hour or two.  I would've like to have an extra blanket provided in the room, I know Houston is hot, but it did get cool at night, and if the A/C kicked in (for humidity reduction), I did need an extra blanket.Overall, a very good hotel, keep up the good work.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r121519228-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1690,24 +2638,57 @@
     <t>This place is new, so no complaints with the rooms, etc.The service from the hotel staff was outstanding! Very enjoyable stay....More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r120123079-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120123079</t>
+  </si>
+  <si>
+    <t>11/03/2011</t>
+  </si>
+  <si>
+    <t>Excellent Place To Stay...</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is aesthetically very pleasing with a beautiful lobby and well done rooms that are quite comfortable. However, the main reason that I stay at this hotel versus others in the area is the staff. They offer superior service with a smile and seem to genuinely enjoy their jobs.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is aesthetically very pleasing with a beautiful lobby and well done rooms that are quite comfortable. However, the main reason that I stay at this hotel versus others in the area is the staff. They offer superior service with a smile and seem to genuinely enjoy their jobs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r119966949-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119966949</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>New, nice - plan to stay next time in Houston for work</t>
+  </si>
+  <si>
+    <t>Looking for an alternative to pricey Hilton in Westchase and found this Holiday Inn -- Good value; nice and clean rooms; good size safe box to fit my PC in when I was out for the evening; bathroom is nice with good plumbing and nice shower head (sounds strange I know but you know what I mean if you've been in old hotels with old bathrooms); front desk staff very nice and efficient; good and well lit parking; good bed with both soft and hard pillows which are tagged so you can make your choice easily; got a choice of beverages and chips at check in; USA Today in the mornings; free internet with easy sign in - definitely will stay here on my next biz trip to Houston in the Westchase areaMoreShow less</t>
+  </si>
+  <si>
+    <t>Looking for an alternative to pricey Hilton in Westchase and found this Holiday Inn -- Good value; nice and clean rooms; good size safe box to fit my PC in when I was out for the evening; bathroom is nice with good plumbing and nice shower head (sounds strange I know but you know what I mean if you've been in old hotels with old bathrooms); front desk staff very nice and efficient; good and well lit parking; good bed with both soft and hard pillows which are tagged so you can make your choice easily; got a choice of beverages and chips at check in; USA Today in the mornings; free internet with easy sign in - definitely will stay here on my next biz trip to Houston in the Westchase areaMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r119938186-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
     <t>119938186</t>
   </si>
   <si>
-    <t>10/31/2011</t>
-  </si>
-  <si>
     <t>Very nice</t>
   </si>
   <si>
     <t>Conveniently situated on the west side of town, it is easy to get around (albeit on toll roads).  This is a fairly new hotel, and is very nicely done.  Spacious rooms with a desk and a sitting area, lovely bathroom, mini-fridge, free wi-fi (could use a bit stronger signal, tho).  There is a sports bar in the hotel that is particularly nice for the lone business traveler-lots of tv screens and pretty good food.MoreShow less</t>
   </si>
   <si>
-    <t>October 2011</t>
-  </si>
-  <si>
     <t>Conveniently situated on the west side of town, it is easy to get around (albeit on toll roads).  This is a fairly new hotel, and is very nicely done.  Spacious rooms with a desk and a sitting area, lovely bathroom, mini-fridge, free wi-fi (could use a bit stronger signal, tho).  There is a sports bar in the hotel that is particularly nice for the lone business traveler-lots of tv screens and pretty good food.More</t>
   </si>
   <si>
@@ -1757,6 +2738,45 @@
   </si>
   <si>
     <t>I stayed here for business over a couple of weeks in August.  The hotel looks to be very new. It’s right behind a Cheddar’s. The area is pretty nice, it’s near Chinatown (Sharpstown) where I was working. I have to say the front desk guy, David, was extremely friendly. I stay &gt;120 nights a year in hotels around the country and he was one of the most friendly I have ever encountered. It’s rare to find someone who seems genuinely interested in helping you out and goes out of his way to do it.The rooms were great. I’m PC Platinum and I was upgraded to a one-bedroom suite both weeks. I appreciate that. The rooms are very nice, all-new and very clean… what you would expect from a new property.  The suite has two large LCD Flat Screens, the internet was fast for hotel internet.  The bathroom was a good size.I would definitely stay here again. The people definitely make the difference in a city FULL of hotels. Thanks, again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r117335919-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117335919</t>
+  </si>
+  <si>
+    <t>08/27/2011</t>
+  </si>
+  <si>
+    <t>Review of the Sportingnews Grill inside the Hotel; the short : GREAT</t>
+  </si>
+  <si>
+    <t>We held our Live Fantasy Draft here and they could not have been more helpful!  They helped us set up tables, let us plug in to the TVs, use the hotel wireless, and always were quick when someone needed another drink. The whole place is very nice and the happy hour specials were great! They even had a free nacho bar set up to munch on between drinks. Everyone seemed to enjoy their food but I can only speak for the pizza I ordered, it was great! I was not expecting much and it was a great surprise how good it was, easily the best bar pizza I have ever had. As loud as we were the staff was always polite and helpful and it was the first time I have ever seen a bar get EVERYONEs tab closed out so quickly with no problems. We will definitely be coming back here!! If I had to say one thing negative about this place it is that they did not have Shiner Bock on draft.MoreShow less</t>
+  </si>
+  <si>
+    <t>charliemadden, General Manager at Holiday Inn Hotel-Houston Westchase, responded to this reviewResponded August 29, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2011</t>
+  </si>
+  <si>
+    <t>We held our Live Fantasy Draft here and they could not have been more helpful!  They helped us set up tables, let us plug in to the TVs, use the hotel wireless, and always were quick when someone needed another drink. The whole place is very nice and the happy hour specials were great! They even had a free nacho bar set up to munch on between drinks. Everyone seemed to enjoy their food but I can only speak for the pizza I ordered, it was great! I was not expecting much and it was a great surprise how good it was, easily the best bar pizza I have ever had. As loud as we were the staff was always polite and helpful and it was the first time I have ever seen a bar get EVERYONEs tab closed out so quickly with no problems. We will definitely be coming back here!! If I had to say one thing negative about this place it is that they did not have Shiner Bock on draft.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r117314744-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117314744</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>I'm from the Houston area and I stayed here one night because the A/C in my apartment was broken.  I booked the hotel room about 30 minutes before I checked in.Upon arrival, I was greeted nicely and offered something to drink.  I was also offered a wakeup call for the next morning.  I was given a free upgrade into a suite.  The room was very nice and clean.  The hotel was very quiet and I got a very good night's sleep.The price was very reasonable, compared to other hotels of equal quality in the Houston area.I have no complaints about this hotel, but I am from the Houston area, so I have different expectations from my hotel stay here.  For travelers, the drawback of this hotel would be it is not that close to anything else.  It is Houston, so you would have to drive anywhere you would want to go anyway, but as a frequent leisure traveler, I personally would prefer to have at least one attraction within a couple of miles.  I would recommend it for Business travelers, as there are lots of restaurants within a couple of miles (Chinatown, Westchase).MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm from the Houston area and I stayed here one night because the A/C in my apartment was broken.  I booked the hotel room about 30 minutes before I checked in.Upon arrival, I was greeted nicely and offered something to drink.  I was also offered a wakeup call for the next morning.  I was given a free upgrade into a suite.  The room was very nice and clean.  The hotel was very quiet and I got a very good night's sleep.The price was very reasonable, compared to other hotels of equal quality in the Houston area.I have no complaints about this hotel, but I am from the Houston area, so I have different expectations from my hotel stay here.  For travelers, the drawback of this hotel would be it is not that close to anything else.  It is Houston, so you would have to drive anywhere you would want to go anyway, but as a frequent leisure traveler, I personally would prefer to have at least one attraction within a couple of miles.  I would recommend it for Business travelers, as there are lots of restaurants within a couple of miles (Chinatown, Westchase).More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1866401-r116003156-Holiday_Inn_Hotel_Houston_Westchase-Houston_Texas.html</t>
@@ -2318,7 +3338,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2327,18 +3347,24 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2354,52 +3380,48 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -2415,54 +3437,48 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -2478,52 +3494,52 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>75</v>
-      </c>
-      <c r="X5" t="s">
-        <v>76</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -2539,52 +3555,54 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" t="s">
-        <v>84</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2600,34 +3618,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
         <v>86</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2638,10 +3656,14 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -2657,52 +3679,52 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>92</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>93</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>94</v>
       </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>97</v>
-      </c>
-      <c r="X8" t="s">
-        <v>98</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -2718,52 +3740,52 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>100</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>105</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
       </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -2779,34 +3801,34 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
         <v>106</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>107</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>108</v>
       </c>
-      <c r="K10" t="s">
-        <v>109</v>
-      </c>
-      <c r="L10" t="s">
-        <v>110</v>
-      </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2817,10 +3839,14 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -2836,56 +3862,44 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>113</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>114</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>115</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>116</v>
       </c>
-      <c r="L11" t="s">
-        <v>117</v>
-      </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
-      <c r="N11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O11" t="s">
-        <v>74</v>
-      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" t="s">
-        <v>120</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -2901,34 +3915,34 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
         <v>122</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>123</v>
-      </c>
-      <c r="J12" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s">
-        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2939,14 +3953,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>119</v>
-      </c>
-      <c r="X12" t="s">
-        <v>120</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
@@ -2962,52 +3972,58 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
         <v>129</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="X13" t="s">
         <v>130</v>
       </c>
-      <c r="J13" t="s">
+      <c r="Y13" t="s">
         <v>131</v>
-      </c>
-      <c r="K13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>127</v>
-      </c>
-      <c r="O13" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
-        <v>135</v>
-      </c>
-      <c r="X13" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -3023,7 +4039,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -3032,49 +4048,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>135</v>
-      </c>
-      <c r="X14" t="s">
-        <v>136</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
@@ -3090,58 +4096,52 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" t="s">
         <v>145</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="Y15" t="s">
         <v>146</v>
-      </c>
-      <c r="J15" t="s">
-        <v>147</v>
-      </c>
-      <c r="K15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L15" t="s">
-        <v>149</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>150</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
-      <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>4</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s">
-        <v>135</v>
-      </c>
-      <c r="X15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -3157,52 +4157,52 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>152</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" t="s">
-        <v>155</v>
-      </c>
-      <c r="L16" t="s">
-        <v>156</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>157</v>
-      </c>
       <c r="O16" t="s">
-        <v>112</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>158</v>
-      </c>
-      <c r="X16" t="s">
-        <v>159</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -3218,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3227,25 +4227,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3256,14 +4256,10 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>135</v>
-      </c>
-      <c r="X17" t="s">
-        <v>136</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
@@ -3279,7 +4275,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3288,47 +4284,47 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="X18" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
@@ -3344,7 +4340,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3353,43 +4349,47 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="X19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="Y19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
@@ -3405,7 +4405,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3414,22 +4414,22 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
@@ -3438,21 +4438,23 @@
       <c r="Q20" t="n">
         <v>5</v>
       </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>173</v>
+      </c>
+      <c r="X20" t="s">
+        <v>174</v>
+      </c>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
@@ -3468,7 +4470,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3477,47 +4479,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="X21" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
@@ -3533,7 +4531,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3542,47 +4540,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
+        <v>195</v>
+      </c>
+      <c r="X22" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y22" t="s">
         <v>197</v>
-      </c>
-      <c r="X22" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="23">
@@ -3598,7 +4592,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3607,41 +4601,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>204</v>
+      </c>
+      <c r="X23" t="s">
+        <v>205</v>
+      </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -3657,7 +4653,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3666,25 +4662,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3695,10 +4691,14 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>195</v>
+      </c>
+      <c r="X24" t="s">
+        <v>196</v>
+      </c>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
@@ -3714,58 +4714,58 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>215</v>
+      </c>
+      <c r="J25" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s">
+        <v>218</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
         <v>219</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>220</v>
-      </c>
-      <c r="J25" t="s">
-        <v>221</v>
-      </c>
-      <c r="K25" t="s">
-        <v>222</v>
-      </c>
-      <c r="L25" t="s">
-        <v>223</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>224</v>
-      </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="n">
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
         <v>3</v>
       </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="X25" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="Y25" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
@@ -3781,7 +4781,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3790,33 +4790,33 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -3826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="X26" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="Y26" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
@@ -3848,7 +4848,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3857,43 +4857,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>234</v>
+      </c>
+      <c r="X27" t="s">
+        <v>235</v>
+      </c>
       <c r="Y27" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
@@ -3909,7 +4909,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3918,41 +4918,49 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J28" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>242</v>
+      </c>
+      <c r="X28" t="s">
+        <v>243</v>
+      </c>
       <c r="Y28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
@@ -3968,38 +4976,38 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>246</v>
+      </c>
+      <c r="J29" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" t="s">
         <v>248</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>249</v>
       </c>
-      <c r="J29" t="s">
-        <v>250</v>
-      </c>
-      <c r="K29" t="s">
-        <v>251</v>
-      </c>
-      <c r="L29" t="s">
-        <v>252</v>
-      </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="O29" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
         <v>5</v>
@@ -4007,19 +5015,19 @@
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="X29" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Y29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
@@ -4035,58 +5043,52 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
         <v>257</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>258</v>
       </c>
-      <c r="J30" t="s">
-        <v>259</v>
-      </c>
-      <c r="K30" t="s">
-        <v>260</v>
-      </c>
-      <c r="L30" t="s">
-        <v>261</v>
-      </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
-        <v>253</v>
-      </c>
       <c r="O30" t="s">
-        <v>61</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="X30" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="Y30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
@@ -4102,48 +5104,56 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>261</v>
+      </c>
+      <c r="J31" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" t="s">
         <v>263</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>264</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
         <v>265</v>
       </c>
-      <c r="K31" t="s">
-        <v>266</v>
-      </c>
-      <c r="L31" t="s">
-        <v>267</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>268</v>
-      </c>
       <c r="O31" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>266</v>
+      </c>
+      <c r="X31" t="s">
+        <v>267</v>
+      </c>
       <c r="Y31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32">
@@ -4183,10 +5193,10 @@
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4197,10 +5207,14 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>274</v>
+      </c>
+      <c r="X32" t="s">
+        <v>275</v>
+      </c>
       <c r="Y32" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
@@ -4216,7 +5230,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4225,34 +5239,32 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J33" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -4261,13 +5273,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="X33" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
@@ -4283,7 +5295,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4292,43 +5304,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J34" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="O34" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y34" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35">
@@ -4344,7 +5360,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4353,47 +5369,45 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J35" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O35" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>299</v>
-      </c>
-      <c r="X35" t="s">
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
         <v>300</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="36">
@@ -4409,52 +5423,56 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
         <v>302</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>303</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>304</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>305</v>
       </c>
-      <c r="L36" t="s">
-        <v>306</v>
-      </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="X36" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Y36" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37">
@@ -4470,7 +5488,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4479,47 +5497,47 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J37" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q37" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="X37" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y37" t="s">
         <v>315</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="38">
@@ -4535,50 +5553,50 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>316</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
         <v>317</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>318</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>319</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>320</v>
       </c>
-      <c r="L38" t="s">
-        <v>321</v>
-      </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="O38" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>306</v>
+      </c>
+      <c r="X38" t="s">
+        <v>307</v>
+      </c>
       <c r="Y38" t="s">
         <v>321</v>
       </c>
@@ -4596,31 +5614,35 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>322</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
         <v>323</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>324</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>325</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>326</v>
       </c>
-      <c r="L39" t="s">
-        <v>327</v>
-      </c>
       <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>314</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
@@ -4630,10 +5652,14 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>327</v>
+      </c>
+      <c r="X39" t="s">
+        <v>328</v>
+      </c>
       <c r="Y39" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40">
@@ -4649,7 +5675,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4658,39 +5684,41 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J40" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K40" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L40" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="O40" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41">
@@ -4706,7 +5734,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4715,38 +5743,32 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K41" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>3</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
@@ -4790,33 +5812,37 @@
         <v>346</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>348</v>
+      </c>
+      <c r="X42" t="s">
+        <v>349</v>
+      </c>
       <c r="Y42" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43">
@@ -4832,52 +5858,52 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>351</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>352</v>
+      </c>
+      <c r="J43" t="s">
+        <v>353</v>
+      </c>
+      <c r="K43" t="s">
+        <v>354</v>
+      </c>
+      <c r="L43" t="s">
+        <v>355</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
         <v>347</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
-        <v>348</v>
-      </c>
-      <c r="J43" t="s">
-        <v>349</v>
-      </c>
-      <c r="K43" t="s">
-        <v>350</v>
-      </c>
-      <c r="L43" t="s">
-        <v>351</v>
-      </c>
-      <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>352</v>
-      </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>356</v>
+      </c>
+      <c r="X43" t="s">
+        <v>357</v>
+      </c>
       <c r="Y43" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44">
@@ -4893,7 +5919,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4902,49 +5928,43 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="J44" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K44" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="O44" t="s">
         <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="X44" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Y44" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45">
@@ -4960,7 +5980,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4969,43 +5989,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="J45" t="s">
+        <v>361</v>
+      </c>
+      <c r="K45" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
         <v>364</v>
       </c>
-      <c r="K45" t="s">
-        <v>365</v>
-      </c>
-      <c r="L45" t="s">
-        <v>366</v>
-      </c>
-      <c r="M45" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s">
-        <v>358</v>
-      </c>
       <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="X45" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Y45" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46">
@@ -5021,7 +6047,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5030,53 +6056,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="J46" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K46" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>375</v>
+        <v>226</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>376</v>
-      </c>
-      <c r="X46" t="s">
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
         <v>377</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="47">
@@ -5092,62 +6108,50 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
         <v>379</v>
       </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>380</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>381</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>382</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
         <v>383</v>
       </c>
-      <c r="M47" t="n">
-        <v>3</v>
-      </c>
-      <c r="N47" t="s">
-        <v>384</v>
-      </c>
       <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>3</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>385</v>
-      </c>
-      <c r="X47" t="s">
-        <v>386</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48">
@@ -5163,62 +6167,52 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>384</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>385</v>
+      </c>
+      <c r="J48" t="s">
+        <v>386</v>
+      </c>
+      <c r="K48" t="s">
+        <v>387</v>
+      </c>
+      <c r="L48" t="s">
         <v>388</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
-        <v>389</v>
-      </c>
-      <c r="J48" t="s">
-        <v>390</v>
-      </c>
-      <c r="K48" t="s">
-        <v>391</v>
-      </c>
-      <c r="L48" t="s">
-        <v>392</v>
-      </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="O48" t="s">
         <v>53</v>
       </c>
-      <c r="P48" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>394</v>
-      </c>
-      <c r="X48" t="s">
-        <v>395</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49">
@@ -5234,7 +6228,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5243,51 +6237,39 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="J49" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P49" t="s"/>
-      <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>3</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>403</v>
-      </c>
-      <c r="X49" t="s">
-        <v>404</v>
-      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50">
@@ -5303,7 +6285,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5312,34 +6294,34 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="J50" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="K50" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="L50" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
+      <c r="N50" t="s">
+        <v>399</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
         <v>5</v>
       </c>
       <c r="R50" t="n">
         <v>5</v>
       </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
         <v>5</v>
@@ -5348,13 +6330,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="X50" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="Y50" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51">
@@ -5370,7 +6352,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5379,37 +6361,33 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="J51" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="K51" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="O51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
       </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
@@ -5419,13 +6397,13 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="X51" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="Y51" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52">
@@ -5441,7 +6419,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5450,53 +6428,39 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="J52" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="K52" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="O52" t="s">
-        <v>112</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>2</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>428</v>
-      </c>
-      <c r="X52" t="s">
-        <v>429</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53">
@@ -5512,7 +6476,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5521,53 +6485,49 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="J53" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="K53" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="L53" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53" t="n">
+        <v>59</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
         <v>2</v>
       </c>
-      <c r="Q53" t="n">
-        <v>3</v>
-      </c>
-      <c r="R53" t="n">
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
         <v>2</v>
-      </c>
-      <c r="S53" t="n">
-        <v>3</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="X53" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="Y53" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54">
@@ -5583,7 +6543,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5592,49 +6552,45 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="J54" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="K54" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="L54" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
+      <c r="N54" t="s">
+        <v>428</v>
+      </c>
+      <c r="O54" t="s">
+        <v>73</v>
+      </c>
       <c r="P54" t="n">
         <v>5</v>
       </c>
       <c r="Q54" t="n">
         <v>5</v>
       </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>445</v>
-      </c>
-      <c r="X54" t="s">
-        <v>446</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55">
@@ -5650,7 +6606,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5659,53 +6615,39 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="J55" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="K55" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="L55" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
-      </c>
-      <c r="P55" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>3</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>454</v>
-      </c>
-      <c r="X55" t="s">
-        <v>455</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56">
@@ -5721,7 +6663,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5730,29 +6672,27 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="J56" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="K56" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="L56" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="O56" t="s">
         <v>53</v>
       </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
       <c r="R56" t="n">
         <v>5</v>
@@ -5768,13 +6708,13 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="X56" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="Y56" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57">
@@ -5790,7 +6730,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5799,53 +6739,43 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="J57" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="K57" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="L57" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="O57" t="s">
         <v>53</v>
       </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
-        <v>3</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="X57" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="Y57" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58">
@@ -5861,7 +6791,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5870,34 +6800,30 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="J58" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="K58" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="L58" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="O58" t="s">
         <v>53</v>
       </c>
-      <c r="P58" t="n">
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
         <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>5</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -5910,13 +6836,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="X58" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="Y58" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59">
@@ -5932,7 +6858,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5941,35 +6867,31 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="J59" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="K59" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="L59" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
       </c>
-      <c r="Q59" t="n">
-        <v>4</v>
-      </c>
-      <c r="R59" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
       <c r="S59" t="n">
         <v>5</v>
       </c>
@@ -5981,13 +6903,13 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="X59" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="Y59" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60">
@@ -6003,7 +6925,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6012,53 +6934,47 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="J60" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="K60" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="L60" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="O60" t="s">
-        <v>112</v>
-      </c>
-      <c r="P60" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>4</v>
-      </c>
-      <c r="R60" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
       <c r="S60" t="n">
         <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="X60" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="Y60" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61">
@@ -6074,7 +6990,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6083,53 +6999,43 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="J61" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="K61" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="L61" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
-      <c r="U61" t="n">
-        <v>4</v>
-      </c>
+      <c r="U61" t="s"/>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="X61" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="Y61" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62">
@@ -6145,7 +7051,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6154,53 +7060,47 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="J62" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="K62" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="L62" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
-      <c r="S62" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="X62" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="Y62" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63">
@@ -6216,7 +7116,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6225,53 +7125,49 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="J63" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="K63" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="L63" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
-      </c>
-      <c r="P63" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P63" t="s"/>
       <c r="Q63" t="n">
-        <v>5</v>
-      </c>
-      <c r="R63" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R63" t="s"/>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="X63" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="Y63" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64">
@@ -6287,7 +7183,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6296,49 +7192,43 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="J64" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="K64" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="L64" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
-      <c r="P64" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>5</v>
-      </c>
-      <c r="R64" t="n">
-        <v>4</v>
-      </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+      <c r="N64" t="s">
+        <v>488</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="X64" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="Y64" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65">
@@ -6354,7 +7244,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6363,38 +7253,32 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="J65" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="K65" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="L65" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
-      </c>
-      <c r="P65" t="n">
-        <v>4</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="P65" t="s"/>
       <c r="Q65" t="n">
         <v>5</v>
       </c>
-      <c r="R65" t="n">
-        <v>5</v>
-      </c>
-      <c r="S65" t="n">
-        <v>5</v>
-      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
         <v>5</v>
@@ -6402,14 +7286,10 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s">
-        <v>531</v>
-      </c>
-      <c r="X65" t="s">
-        <v>532</v>
-      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66">
@@ -6425,7 +7305,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6434,51 +7314,35 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="J66" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="K66" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="L66" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
-      <c r="N66" t="s">
-        <v>546</v>
-      </c>
-      <c r="O66" t="s">
-        <v>53</v>
-      </c>
-      <c r="P66" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>5</v>
-      </c>
-      <c r="R66" t="n">
-        <v>4</v>
-      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
       <c r="S66" t="s"/>
       <c r="T66" t="s"/>
-      <c r="U66" t="n">
-        <v>5</v>
-      </c>
+      <c r="U66" t="s"/>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s">
-        <v>547</v>
-      </c>
-      <c r="X66" t="s">
-        <v>548</v>
-      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67">
@@ -6494,7 +7358,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6503,45 +7367,39 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="J67" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="K67" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="L67" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
-      </c>
-      <c r="P67" t="n">
-        <v>4</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
       <c r="R67" t="s"/>
-      <c r="S67" t="n">
-        <v>4</v>
-      </c>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
-      <c r="U67" t="n">
-        <v>5</v>
-      </c>
+      <c r="U67" t="s"/>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
     </row>
     <row r="68">
@@ -6557,7 +7415,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6566,34 +7424,34 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="J68" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="K68" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="L68" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q68" t="s"/>
-      <c r="R68" t="s"/>
-      <c r="S68" t="n">
-        <v>5</v>
-      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="s"/>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
         <v>5</v>
@@ -6601,14 +7459,3207 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s">
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>531</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>532</v>
+      </c>
+      <c r="J69" t="s">
+        <v>533</v>
+      </c>
+      <c r="K69" t="s">
+        <v>534</v>
+      </c>
+      <c r="L69" t="s">
+        <v>535</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>525</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>536</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>537</v>
+      </c>
+      <c r="J70" t="s">
+        <v>538</v>
+      </c>
+      <c r="K70" t="s">
+        <v>539</v>
+      </c>
+      <c r="L70" t="s">
+        <v>540</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>541</v>
+      </c>
+      <c r="O70" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>543</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>544</v>
+      </c>
+      <c r="J71" t="s">
+        <v>545</v>
+      </c>
+      <c r="K71" t="s">
+        <v>546</v>
+      </c>
+      <c r="L71" t="s">
+        <v>547</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>541</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>548</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>549</v>
+      </c>
+      <c r="J72" t="s">
+        <v>550</v>
+      </c>
+      <c r="K72" t="s">
+        <v>551</v>
+      </c>
+      <c r="L72" t="s">
+        <v>552</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>553</v>
+      </c>
+      <c r="O72" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>554</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>555</v>
+      </c>
+      <c r="J73" t="s">
+        <v>556</v>
+      </c>
+      <c r="K73" t="s">
+        <v>557</v>
+      </c>
+      <c r="L73" t="s">
+        <v>558</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>559</v>
+      </c>
+      <c r="O73" t="s">
+        <v>59</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>560</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>561</v>
+      </c>
+      <c r="J74" t="s">
+        <v>562</v>
+      </c>
+      <c r="K74" t="s">
         <v>563</v>
       </c>
-      <c r="X68" t="s">
+      <c r="L74" t="s">
         <v>564</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
         <v>565</v>
+      </c>
+      <c r="O74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>566</v>
+      </c>
+      <c r="X74" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>569</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>570</v>
+      </c>
+      <c r="J75" t="s">
+        <v>571</v>
+      </c>
+      <c r="K75" t="s">
+        <v>534</v>
+      </c>
+      <c r="L75" t="s">
+        <v>572</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>573</v>
+      </c>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>574</v>
+      </c>
+      <c r="X75" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>577</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>578</v>
+      </c>
+      <c r="J76" t="s">
+        <v>579</v>
+      </c>
+      <c r="K76" t="s">
+        <v>580</v>
+      </c>
+      <c r="L76" t="s">
+        <v>581</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>573</v>
+      </c>
+      <c r="O76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>582</v>
+      </c>
+      <c r="X76" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>585</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>586</v>
+      </c>
+      <c r="J77" t="s">
+        <v>587</v>
+      </c>
+      <c r="K77" t="s">
+        <v>588</v>
+      </c>
+      <c r="L77" t="s">
+        <v>589</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>590</v>
+      </c>
+      <c r="O77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>591</v>
+      </c>
+      <c r="X77" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>594</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>595</v>
+      </c>
+      <c r="J78" t="s">
+        <v>596</v>
+      </c>
+      <c r="K78" t="s">
+        <v>597</v>
+      </c>
+      <c r="L78" t="s">
+        <v>598</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>590</v>
+      </c>
+      <c r="O78" t="s">
+        <v>59</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>600</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>601</v>
+      </c>
+      <c r="J79" t="s">
+        <v>602</v>
+      </c>
+      <c r="K79" t="s">
+        <v>603</v>
+      </c>
+      <c r="L79" t="s">
+        <v>604</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>605</v>
+      </c>
+      <c r="O79" t="s">
+        <v>73</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>606</v>
+      </c>
+      <c r="X79" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>609</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>610</v>
+      </c>
+      <c r="J80" t="s">
+        <v>611</v>
+      </c>
+      <c r="K80" t="s">
+        <v>612</v>
+      </c>
+      <c r="L80" t="s">
+        <v>613</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>614</v>
+      </c>
+      <c r="O80" t="s">
+        <v>59</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>615</v>
+      </c>
+      <c r="X80" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>618</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>619</v>
+      </c>
+      <c r="J81" t="s">
+        <v>620</v>
+      </c>
+      <c r="K81" t="s">
+        <v>621</v>
+      </c>
+      <c r="L81" t="s">
+        <v>622</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>623</v>
+      </c>
+      <c r="O81" t="s">
+        <v>59</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>606</v>
+      </c>
+      <c r="X81" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>625</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>626</v>
+      </c>
+      <c r="J82" t="s">
+        <v>627</v>
+      </c>
+      <c r="K82" t="s">
+        <v>628</v>
+      </c>
+      <c r="L82" t="s">
+        <v>629</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>630</v>
+      </c>
+      <c r="O82" t="s">
+        <v>59</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>631</v>
+      </c>
+      <c r="X82" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>634</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>635</v>
+      </c>
+      <c r="J83" t="s">
+        <v>636</v>
+      </c>
+      <c r="K83" t="s">
+        <v>637</v>
+      </c>
+      <c r="L83" t="s">
+        <v>638</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>639</v>
+      </c>
+      <c r="O83" t="s">
+        <v>59</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>640</v>
+      </c>
+      <c r="X83" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>643</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>644</v>
+      </c>
+      <c r="J84" t="s">
+        <v>645</v>
+      </c>
+      <c r="K84" t="s">
+        <v>646</v>
+      </c>
+      <c r="L84" t="s">
+        <v>647</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>648</v>
+      </c>
+      <c r="X84" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>651</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>652</v>
+      </c>
+      <c r="J85" t="s">
+        <v>653</v>
+      </c>
+      <c r="K85" t="s">
+        <v>654</v>
+      </c>
+      <c r="L85" t="s">
+        <v>655</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>656</v>
+      </c>
+      <c r="X85" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>659</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>660</v>
+      </c>
+      <c r="J86" t="s">
+        <v>661</v>
+      </c>
+      <c r="K86" t="s">
+        <v>662</v>
+      </c>
+      <c r="L86" t="s">
+        <v>663</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>664</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>665</v>
+      </c>
+      <c r="X86" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>668</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>669</v>
+      </c>
+      <c r="J87" t="s">
+        <v>670</v>
+      </c>
+      <c r="K87" t="s">
+        <v>671</v>
+      </c>
+      <c r="L87" t="s">
+        <v>672</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>664</v>
+      </c>
+      <c r="O87" t="s">
+        <v>86</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>673</v>
+      </c>
+      <c r="X87" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>676</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>677</v>
+      </c>
+      <c r="J88" t="s">
+        <v>678</v>
+      </c>
+      <c r="K88" t="s">
+        <v>679</v>
+      </c>
+      <c r="L88" t="s">
+        <v>680</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>681</v>
+      </c>
+      <c r="X88" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>684</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>685</v>
+      </c>
+      <c r="J89" t="s">
+        <v>686</v>
+      </c>
+      <c r="K89" t="s">
+        <v>687</v>
+      </c>
+      <c r="L89" t="s">
+        <v>688</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>689</v>
+      </c>
+      <c r="O89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>690</v>
+      </c>
+      <c r="X89" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>693</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>694</v>
+      </c>
+      <c r="J90" t="s">
+        <v>695</v>
+      </c>
+      <c r="K90" t="s">
+        <v>696</v>
+      </c>
+      <c r="L90" t="s">
+        <v>697</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>698</v>
+      </c>
+      <c r="O90" t="s">
+        <v>59</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>699</v>
+      </c>
+      <c r="X90" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>702</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>703</v>
+      </c>
+      <c r="J91" t="s">
+        <v>704</v>
+      </c>
+      <c r="K91" t="s">
+        <v>705</v>
+      </c>
+      <c r="L91" t="s">
+        <v>706</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>707</v>
+      </c>
+      <c r="X91" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>710</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>711</v>
+      </c>
+      <c r="J92" t="s">
+        <v>712</v>
+      </c>
+      <c r="K92" t="s">
+        <v>713</v>
+      </c>
+      <c r="L92" t="s">
+        <v>714</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>605</v>
+      </c>
+      <c r="O92" t="s">
+        <v>59</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>715</v>
+      </c>
+      <c r="X92" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>718</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>719</v>
+      </c>
+      <c r="J93" t="s">
+        <v>720</v>
+      </c>
+      <c r="K93" t="s">
+        <v>721</v>
+      </c>
+      <c r="L93" t="s">
+        <v>722</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>605</v>
+      </c>
+      <c r="O93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>723</v>
+      </c>
+      <c r="X93" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>726</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>727</v>
+      </c>
+      <c r="J94" t="s">
+        <v>728</v>
+      </c>
+      <c r="K94" t="s">
+        <v>50</v>
+      </c>
+      <c r="L94" t="s">
+        <v>729</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>730</v>
+      </c>
+      <c r="O94" t="s">
+        <v>194</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>731</v>
+      </c>
+      <c r="X94" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>734</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>735</v>
+      </c>
+      <c r="J95" t="s">
+        <v>736</v>
+      </c>
+      <c r="K95" t="s">
+        <v>737</v>
+      </c>
+      <c r="L95" t="s">
+        <v>738</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>739</v>
+      </c>
+      <c r="O95" t="s">
+        <v>59</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>740</v>
+      </c>
+      <c r="X95" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>743</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>744</v>
+      </c>
+      <c r="J96" t="s">
+        <v>745</v>
+      </c>
+      <c r="K96" t="s">
+        <v>746</v>
+      </c>
+      <c r="L96" t="s">
+        <v>747</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>748</v>
+      </c>
+      <c r="O96" t="s">
+        <v>59</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>749</v>
+      </c>
+      <c r="X96" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>752</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>753</v>
+      </c>
+      <c r="J97" t="s">
+        <v>754</v>
+      </c>
+      <c r="K97" t="s">
+        <v>755</v>
+      </c>
+      <c r="L97" t="s">
+        <v>756</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>730</v>
+      </c>
+      <c r="O97" t="s">
+        <v>59</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>757</v>
+      </c>
+      <c r="X97" t="s">
+        <v>758</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>760</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>761</v>
+      </c>
+      <c r="J98" t="s">
+        <v>762</v>
+      </c>
+      <c r="K98" t="s">
+        <v>763</v>
+      </c>
+      <c r="L98" t="s">
+        <v>764</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>765</v>
+      </c>
+      <c r="O98" t="s">
+        <v>59</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>757</v>
+      </c>
+      <c r="X98" t="s">
+        <v>758</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>767</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>768</v>
+      </c>
+      <c r="J99" t="s">
+        <v>769</v>
+      </c>
+      <c r="K99" t="s">
+        <v>770</v>
+      </c>
+      <c r="L99" t="s">
+        <v>771</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>765</v>
+      </c>
+      <c r="O99" t="s">
+        <v>59</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>772</v>
+      </c>
+      <c r="X99" t="s">
+        <v>773</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>775</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>776</v>
+      </c>
+      <c r="J100" t="s">
+        <v>777</v>
+      </c>
+      <c r="K100" t="s">
+        <v>778</v>
+      </c>
+      <c r="L100" t="s">
+        <v>779</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>730</v>
+      </c>
+      <c r="O100" t="s">
+        <v>59</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>780</v>
+      </c>
+      <c r="X100" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>783</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>784</v>
+      </c>
+      <c r="J101" t="s">
+        <v>785</v>
+      </c>
+      <c r="K101" t="s">
+        <v>786</v>
+      </c>
+      <c r="L101" t="s">
+        <v>787</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>748</v>
+      </c>
+      <c r="O101" t="s">
+        <v>86</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>2</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>788</v>
+      </c>
+      <c r="X101" t="s">
+        <v>789</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>791</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>792</v>
+      </c>
+      <c r="J102" t="s">
+        <v>793</v>
+      </c>
+      <c r="K102" t="s">
+        <v>794</v>
+      </c>
+      <c r="L102" t="s">
+        <v>795</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>796</v>
+      </c>
+      <c r="O102" t="s">
+        <v>59</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>797</v>
+      </c>
+      <c r="X102" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>800</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>801</v>
+      </c>
+      <c r="J103" t="s">
+        <v>802</v>
+      </c>
+      <c r="K103" t="s">
+        <v>803</v>
+      </c>
+      <c r="L103" t="s">
+        <v>804</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>796</v>
+      </c>
+      <c r="O103" t="s">
+        <v>59</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>805</v>
+      </c>
+      <c r="X103" t="s">
+        <v>806</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>808</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>809</v>
+      </c>
+      <c r="J104" t="s">
+        <v>810</v>
+      </c>
+      <c r="K104" t="s">
+        <v>811</v>
+      </c>
+      <c r="L104" t="s">
+        <v>812</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>813</v>
+      </c>
+      <c r="O104" t="s">
+        <v>59</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>814</v>
+      </c>
+      <c r="X104" t="s">
+        <v>815</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>817</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>818</v>
+      </c>
+      <c r="J105" t="s">
+        <v>819</v>
+      </c>
+      <c r="K105" t="s">
+        <v>820</v>
+      </c>
+      <c r="L105" t="s">
+        <v>821</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>822</v>
+      </c>
+      <c r="O105" t="s">
+        <v>59</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>823</v>
+      </c>
+      <c r="X105" t="s">
+        <v>824</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>826</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>827</v>
+      </c>
+      <c r="J106" t="s">
+        <v>828</v>
+      </c>
+      <c r="K106" t="s">
+        <v>829</v>
+      </c>
+      <c r="L106" t="s">
+        <v>830</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>822</v>
+      </c>
+      <c r="O106" t="s">
+        <v>59</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>831</v>
+      </c>
+      <c r="X106" t="s">
+        <v>832</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>834</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>835</v>
+      </c>
+      <c r="J107" t="s">
+        <v>836</v>
+      </c>
+      <c r="K107" t="s">
+        <v>837</v>
+      </c>
+      <c r="L107" t="s">
+        <v>838</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>839</v>
+      </c>
+      <c r="X107" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>842</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>843</v>
+      </c>
+      <c r="J108" t="s">
+        <v>844</v>
+      </c>
+      <c r="K108" t="s">
+        <v>845</v>
+      </c>
+      <c r="L108" t="s">
+        <v>846</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>847</v>
+      </c>
+      <c r="O108" t="s">
+        <v>59</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>839</v>
+      </c>
+      <c r="X108" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>849</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>850</v>
+      </c>
+      <c r="J109" t="s">
+        <v>851</v>
+      </c>
+      <c r="K109" t="s">
+        <v>852</v>
+      </c>
+      <c r="L109" t="s">
+        <v>853</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>847</v>
+      </c>
+      <c r="O109" t="s">
+        <v>59</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>839</v>
+      </c>
+      <c r="X109" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>855</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>856</v>
+      </c>
+      <c r="J110" t="s">
+        <v>851</v>
+      </c>
+      <c r="K110" t="s">
+        <v>857</v>
+      </c>
+      <c r="L110" t="s">
+        <v>858</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>847</v>
+      </c>
+      <c r="O110" t="s">
+        <v>59</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>839</v>
+      </c>
+      <c r="X110" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>860</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>861</v>
+      </c>
+      <c r="J111" t="s">
+        <v>862</v>
+      </c>
+      <c r="K111" t="s">
+        <v>863</v>
+      </c>
+      <c r="L111" t="s">
+        <v>864</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>865</v>
+      </c>
+      <c r="O111" t="s">
+        <v>59</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>866</v>
+      </c>
+      <c r="X111" t="s">
+        <v>867</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>869</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>870</v>
+      </c>
+      <c r="J112" t="s">
+        <v>871</v>
+      </c>
+      <c r="K112" t="s">
+        <v>872</v>
+      </c>
+      <c r="L112" t="s">
+        <v>873</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>874</v>
+      </c>
+      <c r="O112" t="s">
+        <v>59</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>876</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>877</v>
+      </c>
+      <c r="J113" t="s">
+        <v>878</v>
+      </c>
+      <c r="K113" t="s">
+        <v>879</v>
+      </c>
+      <c r="L113" t="s">
+        <v>880</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>874</v>
+      </c>
+      <c r="O113" t="s">
+        <v>194</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>881</v>
+      </c>
+      <c r="X113" t="s">
+        <v>882</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>884</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>885</v>
+      </c>
+      <c r="J114" t="s">
+        <v>878</v>
+      </c>
+      <c r="K114" t="s">
+        <v>886</v>
+      </c>
+      <c r="L114" t="s">
+        <v>887</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4</v>
+      </c>
+      <c r="N114" t="s">
+        <v>874</v>
+      </c>
+      <c r="O114" t="s">
+        <v>73</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>881</v>
+      </c>
+      <c r="X114" t="s">
+        <v>882</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>60597</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>889</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>890</v>
+      </c>
+      <c r="J115" t="s">
+        <v>891</v>
+      </c>
+      <c r="K115" t="s">
+        <v>892</v>
+      </c>
+      <c r="L115" t="s">
+        <v>893</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>894</v>
+      </c>
+      <c r="O115" t="s">
+        <v>59</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="s"/>
+      <c r="R115" t="s"/>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>895</v>
+      </c>
+      <c r="X115" t="s">
+        <v>896</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>897</v>
       </c>
     </row>
   </sheetData>
